--- a/tests/validation/BnB_ReferenceFlange-Results.xlsx
+++ b/tests/validation/BnB_ReferenceFlange-Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\tests\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1FA579-5E49-43FE-BDB1-73CEB9D037C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBF8A6B-9223-4A56-8186-8E22BA2D8F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7080" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
@@ -351,7 +351,7 @@
     <definedName name="Z2_tilde" localSheetId="1">Gap60deg!$J$146</definedName>
     <definedName name="Z2_tilde" localSheetId="2">Gap90deg!$J$146</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5043,13 +5043,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5060,27 +5081,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -19326,6 +19326,7 @@
       <sheetName val="AMD1"/>
       <sheetName val="Comp"/>
       <sheetName val="DesignGaps"/>
+      <sheetName val="DesignGap_Table"/>
       <sheetName val="MonteCarlo"/>
       <sheetName val="Gap_close"/>
       <sheetName val="Def_T"/>
@@ -19480,11 +19481,6 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11">
-        <row r="6">
-          <cell r="BH6">
-            <v>7500</v>
-          </cell>
-        </row>
         <row r="33">
           <cell r="P33" t="str">
             <v>154:B&amp;B Reference; Bolt: 120xM80 ISO; D=7500mm; a=232.5mm; b=166.5mm; s=72.0mm; s2=100.0mm; t=200.0mm; w=435.0mm; A=87000mm²</v>
@@ -19493,59 +19489,24 @@
       </sheetData>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
-      <sheetData sheetId="14">
-        <row r="53">
-          <cell r="C53">
-            <v>2.1533230192475301</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16">
-        <row r="15">
-          <cell r="E15">
-            <v>194.0980661142894</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="10">
-          <cell r="J10">
-            <v>298394.39776040422</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
-        <row r="8">
-          <cell r="E8">
-            <v>-123.29166666666667</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
-      <sheetData sheetId="23">
-        <row r="7">
-          <cell r="X7">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24">
-        <row r="5">
-          <cell r="E5">
-            <v>200</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -19854,8 +19815,8 @@
   <dimension ref="A1:DJ178"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -19941,12 +19902,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="173"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="164"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -19954,12 +19915,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="173"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="164"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -19967,12 +19928,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="173"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="164"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -19980,12 +19941,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="173"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -19993,12 +19954,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="173"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -20046,112 +20007,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="163" t="s">
+      <c r="C13" s="165"/>
+      <c r="D13" s="167" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="164"/>
-      <c r="D14" s="163" t="s">
+      <c r="C14" s="165"/>
+      <c r="D14" s="167" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="164" t="s">
+      <c r="B15" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="164"/>
-      <c r="D15" s="163" t="s">
+      <c r="C15" s="165"/>
+      <c r="D15" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="165" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="163" t="str">
+      <c r="C16" s="165"/>
+      <c r="D16" s="167" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="162" t="s">
+      <c r="C17" s="165"/>
+      <c r="D17" s="171" t="s">
         <v>328</v>
       </c>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="164" t="s">
+      <c r="B18" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="174">
+      <c r="C18" s="165"/>
+      <c r="D18" s="166">
         <v>45432</v>
       </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -20339,16 +20300,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="167"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="174"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -24263,6 +24224,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B18:C18"/>
@@ -24273,16 +24240,10 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="26" priority="5" stopIfTrue="1" operator="between">
@@ -24322,8 +24283,8 @@
   <dimension ref="A1:DJ178"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -24409,12 +24370,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="173"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="164"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -24422,12 +24383,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="173"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="164"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -24435,12 +24396,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="173"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="164"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -24448,12 +24409,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="173"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -24461,12 +24422,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="173"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -24514,117 +24475,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="163" t="str">
+      <c r="C13" s="165"/>
+      <c r="D13" s="167" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="164"/>
-      <c r="D14" s="163" t="str">
+      <c r="C14" s="165"/>
+      <c r="D14" s="167" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="164" t="s">
+      <c r="B15" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="164"/>
-      <c r="D15" s="163" t="str">
+      <c r="C15" s="165"/>
+      <c r="D15" s="167" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="165" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="163" t="str">
+      <c r="C16" s="165"/>
+      <c r="D16" s="167" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="163" t="str">
+      <c r="C17" s="165"/>
+      <c r="D17" s="167" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="164" t="s">
+      <c r="B18" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="174">
+      <c r="C18" s="165"/>
+      <c r="D18" s="166">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -24812,16 +24773,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="167"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="174"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -28698,13 +28659,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -28718,6 +28672,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="between">
@@ -28757,8 +28718,8 @@
   <dimension ref="A1:DJ178"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -28844,12 +28805,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="173"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="164"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -28857,12 +28818,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="173"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="164"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -28870,12 +28831,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="173"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="164"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -28883,12 +28844,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="173"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -28896,12 +28857,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="173"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -28949,117 +28910,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="163" t="str">
+      <c r="C13" s="165"/>
+      <c r="D13" s="167" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="164"/>
-      <c r="D14" s="163" t="str">
+      <c r="C14" s="165"/>
+      <c r="D14" s="167" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="164" t="s">
+      <c r="B15" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="164"/>
-      <c r="D15" s="163" t="str">
+      <c r="C15" s="165"/>
+      <c r="D15" s="167" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="165" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="163" t="str">
+      <c r="C16" s="165"/>
+      <c r="D16" s="167" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="163" t="str">
+      <c r="C17" s="165"/>
+      <c r="D17" s="167" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="164" t="s">
+      <c r="B18" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="174">
+      <c r="C18" s="165"/>
+      <c r="D18" s="166">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -29247,16 +29208,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="167"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="174"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -33134,13 +33095,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -33154,6 +33108,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="between">
@@ -33193,8 +33154,8 @@
   <dimension ref="A1:DJ178"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P145" sqref="P145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -33280,12 +33241,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="173"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="164"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -33293,12 +33254,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="173"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="164"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -33306,12 +33267,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="173"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="164"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -33319,12 +33280,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="173"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -33332,12 +33293,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="173"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -33385,117 +33346,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="163" t="str">
+      <c r="C13" s="165"/>
+      <c r="D13" s="167" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="164"/>
-      <c r="D14" s="163" t="str">
+      <c r="C14" s="165"/>
+      <c r="D14" s="167" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="164" t="s">
+      <c r="B15" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="164"/>
-      <c r="D15" s="163" t="str">
+      <c r="C15" s="165"/>
+      <c r="D15" s="167" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="165" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="163" t="str">
+      <c r="C16" s="165"/>
+      <c r="D16" s="167" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="163" t="str">
+      <c r="C17" s="165"/>
+      <c r="D17" s="167" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="164" t="s">
+      <c r="B18" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="174">
+      <c r="C18" s="165"/>
+      <c r="D18" s="166">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -33683,16 +33644,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="167"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="174"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -37570,13 +37531,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -37590,6 +37544,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="between">
@@ -37626,8 +37587,8 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="B2:R120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -37659,19 +37620,19 @@
     </row>
     <row r="21" spans="2:18" ht="18">
       <c r="G21" s="142">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:18">
       <c r="G22" s="143">
         <f>MATCH(gap_angle,N48:Q48,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:18">
       <c r="G23" s="143" t="str">
         <f>"Gap"&amp;gap_angle&amp;"deg"</f>
-        <v>Gap30deg</v>
+        <v>Gap60deg</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -38693,11 +38654,11 @@
       </c>
       <c r="E48" s="110" cm="1">
         <f t="array" ref="E48">INDEX(N48:Q48,case_number)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F48" s="110" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">INDIRECT(sheet_name&amp;"!gap.angle")</f>
-        <v>29.999999999999996</v>
+        <v>59.999999999999993</v>
       </c>
       <c r="G48" s="118">
         <f t="shared" ref="G48:G53" ca="1" si="1">(F48-E48)/E48</f>
@@ -38739,11 +38700,11 @@
       </c>
       <c r="E49" s="109" cm="1">
         <f t="array" ref="E49">INDEX(N49:Q49,case_number)</f>
-        <v>1.9634954084936207</v>
+        <v>3.9269908169872414</v>
       </c>
       <c r="F49" s="109" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">INDIRECT(sheet_name&amp;"!gap.L")/1000</f>
-        <v>1.9634954084936205</v>
+        <v>3.926990816987241</v>
       </c>
       <c r="G49" s="118">
         <f t="shared" ca="1" si="1"/>
@@ -38883,15 +38844,15 @@
       </c>
       <c r="E52" s="109" cm="1">
         <f t="array" ref="E52">INDEX(N52:Q52,case_number)</f>
-        <v>0.28773533056547307</v>
+        <v>0.74253427729521915</v>
       </c>
       <c r="F52" s="109" cm="1">
         <f t="array" aca="1" ref="F52" ca="1">INDIRECT(sheet_name&amp;"!gap.k_mean")</f>
-        <v>0.28799999999999998</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="G52" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1983641357759886E-4</v>
+        <v>6.2720701120667997E-4</v>
       </c>
       <c r="I52" s="157"/>
       <c r="J52" s="155"/>
@@ -38935,15 +38896,15 @@
       </c>
       <c r="E53" s="109" cm="1">
         <f t="array" ref="E53">INDEX(N53:Q53,case_number)</f>
-        <v>1.2162355202035975</v>
+        <v>0.63575115537527993</v>
       </c>
       <c r="F53" s="109" cm="1">
         <f t="array" aca="1" ref="F53" ca="1">INDIRECT(sheet_name&amp;"!gap.COV")</f>
-        <v>1.216</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="G53" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9364687158461775E-4</v>
+        <v>3.9141828153373603E-4</v>
       </c>
       <c r="I53" s="157"/>
       <c r="J53" s="155"/>
@@ -39123,7 +39084,7 @@
       <c r="D57" s="103"/>
       <c r="E57" s="109" cm="1">
         <f t="array" ref="E57">INDEX(N57:Q57,case_number)</f>
-        <v>0.95286282352314688</v>
+        <v>0.58262609700472079</v>
       </c>
       <c r="F57" s="109" t="s">
         <v>87</v>
@@ -39167,7 +39128,7 @@
       <c r="D58" s="103"/>
       <c r="E58" s="109" cm="1">
         <f t="array" ref="E58">INDEX(N58:Q58,case_number)</f>
-        <v>-1.6996879926957522</v>
+        <v>-0.46741282911895099</v>
       </c>
       <c r="F58" s="109" t="s">
         <v>87</v>
@@ -39211,7 +39172,7 @@
       <c r="D59" s="103"/>
       <c r="E59" s="109" cm="1">
         <f t="array" ref="E59">INDEX(N59:Q59,case_number)</f>
-        <v>-0.13232393428252798</v>
+        <v>0.49094883784411425</v>
       </c>
       <c r="F59" s="113" t="s">
         <v>87</v>
@@ -39257,15 +39218,15 @@
       </c>
       <c r="E60" s="109" cm="1">
         <f t="array" ref="E60">INDEX(N60:Q60,case_number)</f>
-        <v>0.87601845454409977</v>
+        <v>1.6338216149415525</v>
       </c>
       <c r="F60" s="109" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">INDIRECT(sheet_name&amp;"!gap.h")</f>
-        <v>0.87601845454410032</v>
+        <v>1.6338216149415536</v>
       </c>
       <c r="G60" s="118">
         <f t="shared" ref="G60:G61" ca="1" si="2">(F60-E60)/E60</f>
-        <v>6.3367559145939581E-16</v>
+        <v>6.7952523976424013E-16</v>
       </c>
       <c r="I60" s="157"/>
       <c r="J60" s="155"/>
@@ -39306,15 +39267,15 @@
       </c>
       <c r="E61" s="109" cm="1">
         <f t="array" ref="E61">INDEX(N61:Q61,case_number)</f>
-        <v>0.87601845454409977</v>
+        <v>1.6338216149415525</v>
       </c>
       <c r="F61" s="109" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">INDIRECT(sheet_name&amp;"!gap.h")</f>
-        <v>0.87601845454410032</v>
+        <v>1.6338216149415536</v>
       </c>
       <c r="G61" s="118">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3367559145939581E-16</v>
+        <v>6.7952523976424013E-16</v>
       </c>
       <c r="H61" t="s">
         <v>166</v>
@@ -39599,15 +39560,15 @@
       </c>
       <c r="E69" s="108" cm="1">
         <f t="array" ref="E69">INDEX(N69:Q69,case_number)</f>
-        <v>2000.9202638759255</v>
+        <v>1696.4363831333353</v>
       </c>
       <c r="F69" s="108" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">INDIRECT(sheet_name&amp;"!Point2.Z")</f>
-        <v>2000.9619972862092</v>
+        <v>1696.4509084501303</v>
       </c>
       <c r="G69" s="118">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0857108120304573E-5</v>
+        <v>8.5622525780704417E-6</v>
       </c>
       <c r="K69" s="106"/>
       <c r="L69" s="103" t="s">
@@ -39679,15 +39640,15 @@
       </c>
       <c r="E71" s="107" cm="1">
         <f t="array" ref="E71">INDEX(N71:Q71,case_number)</f>
-        <v>206.82520235998152</v>
+        <v>139.05186524303502</v>
       </c>
       <c r="F71" s="107" cm="1">
         <f t="array" aca="1" ref="F71" ca="1">INDIRECT(sheet_name&amp;"!Point3.Z")</f>
-        <v>251.15459961508168</v>
+        <v>139.05305712166626</v>
       </c>
       <c r="G71" s="118">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21433266714732552</v>
+        <v>8.5714681291688551E-6</v>
       </c>
       <c r="K71" s="106"/>
       <c r="L71" s="103" t="s">
@@ -39697,7 +39658,7 @@
         <v>129</v>
       </c>
       <c r="N71" s="109">
-        <v>206.82520235998152</v>
+        <v>251.14925721102841</v>
       </c>
       <c r="O71" s="109">
         <v>139.05186524303502</v>
@@ -39719,15 +39680,15 @@
       </c>
       <c r="E72" s="107" cm="1">
         <f t="array" ref="E72">INDEX(N72:Q72,case_number)</f>
-        <v>2922.9775815429352</v>
+        <v>2913.3330351123464</v>
       </c>
       <c r="F72" s="107" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">INDIRECT(sheet_name&amp;"!Point3.Fs")</f>
-        <v>2929.2840755795692</v>
+        <v>2913.3319147472034</v>
       </c>
       <c r="G72" s="118">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1575581271837704E-3</v>
+        <v>-3.8456473373320486E-7</v>
       </c>
       <c r="K72" s="106"/>
       <c r="L72" s="103" t="s">
@@ -39737,7 +39698,7 @@
         <v>129</v>
       </c>
       <c r="N72" s="109">
-        <v>2922.9775815429352</v>
+        <v>2929.2851565154538</v>
       </c>
       <c r="O72" s="109">
         <v>2913.3330351123464</v>
@@ -39757,7 +39718,7 @@
       <c r="D73" s="103"/>
       <c r="E73" s="107" cm="1">
         <f t="array" ref="E73">INDEX(N73:Q73,case_number)</f>
-        <v>1258087976.6031687</v>
+        <v>743485843.40941381</v>
       </c>
       <c r="F73" s="110" t="s">
         <v>87</v>
@@ -39769,7 +39730,7 @@
       </c>
       <c r="M73" s="103"/>
       <c r="N73" s="110">
-        <v>1258087976.6031687</v>
+        <v>1391753646.6838758</v>
       </c>
       <c r="O73" s="110">
         <v>743485843.40941381</v>
@@ -39789,7 +39750,7 @@
       <c r="D74" s="103"/>
       <c r="E74" s="107" cm="1">
         <f t="array" ref="E74">INDEX(N74:Q74,case_number)</f>
-        <v>137563.68964861956</v>
+        <v>120689.0282649705</v>
       </c>
       <c r="F74" s="111" t="s">
         <v>87</v>
@@ -39801,7 +39762,7 @@
       </c>
       <c r="M74" s="103"/>
       <c r="N74" s="111">
-        <v>137563.68964861956</v>
+        <v>156034.0590771065</v>
       </c>
       <c r="O74" s="111">
         <v>120689.0282649705</v>
@@ -39821,7 +39782,7 @@
       <c r="D75" s="103"/>
       <c r="E75" s="107" cm="1">
         <f t="array" ref="E75">INDEX(N75:Q75,case_number)</f>
-        <v>167542173.33323577</v>
+        <v>103900346.66917758</v>
       </c>
       <c r="F75" s="111" t="s">
         <v>87</v>
@@ -39833,7 +39794,7 @@
       </c>
       <c r="M75" s="103"/>
       <c r="N75" s="111">
-        <v>167542173.33323577</v>
+        <v>178104630.72908202</v>
       </c>
       <c r="O75" s="111">
         <v>103900346.66917758</v>
@@ -39853,15 +39814,15 @@
       <c r="D76" s="103"/>
       <c r="E76" s="159" cm="1">
         <f t="array" ref="E76">INDEX(N76:Q76,case_number)</f>
-        <v>1.0934345785581771E-4</v>
+        <v>1.6232861638834317E-4</v>
       </c>
       <c r="F76" s="159" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.2")*1000</f>
-        <v>1.1210995296667055E-4</v>
+        <v>1.6232835882917454E-4</v>
       </c>
       <c r="G76" s="118">
         <f t="shared" ref="G76:G78" ca="1" si="5">(F76-E76)/E76</f>
-        <v>2.5300966012075338E-2</v>
+        <v>-1.5866528918773755E-6</v>
       </c>
       <c r="K76" s="106"/>
       <c r="L76" s="105" t="s">
@@ -39869,7 +39830,7 @@
       </c>
       <c r="M76" s="103"/>
       <c r="N76" s="150">
-        <v>1.0934345785581771E-4</v>
+        <v>1.12113274823377E-4</v>
       </c>
       <c r="O76" s="150">
         <v>1.6232861638834317E-4</v>
@@ -39889,15 +39850,15 @@
       <c r="D77" s="103"/>
       <c r="E77" s="159" cm="1">
         <f t="array" ref="E77">INDEX(N77:Q77,case_number)</f>
-        <v>0.13317206463223566</v>
+        <v>0.13974757904295831</v>
       </c>
       <c r="F77" s="159" cm="1">
         <f t="array" aca="1" ref="F77" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.1")</f>
-        <v>0.12796628576797583</v>
+        <v>0.13974247252157912</v>
       </c>
       <c r="G77" s="118">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.9090622185936376E-2</v>
+        <v>-3.6541036447041404E-5</v>
       </c>
       <c r="K77" s="106"/>
       <c r="L77" s="105" t="s">
@@ -39905,7 +39866,7 @@
       </c>
       <c r="M77" s="103"/>
       <c r="N77" s="150">
-        <v>0.13317206463223566</v>
+        <v>0.12797137708491083</v>
       </c>
       <c r="O77" s="150">
         <v>0.13974757904295831</v>
@@ -39925,15 +39886,15 @@
       <c r="D78" s="103"/>
       <c r="E78" s="108" cm="1">
         <f t="array" ref="E78">INDEX(N78:Q78,case_number)</f>
-        <v>2890.7568939331604</v>
+        <v>2890.762181408068</v>
       </c>
       <c r="F78" s="107" cm="1">
         <f t="array" aca="1" ref="F78" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.0")/1000</f>
-        <v>2890.0730117447874</v>
+        <v>2890.7615557316503</v>
       </c>
       <c r="G78" s="118">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.3657547606588991E-4</v>
+        <v>-2.1643994851476227E-7</v>
       </c>
       <c r="K78" s="106"/>
       <c r="L78" s="112" t="s">
@@ -39941,7 +39902,7 @@
       </c>
       <c r="M78" s="103"/>
       <c r="N78" s="108">
-        <v>2890.7568939331604</v>
+        <v>2890.0735889667417</v>
       </c>
       <c r="O78" s="108">
         <v>2890.762181408068</v>
@@ -39966,15 +39927,15 @@
       </c>
       <c r="E79" s="107" cm="1">
         <f t="array" ref="E79">INDEX(N79:Q79,case_number)</f>
-        <v>1244.3580111747735</v>
+        <v>806.61559168592612</v>
       </c>
       <c r="F79" s="107" cm="1">
         <f t="array" aca="1" ref="F79" ca="1">-INDIRECT(sheet_name&amp;"!DZ_gap")</f>
-        <v>1244.3583528535567</v>
+        <v>806.61560331250178</v>
       </c>
       <c r="G79" s="118">
         <f ca="1">(F79-E79)/E79</f>
-        <v>2.7458237906393814E-7</v>
+        <v>1.4414022956968493E-8</v>
       </c>
       <c r="I79" s="152"/>
       <c r="K79" s="106">
@@ -40193,15 +40154,15 @@
       </c>
       <c r="E84" s="111" cm="1">
         <f t="array" ref="E84">INDEX(N84:Q84,case_number)</f>
-        <v>14636.622779298261</v>
+        <v>5087.1057121717786</v>
       </c>
       <c r="F84" s="111" cm="1">
         <f t="array" aca="1" ref="F84" ca="1">INDIRECT(sheet_name&amp;"!gap.stiffness")</f>
-        <v>14636.626798256961</v>
+        <v>5087.1057854974342</v>
       </c>
       <c r="G84" s="118">
         <f ca="1">(F84-E84)/E84</f>
-        <v>2.7458237876438642E-7</v>
+        <v>1.4414022392578782E-8</v>
       </c>
       <c r="I84" s="151"/>
       <c r="K84" s="106">
@@ -40244,7 +40205,7 @@
       </c>
       <c r="E85" s="111" cm="1">
         <f t="array" ref="E85">INDEX(N85:Q85,case_number)</f>
-        <v>4797.9387029107638</v>
+        <v>2010.5727094753945</v>
       </c>
       <c r="F85" s="111" t="s">
         <v>87</v>
@@ -40291,15 +40252,15 @@
       </c>
       <c r="E86" s="111" cm="1">
         <f t="array" ref="E86">INDEX(N86:Q86,case_number)</f>
-        <v>5169.2082946490964</v>
+        <v>2212.1093218994611</v>
       </c>
       <c r="F86" s="111" cm="1">
         <f t="array" aca="1" ref="F86" ca="1">INDIRECT(sheet_name&amp;"!gap.k_shell")</f>
-        <v>5169.21</v>
+        <v>2212.11</v>
       </c>
       <c r="G86" s="118">
         <f ca="1">(F86-E86)/E86</f>
-        <v>3.2990562702105532E-7</v>
+        <v>3.0654024751357306E-7</v>
       </c>
       <c r="H86" t="s">
         <v>154</v>
@@ -40339,15 +40300,15 @@
       </c>
       <c r="E87" s="111" cm="1">
         <f t="array" ref="E87">INDEX(N87:Q87,case_number)</f>
-        <v>5169.2082946490964</v>
+        <v>2212.1093218994611</v>
       </c>
       <c r="F87" s="111" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">INDIRECT(sheet_name&amp;"!gap.k_shell")</f>
-        <v>5169.21</v>
+        <v>2212.11</v>
       </c>
       <c r="G87" s="118">
         <f ca="1">(F87-E87)/E87</f>
-        <v>3.2990562702105532E-7</v>
+        <v>3.0654024751357306E-7</v>
       </c>
       <c r="H87" t="s">
         <v>152</v>
@@ -40390,15 +40351,15 @@
       </c>
       <c r="E88" s="109" cm="1">
         <f t="array" ref="E88">INDEX(N88:Q88,case_number)</f>
-        <v>1.8</v>
+        <v>2.1031001583544837</v>
       </c>
       <c r="F88" s="109" cm="1">
         <f t="array" aca="1" ref="F88" ca="1">INDIRECT(sheet_name&amp;"!gap.k_fac")</f>
-        <v>1.8</v>
+        <v>2.1031</v>
       </c>
       <c r="G88" s="118">
         <f ca="1">(F88-E88)/E88</f>
-        <v>0</v>
+        <v>-7.5295740490036232E-8</v>
       </c>
       <c r="I88" s="151"/>
       <c r="K88" s="106">
@@ -40441,15 +40402,15 @@
       </c>
       <c r="E89" s="107" cm="1">
         <f t="array" ref="E89">INDEX(N89:Q89,case_number)</f>
-        <v>1483.8020595773849</v>
+        <v>100.21145636043828</v>
       </c>
       <c r="F89" s="107" cm="1">
         <f t="array" aca="1" ref="F89" ca="1">INDIRECT(sheet_name&amp;"!gap.k_fl")</f>
-        <v>1483.8</v>
+        <v>100.21</v>
       </c>
       <c r="G89" s="118">
         <f ca="1">(F89-E89)/E89</f>
-        <v>-1.3880405217153795E-6</v>
+        <v>-1.4532873697042141E-5</v>
       </c>
       <c r="I89" s="151"/>
       <c r="K89" s="106">
@@ -40492,7 +40453,7 @@
       </c>
       <c r="E90" s="110" cm="1">
         <f t="array" ref="E90">INDEX(N90:Q90,case_number)</f>
-        <v>549.79614201309175</v>
+        <v>572.34578129959584</v>
       </c>
       <c r="F90" s="110" t="s">
         <v>87</v>
@@ -40542,7 +40503,7 @@
       </c>
       <c r="E91" s="110" cm="1">
         <f t="array" ref="E91">INDEX(N91:Q91,case_number)</f>
-        <v>431.02794916761809</v>
+        <v>330.74852994509934</v>
       </c>
       <c r="F91" s="110" t="s">
         <v>87</v>
@@ -40637,7 +40598,7 @@
       </c>
       <c r="E93" s="107" cm="1">
         <f t="array" ref="E93">INDEX(N93:Q93,case_number)</f>
-        <v>1794.1541531878652</v>
+        <v>1378.9613729855218</v>
       </c>
       <c r="F93" s="107" t="s">
         <v>87</v>
@@ -40839,15 +40800,15 @@
       </c>
       <c r="E97" s="109" cm="1">
         <f t="array" ref="E97">INDEX(N97:Q97,case_number)</f>
-        <v>2.4286136732398829</v>
+        <v>1.3446317340090279</v>
       </c>
       <c r="F97" s="109" cm="1">
         <f t="array" aca="1" ref="F97" ca="1">INDIRECT(sheet_name&amp;"!stiffness_correction_factor")</f>
-        <v>2.4286653342946511</v>
+        <v>1.3446432594770816</v>
       </c>
       <c r="G97" s="118">
         <f ca="1">(F97-E97)/E97</f>
-        <v>2.1271829001672139E-5</v>
+        <v>8.5714681293114124E-6</v>
       </c>
       <c r="I97" s="152"/>
       <c r="K97" s="106">
@@ -40931,15 +40892,15 @@
       </c>
       <c r="E99" s="107" cm="1">
         <f t="array" ref="E99">INDEX(N99:Q99,case_number)</f>
-        <v>10245.332978022379</v>
+        <v>14760.990385286221</v>
       </c>
       <c r="F99" s="107" cm="1">
         <f t="array" aca="1" ref="F99" ca="1">INDIRECT(sheet_name&amp;"!k_seg")</f>
-        <v>10244.9653</v>
+        <v>14760.496965</v>
       </c>
       <c r="G99" s="118">
         <f ca="1">(F99-E99)/E99</f>
-        <v>-3.5887366781369556E-5</v>
+        <v>-3.3427315738403335E-5</v>
       </c>
       <c r="I99" s="151"/>
       <c r="K99" s="106">
@@ -40982,15 +40943,15 @@
       </c>
       <c r="E100" s="111" cm="1">
         <f t="array" ref="E100">INDEX(N100:Q100,case_number)</f>
-        <v>823.89401242504141</v>
+        <v>1261.6364319138888</v>
       </c>
       <c r="F100" s="111" cm="1">
         <f t="array" aca="1" ref="F100" ca="1">ROUND(INDIRECT(sheet_name&amp;"!Z2_tilde"),0)</f>
-        <v>824</v>
+        <v>1262</v>
       </c>
       <c r="G100" s="118">
         <f ca="1">(F100-E100)/E100</f>
-        <v>1.2864224446373524E-4</v>
+        <v>2.8817183533582925E-4</v>
       </c>
       <c r="I100" s="151"/>
       <c r="K100" s="106">
@@ -41033,15 +40994,15 @@
       </c>
       <c r="E101" s="109" cm="1">
         <f t="array" ref="E101">INDEX(N101:Q101,case_number)</f>
-        <v>0.41430870717841117</v>
+        <v>0.4403495083656086</v>
       </c>
       <c r="F101" s="109" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">INDIRECT(sheet_name&amp;"!u")</f>
-        <v>0.41399999999999998</v>
+        <v>0.44</v>
       </c>
       <c r="G101" s="118">
         <f ca="1">(F101-E101)/E101</f>
-        <v>-7.4511390434827925E-4</v>
+        <v>-7.9370672379270907E-4</v>
       </c>
       <c r="H101" t="s">
         <v>310</v>
@@ -41087,7 +41048,7 @@
       </c>
       <c r="E102" s="110" cm="1">
         <f t="array" ref="E102">INDEX(N102:Q102,case_number)</f>
-        <v>0.41430870717841117</v>
+        <v>0.4403495083656086</v>
       </c>
       <c r="F102" s="104"/>
       <c r="G102" s="104"/>
@@ -41250,15 +41211,15 @@
       </c>
       <c r="E106" s="107" cm="1">
         <f t="array" ref="E106">INDEX(N106:Q106,case_number)</f>
-        <v>-1367.6496778414403</v>
+        <v>-929.90725835259275</v>
       </c>
       <c r="F106" s="107" cm="1">
         <f t="array" aca="1" ref="F106" ca="1">INDIRECT(sheet_name&amp;"!point4.Z")</f>
-        <v>-1367.6500195202234</v>
+        <v>-929.9072699791684</v>
       </c>
       <c r="G106" s="118">
         <f ca="1">(F106-E106)/E106</f>
-        <v>2.4982916945142781E-7</v>
+        <v>1.2502941074583179E-8</v>
       </c>
       <c r="I106" s="103"/>
       <c r="K106" s="106">
@@ -41301,15 +41262,15 @@
       </c>
       <c r="E107" s="113" cm="1">
         <f t="array" ref="E107">INDEX(N107:Q107,case_number)</f>
-        <v>0.10620989951298034</v>
+        <v>9.9720210072952314E-2</v>
       </c>
       <c r="F107" s="113" cm="1">
         <f t="array" aca="1" ref="F107" ca="1">INDIRECT(sheet_name&amp;"!true_force_initial_slope")</f>
-        <v>0.10032183986561098</v>
+        <v>9.9715004706951826E-2</v>
       </c>
       <c r="G107" s="118">
         <f ca="1">(F107-E107)/E107</f>
-        <v>-5.5437955165843558E-2</v>
+        <v>-5.2199709534105006E-5</v>
       </c>
       <c r="I107" s="105"/>
       <c r="K107" s="106">
@@ -41323,7 +41284,7 @@
         <v>124</v>
       </c>
       <c r="N107" s="109">
-        <v>0.10620989951298034</v>
+        <v>0.10033732339252881</v>
       </c>
       <c r="O107" s="109">
         <v>9.9720210072952314E-2</v>
@@ -41352,15 +41313,15 @@
       </c>
       <c r="E108" s="108" cm="1">
         <f t="array" ref="E108">INDEX(N108:Q108,case_number)</f>
-        <v>2809.9184303374777</v>
+        <v>2835.78206187448</v>
       </c>
       <c r="F108" s="108" cm="1">
         <f t="array" aca="1" ref="F108" ca="1">INDIRECT(sheet_name&amp;"!point4.Fs")</f>
-        <v>2813.5818402947953</v>
+        <v>2835.7841606594966</v>
       </c>
       <c r="G108" s="118">
         <f ca="1">(F108-E108)/E108</f>
-        <v>1.3037424566369146E-3</v>
+        <v>7.4010800930687565E-7</v>
       </c>
       <c r="I108" s="103"/>
       <c r="K108" s="106">
@@ -41374,7 +41335,7 @@
         <v>129</v>
       </c>
       <c r="N108" s="108">
-        <v>2809.9184303374777</v>
+        <v>2813.5722239083361</v>
       </c>
       <c r="O108" s="108">
         <v>2835.78206187448</v>
@@ -41746,15 +41707,15 @@
       </c>
       <c r="E117" s="113" cm="1">
         <f t="array" ref="E117">INDEX(N117:Q117,case_number)</f>
-        <v>0.44993544240730643</v>
+        <v>0.52574076951576887</v>
       </c>
       <c r="F117" s="113" cm="1">
         <f t="array" aca="1" ref="F117" ca="1">INDIRECT(sheet_name&amp;"!true_moment_initial_slope")</f>
-        <v>0.4315711874246439</v>
+        <v>0.52569390293812568</v>
       </c>
       <c r="G117" s="118">
         <f ca="1">(F117-E117)/E117</f>
-        <v>-4.0815310935292337E-2</v>
+        <v>-8.9143890602884094E-5</v>
       </c>
       <c r="H117" t="s">
         <v>310</v>
@@ -41771,7 +41732,7 @@
         <v>124</v>
       </c>
       <c r="N117" s="109">
-        <v>0.44993544240730643</v>
+        <v>0.43164328507302907</v>
       </c>
       <c r="O117" s="109">
         <v>0.52574076951576887</v>
@@ -41796,7 +41757,7 @@
       </c>
       <c r="E118" s="113" cm="1">
         <f t="array" ref="E118">INDEX(N118:Q118,case_number)</f>
-        <v>0.10727912386859083</v>
+        <v>9.1352017987722328E-2</v>
       </c>
       <c r="F118" s="109" t="s">
         <v>87</v>
@@ -41814,7 +41775,7 @@
         <v>124</v>
       </c>
       <c r="N118" s="109">
-        <v>0.10727912386859083</v>
+        <v>0.1007556163676184</v>
       </c>
       <c r="O118" s="109">
         <v>9.1352017987722328E-2</v>
@@ -41843,15 +41804,15 @@
       </c>
       <c r="E119" s="108" cm="1">
         <f t="array" ref="E119">INDEX(N119:Q119,case_number)</f>
-        <v>-294.6254340226738</v>
+        <v>-238.55882735848795</v>
       </c>
       <c r="F119" s="108" cm="1">
         <f t="array" aca="1" ref="F119" ca="1">INDIRECT(sheet_name&amp;"!point4.Ms")</f>
-        <v>-283.19818724345407</v>
+        <v>-238.5376166630308</v>
       </c>
       <c r="G119" s="118">
         <f ca="1">(F119-E119)/E119</f>
-        <v>-3.8785676522211966E-2</v>
+        <v>-8.8911802979600851E-5</v>
       </c>
       <c r="H119" t="s">
         <v>310</v>
@@ -41868,7 +41829,7 @@
         <v>122</v>
       </c>
       <c r="N119" s="108">
-        <v>-294.6254340226738</v>
+        <v>-283.24443776238502</v>
       </c>
       <c r="O119" s="108">
         <v>-238.55882735848795</v>
@@ -41893,7 +41854,7 @@
       </c>
       <c r="E120" s="108" cm="1">
         <f t="array" ref="E120">INDEX(N120:Q120,case_number)</f>
-        <v>-66.746818608845928</v>
+        <v>-36.842981020435509</v>
       </c>
       <c r="F120" s="109" t="s">
         <v>87</v>
@@ -41911,7 +41872,7 @@
         <v>122</v>
       </c>
       <c r="N120" s="108">
-        <v>-66.746818608845928</v>
+        <v>-62.688029198949046</v>
       </c>
       <c r="O120" s="108">
         <v>-36.842981020435509</v>
@@ -42059,6 +42020,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E5A98ECA1EC044BB77E0D7F6ADEF7BC" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5e88349ac6f5efd4674595e2a92e1fa9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2278e7f3-5df8-4100-b836-5320443b7544" xmlns:ns4="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bde21b231255bb48ab8a6ec7dd561648" ns3:_="" ns4:_="">
     <xsd:import namespace="2278e7f3-5df8-4100-b836-5320443b7544"/>
@@ -42311,15 +42281,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -42329,6 +42290,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A7863D2-B6F1-4C67-B9E9-1F3A9276C4FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42347,27 +42316,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
     <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tests/validation/BnB_ReferenceFlange-Results.xlsx
+++ b/tests/validation/BnB_ReferenceFlange-Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\tests\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBF8A6B-9223-4A56-8186-8E22BA2D8F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B206FEB4-A353-42D0-AC82-4EB5C26F6BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7080" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="36240" yWindow="4365" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap30deg" sheetId="2" r:id="rId1"/>
@@ -5043,6 +5043,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5061,26 +5079,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -19861,32 +19861,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -19902,12 +19902,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="170"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -19915,12 +19915,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -19928,12 +19928,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="170"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -19941,12 +19941,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -19954,12 +19954,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -20007,112 +20007,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="167" t="s">
+      <c r="C13" s="171"/>
+      <c r="D13" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="167" t="s">
+      <c r="C14" s="171"/>
+      <c r="D14" s="173" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="167" t="s">
+      <c r="C15" s="171"/>
+      <c r="D15" s="173" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="167" t="str">
+      <c r="C16" s="171"/>
+      <c r="D16" s="173" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size</v>
       </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="171" t="s">
+      <c r="C17" s="171"/>
+      <c r="D17" s="174" t="s">
         <v>328</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166">
+      <c r="C18" s="171"/>
+      <c r="D18" s="172">
         <v>45432</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -20300,16 +20300,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="174"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="164"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -24224,6 +24224,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B28:K28"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="B4:G4"/>
@@ -24240,10 +24244,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="26" priority="5" stopIfTrue="1" operator="between">
@@ -24329,32 +24329,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -24370,12 +24370,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="170"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -24383,12 +24383,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -24396,12 +24396,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="170"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -24409,12 +24409,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -24422,12 +24422,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -24475,117 +24475,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="167" t="str">
+      <c r="C13" s="171"/>
+      <c r="D13" s="173" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="167" t="str">
+      <c r="C14" s="171"/>
+      <c r="D14" s="173" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="167" t="str">
+      <c r="C15" s="171"/>
+      <c r="D15" s="173" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="167" t="str">
+      <c r="C16" s="171"/>
+      <c r="D16" s="173" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size</v>
       </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="167" t="str">
+      <c r="C17" s="171"/>
+      <c r="D17" s="173" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166">
+      <c r="C18" s="171"/>
+      <c r="D18" s="172">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -24773,16 +24773,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="174"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="164"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -28659,6 +28659,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -28672,13 +28679,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="between">
@@ -28764,32 +28764,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -28805,12 +28805,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="170"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -28818,12 +28818,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -28831,12 +28831,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="170"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -28844,12 +28844,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -28857,12 +28857,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -28910,117 +28910,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="167" t="str">
+      <c r="C13" s="171"/>
+      <c r="D13" s="173" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="167" t="str">
+      <c r="C14" s="171"/>
+      <c r="D14" s="173" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="167" t="str">
+      <c r="C15" s="171"/>
+      <c r="D15" s="173" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="167" t="str">
+      <c r="C16" s="171"/>
+      <c r="D16" s="173" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size</v>
       </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="167" t="str">
+      <c r="C17" s="171"/>
+      <c r="D17" s="173" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166">
+      <c r="C18" s="171"/>
+      <c r="D18" s="172">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -29208,16 +29208,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="174"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="164"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -33095,6 +33095,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -33108,13 +33115,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="between">
@@ -33200,32 +33200,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -33241,12 +33241,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="170"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -33254,12 +33254,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -33267,12 +33267,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="170"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -33280,12 +33280,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -33293,12 +33293,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -33346,117 +33346,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="167" t="str">
+      <c r="C13" s="171"/>
+      <c r="D13" s="173" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="167" t="str">
+      <c r="C14" s="171"/>
+      <c r="D14" s="173" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="167" t="str">
+      <c r="C15" s="171"/>
+      <c r="D15" s="173" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="167" t="str">
+      <c r="C16" s="171"/>
+      <c r="D16" s="173" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size</v>
       </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="167" t="str">
+      <c r="C17" s="171"/>
+      <c r="D17" s="173" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166">
+      <c r="C18" s="171"/>
+      <c r="D18" s="172">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -33644,16 +33644,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="174"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="164"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -37531,6 +37531,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -37544,13 +37551,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="between">
@@ -42020,12 +42020,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42282,17 +42281,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
+    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42317,18 +42326,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
-    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tests/validation/BnB_ReferenceFlange-Results.xlsx
+++ b/tests/validation/BnB_ReferenceFlange-Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\tests\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B206FEB4-A353-42D0-AC82-4EB5C26F6BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228EA9BC-F735-4DB6-8925-83BA1191C0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36240" yWindow="4365" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap30deg" sheetId="2" r:id="rId1"/>
@@ -394,7 +394,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="329">
   <si>
     <t>A</t>
   </si>
@@ -5043,6 +5043,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5070,17 +5079,8 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -19861,32 +19861,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -19902,12 +19902,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="170"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="173"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -19915,12 +19915,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="170"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="173"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -19928,12 +19928,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="173"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -19941,12 +19941,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="173"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -19954,12 +19954,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="173"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -20007,112 +20007,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="171"/>
-      <c r="D13" s="173" t="s">
+      <c r="C13" s="164"/>
+      <c r="D13" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="171"/>
-      <c r="D14" s="173" t="s">
+      <c r="C14" s="164"/>
+      <c r="D14" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="173" t="s">
+      <c r="C15" s="164"/>
+      <c r="D15" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="173" t="str">
+      <c r="C16" s="164"/>
+      <c r="D16" s="163" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size</v>
       </c>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="171"/>
-      <c r="D17" s="174" t="s">
+      <c r="C17" s="164"/>
+      <c r="D17" s="162" t="s">
         <v>328</v>
       </c>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="164" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="171"/>
-      <c r="D18" s="172">
+      <c r="C18" s="164"/>
+      <c r="D18" s="174">
         <v>45432</v>
       </c>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -20300,16 +20300,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="164"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="167"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -24224,16 +24224,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B18:C18"/>
@@ -24244,6 +24234,16 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="26" priority="5" stopIfTrue="1" operator="between">
@@ -24329,32 +24329,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -24370,12 +24370,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="170"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="173"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -24383,12 +24383,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="170"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="173"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -24396,12 +24396,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="173"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -24409,12 +24409,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="173"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -24422,12 +24422,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="173"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -24475,117 +24475,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="171"/>
-      <c r="D13" s="173" t="str">
+      <c r="C13" s="164"/>
+      <c r="D13" s="163" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="171"/>
-      <c r="D14" s="173" t="str">
+      <c r="C14" s="164"/>
+      <c r="D14" s="163" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="173" t="str">
+      <c r="C15" s="164"/>
+      <c r="D15" s="163" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="173" t="str">
+      <c r="C16" s="164"/>
+      <c r="D16" s="163" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size</v>
       </c>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="171"/>
-      <c r="D17" s="173" t="str">
+      <c r="C17" s="164"/>
+      <c r="D17" s="163" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="164" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="171"/>
-      <c r="D18" s="172">
+      <c r="C18" s="164"/>
+      <c r="D18" s="174">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -24773,16 +24773,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="164"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="167"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -28659,13 +28659,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -28679,6 +28672,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="between">
@@ -28764,32 +28764,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -28805,12 +28805,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="170"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="173"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -28818,12 +28818,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="170"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="173"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -28831,12 +28831,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="173"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -28844,12 +28844,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="173"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -28857,12 +28857,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="173"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -28910,117 +28910,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="171"/>
-      <c r="D13" s="173" t="str">
+      <c r="C13" s="164"/>
+      <c r="D13" s="163" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="171"/>
-      <c r="D14" s="173" t="str">
+      <c r="C14" s="164"/>
+      <c r="D14" s="163" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="173" t="str">
+      <c r="C15" s="164"/>
+      <c r="D15" s="163" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="173" t="str">
+      <c r="C16" s="164"/>
+      <c r="D16" s="163" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size</v>
       </c>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="171"/>
-      <c r="D17" s="173" t="str">
+      <c r="C17" s="164"/>
+      <c r="D17" s="163" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="164" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="171"/>
-      <c r="D18" s="172">
+      <c r="C18" s="164"/>
+      <c r="D18" s="174">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -29208,16 +29208,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="164"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="167"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -33095,13 +33095,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -33115,6 +33108,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="between">
@@ -33200,32 +33200,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -33241,12 +33241,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="170"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="173"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -33254,12 +33254,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="170"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="173"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -33267,12 +33267,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="173"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -33280,12 +33280,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="173"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -33293,12 +33293,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="173"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -33346,117 +33346,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="171"/>
-      <c r="D13" s="173" t="str">
+      <c r="C13" s="164"/>
+      <c r="D13" s="163" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="171"/>
-      <c r="D14" s="173" t="str">
+      <c r="C14" s="164"/>
+      <c r="D14" s="163" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="173" t="str">
+      <c r="C15" s="164"/>
+      <c r="D15" s="163" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="173" t="str">
+      <c r="C16" s="164"/>
+      <c r="D16" s="163" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size</v>
       </c>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="171"/>
-      <c r="D17" s="173" t="str">
+      <c r="C17" s="164"/>
+      <c r="D17" s="163" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="164" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="171"/>
-      <c r="D18" s="172">
+      <c r="C18" s="164"/>
+      <c r="D18" s="174">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -33644,16 +33644,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="164"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="167"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -37531,13 +37531,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -37551,6 +37544,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="between">
@@ -37587,8 +37587,8 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="B2:R120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -40647,14 +40647,10 @@
         <f t="array" ref="E94">INDEX(N94:Q94,case_number)</f>
         <v>3595</v>
       </c>
-      <c r="F94" s="107" cm="1">
-        <f t="array" aca="1" ref="F94" ca="1">INDIRECT(sheet_name&amp;"!point2.Fs")</f>
-        <v>3595</v>
-      </c>
-      <c r="G94" s="118">
-        <f ca="1">(F94-E94)/E94</f>
-        <v>0</v>
-      </c>
+      <c r="F94" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="G94" s="118"/>
       <c r="I94" s="151"/>
       <c r="K94" s="106">
         <f>K93+1</f>
@@ -42020,11 +42016,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42281,27 +42278,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
-    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42326,9 +42313,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
+    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tests/validation/BnB_ReferenceFlange-Results.xlsx
+++ b/tests/validation/BnB_ReferenceFlange-Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\tests\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228EA9BC-F735-4DB6-8925-83BA1191C0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13A7D03-8062-4B17-BF7C-03E05E63A80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap30deg" sheetId="2" r:id="rId1"/>
@@ -5043,15 +5043,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5079,8 +5070,17 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -19242,7 +19242,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -19861,32 +19861,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -19902,12 +19902,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="173"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="170"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -19915,12 +19915,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="173"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -19928,12 +19928,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="173"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="170"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -19941,12 +19941,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="173"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -19954,12 +19954,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="173"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -20007,112 +20007,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="163" t="s">
+      <c r="C13" s="171"/>
+      <c r="D13" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="164"/>
-      <c r="D14" s="163" t="s">
+      <c r="C14" s="171"/>
+      <c r="D14" s="173" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="164" t="s">
+      <c r="B15" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="164"/>
-      <c r="D15" s="163" t="s">
+      <c r="C15" s="171"/>
+      <c r="D15" s="173" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="163" t="str">
+      <c r="C16" s="171"/>
+      <c r="D16" s="173" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="162" t="s">
+      <c r="C17" s="171"/>
+      <c r="D17" s="174" t="s">
         <v>328</v>
       </c>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="164" t="s">
+      <c r="B18" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="174">
+      <c r="C18" s="171"/>
+      <c r="D18" s="172">
         <v>45432</v>
       </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -20300,16 +20300,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="167"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="164"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -24224,6 +24224,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B18:C18"/>
@@ -24234,16 +24244,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="26" priority="5" stopIfTrue="1" operator="between">
@@ -24329,32 +24329,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -24370,12 +24370,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="173"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="170"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -24383,12 +24383,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="173"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -24396,12 +24396,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="173"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="170"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -24409,12 +24409,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="173"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -24422,12 +24422,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="173"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -24475,117 +24475,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="163" t="str">
+      <c r="C13" s="171"/>
+      <c r="D13" s="173" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="164"/>
-      <c r="D14" s="163" t="str">
+      <c r="C14" s="171"/>
+      <c r="D14" s="173" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="164" t="s">
+      <c r="B15" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="164"/>
-      <c r="D15" s="163" t="str">
+      <c r="C15" s="171"/>
+      <c r="D15" s="173" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="163" t="str">
+      <c r="C16" s="171"/>
+      <c r="D16" s="173" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="163" t="str">
+      <c r="C17" s="171"/>
+      <c r="D17" s="173" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="164" t="s">
+      <c r="B18" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="174">
+      <c r="C18" s="171"/>
+      <c r="D18" s="172">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -24773,16 +24773,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="167"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="164"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -28764,32 +28764,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -28805,12 +28805,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="173"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="170"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -28818,12 +28818,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="173"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -28831,12 +28831,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="173"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="170"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -28844,12 +28844,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="173"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -28857,12 +28857,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="173"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -28910,117 +28910,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="163" t="str">
+      <c r="C13" s="171"/>
+      <c r="D13" s="173" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="164"/>
-      <c r="D14" s="163" t="str">
+      <c r="C14" s="171"/>
+      <c r="D14" s="173" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="164" t="s">
+      <c r="B15" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="164"/>
-      <c r="D15" s="163" t="str">
+      <c r="C15" s="171"/>
+      <c r="D15" s="173" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="163" t="str">
+      <c r="C16" s="171"/>
+      <c r="D16" s="173" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="163" t="str">
+      <c r="C17" s="171"/>
+      <c r="D17" s="173" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="164" t="s">
+      <c r="B18" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="174">
+      <c r="C18" s="171"/>
+      <c r="D18" s="172">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -29208,16 +29208,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="167"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="164"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -33200,32 +33200,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -33241,12 +33241,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="173"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="170"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -33254,12 +33254,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="173"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -33267,12 +33267,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="173"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="170"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -33280,12 +33280,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="173"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -33293,12 +33293,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="173"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -33346,117 +33346,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="163" t="str">
+      <c r="C13" s="171"/>
+      <c r="D13" s="173" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="164"/>
-      <c r="D14" s="163" t="str">
+      <c r="C14" s="171"/>
+      <c r="D14" s="173" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="164" t="s">
+      <c r="B15" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="164"/>
-      <c r="D15" s="163" t="str">
+      <c r="C15" s="171"/>
+      <c r="D15" s="173" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="163" t="str">
+      <c r="C16" s="171"/>
+      <c r="D16" s="173" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="163" t="str">
+      <c r="C17" s="171"/>
+      <c r="D17" s="173" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="164" t="s">
+      <c r="B18" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="174">
+      <c r="C18" s="171"/>
+      <c r="D18" s="172">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -33644,16 +33644,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="167"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="164"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -37587,8 +37587,8 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="B2:R120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>

--- a/tests/validation/BnB_ReferenceFlange-Results.xlsx
+++ b/tests/validation/BnB_ReferenceFlange-Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\tests\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13A7D03-8062-4B17-BF7C-03E05E63A80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBA2DE2-2DC1-411A-8B3F-7A731B9C8B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="-28920" yWindow="-9165" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap30deg" sheetId="2" r:id="rId1"/>
@@ -4207,7 +4207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -4541,32 +4541,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF0095D3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF0095D3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0095D3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF0095D3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF0095D3"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0095D3"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4574,7 +4548,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4946,19 +4920,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="8" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="8" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -4975,15 +4937,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="8" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4992,18 +4945,6 @@
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="8" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5043,6 +4984,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5070,17 +5020,29 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -19242,7 +19204,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -19815,8 +19777,8 @@
   <dimension ref="A1:DJ178"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J127" sqref="J127:J164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -19861,32 +19823,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -19902,12 +19864,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="170"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="162"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -19915,12 +19877,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="170"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="162"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -19928,12 +19890,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="170"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="162"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -19941,12 +19903,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="162"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -19954,12 +19916,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="162"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -20007,112 +19969,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="171"/>
-      <c r="D13" s="173" t="s">
+      <c r="C13" s="153"/>
+      <c r="D13" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="171"/>
-      <c r="D14" s="173" t="s">
+      <c r="C14" s="153"/>
+      <c r="D14" s="152" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="173" t="s">
+      <c r="C15" s="153"/>
+      <c r="D15" s="152" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="173" t="str">
+      <c r="C16" s="153"/>
+      <c r="D16" s="152" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size</v>
       </c>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="171"/>
-      <c r="D17" s="174" t="s">
+      <c r="C17" s="153"/>
+      <c r="D17" s="151" t="s">
         <v>328</v>
       </c>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="171"/>
-      <c r="D18" s="172">
+      <c r="C18" s="153"/>
+      <c r="D18" s="163">
         <v>45432</v>
       </c>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -20300,16 +20262,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="164"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="156"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -22794,7 +22756,7 @@
       <c r="Q111" s="70" t="s">
         <v>304</v>
       </c>
-      <c r="R111" s="148">
+      <c r="R111" s="137">
         <v>0.45</v>
       </c>
     </row>
@@ -22823,7 +22785,7 @@
       <c r="Q112" s="70" t="s">
         <v>305</v>
       </c>
-      <c r="R112" s="148">
+      <c r="R112" s="137">
         <f>R111/2/(J113-J116)</f>
         <v>1.808160804193029E-4</v>
       </c>
@@ -23139,47 +23101,47 @@
       <c r="A127" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="165" t="s">
         <v>263</v>
       </c>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="10" t="s">
+      <c r="C127" s="165"/>
+      <c r="D127" s="165"/>
+      <c r="E127" s="165"/>
+      <c r="F127" s="165"/>
+      <c r="G127" s="165"/>
+      <c r="H127" s="165"/>
+      <c r="I127" s="166" t="s">
         <v>264</v>
       </c>
-      <c r="J127" s="130">
+      <c r="J127" s="127">
         <v>1.4</v>
       </c>
-      <c r="K127" s="93" t="s">
+      <c r="K127" s="167" t="s">
         <v>265</v>
       </c>
       <c r="L127" s="3"/>
       <c r="U127" s="99"/>
     </row>
     <row r="128" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="10" t="s">
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="J128" s="130">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="K128" s="93" t="s">
+      <c r="J128" s="97">
+        <v>0.28773533056547312</v>
+      </c>
+      <c r="K128" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L128" s="3"/>
@@ -23189,23 +23151,22 @@
       <c r="A129" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="7" t="s">
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="J129" s="131">
-        <f>1216/1000</f>
-        <v>1.216</v>
-      </c>
-      <c r="K129" s="5" t="s">
+      <c r="J129" s="67">
+        <v>1.2162355202035973</v>
+      </c>
+      <c r="K129" s="93" t="s">
         <v>87</v>
       </c>
       <c r="L129" s="3"/>
@@ -23227,7 +23188,7 @@
       <c r="U130" s="99"/>
     </row>
     <row r="131" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="75" t="str">
+      <c r="A131" s="168" t="str">
         <f>$A$124&amp;"."&amp;1</f>
         <v>A.4.1</v>
       </c>
@@ -23241,7 +23202,7 @@
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
-      <c r="J131" s="126"/>
+      <c r="J131" s="12"/>
       <c r="K131" s="12"/>
       <c r="L131" s="3"/>
       <c r="U131" s="99"/>
@@ -23250,22 +23211,22 @@
       <c r="A132" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="7" t="s">
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="J132" s="127">
+      <c r="J132" s="97">
         <v>1.8</v>
       </c>
-      <c r="K132" s="5" t="s">
+      <c r="K132" s="93" t="s">
         <v>87</v>
       </c>
       <c r="L132" s="3"/>
@@ -23275,29 +23236,29 @@
       <c r="A133" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="7" t="s">
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="J133" s="129">
-        <v>5169.21</v>
-      </c>
-      <c r="K133" s="5" t="s">
+      <c r="J133" s="170">
+        <v>5169.2082946490964</v>
+      </c>
+      <c r="K133" s="15" t="s">
         <v>82</v>
       </c>
       <c r="L133" s="3"/>
       <c r="U133" s="99"/>
     </row>
     <row r="134" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="164" t="s">
         <v>3</v>
       </c>
       <c r="B134" s="8" t="s">
@@ -23312,8 +23273,8 @@
       <c r="I134" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="J134" s="138">
-        <v>87000</v>
+      <c r="J134" s="98">
+        <v>87000.000000000029</v>
       </c>
       <c r="K134" s="5" t="s">
         <v>220</v>
@@ -23322,7 +23283,7 @@
       <c r="U134" s="99"/>
     </row>
     <row r="135" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="164" t="s">
         <v>7</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -23337,8 +23298,8 @@
       <c r="I135" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J135" s="139">
-        <v>290000000</v>
+      <c r="J135" s="169">
+        <v>290000000.00000006</v>
       </c>
       <c r="K135" s="5" t="s">
         <v>290</v>
@@ -23350,22 +23311,22 @@
       <c r="A136" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="7" t="s">
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="J136" s="128">
-        <v>1483.8</v>
-      </c>
-      <c r="K136" s="5" t="s">
+      <c r="J136" s="170">
+        <v>1483.8038863767938</v>
+      </c>
+      <c r="K136" s="93" t="s">
         <v>82</v>
       </c>
       <c r="L136" s="3"/>
@@ -23452,8 +23413,8 @@
       <c r="I140" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="J140" s="130">
-        <v>0.41399999999999998</v>
+      <c r="J140" s="67">
+        <v>0.41432340368180404</v>
       </c>
       <c r="K140" s="5" t="s">
         <v>8</v>
@@ -23477,8 +23438,8 @@
       <c r="I141" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J141" s="140">
-        <v>10244.9653</v>
+      <c r="J141" s="62">
+        <v>10244.96531616569</v>
       </c>
       <c r="K141" s="5" t="s">
         <v>82</v>
@@ -23847,21 +23808,11 @@
         <v>220</v>
       </c>
       <c r="L155" s="3"/>
-      <c r="N155" s="137">
-        <v>94.7</v>
-      </c>
-      <c r="O155" s="137">
-        <v>781</v>
-      </c>
-      <c r="P155" s="137">
-        <v>453</v>
-      </c>
-      <c r="Q155" s="137">
-        <v>139</v>
-      </c>
-      <c r="R155" s="137">
-        <v>75.8</v>
-      </c>
+      <c r="N155" s="133"/>
+      <c r="O155" s="133"/>
+      <c r="P155" s="133"/>
+      <c r="Q155" s="133"/>
+      <c r="R155" s="133"/>
       <c r="U155" s="99"/>
     </row>
     <row r="156" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -23965,8 +23916,8 @@
       <c r="I160" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="J160" s="145">
-        <v>112.77695050276699</v>
+      <c r="J160" s="64">
+        <v>112.77695050276785</v>
       </c>
       <c r="K160" s="5" t="s">
         <v>8</v>
@@ -23990,8 +23941,8 @@
       <c r="I161" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="J161" s="147">
-        <v>123831110</v>
+      <c r="J161" s="169">
+        <v>123831110.42899768</v>
       </c>
       <c r="K161" s="5" t="s">
         <v>290</v>
@@ -24224,16 +24175,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B18:C18"/>
@@ -24244,6 +24185,16 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="26" priority="5" stopIfTrue="1" operator="between">
@@ -24283,8 +24234,8 @@
   <dimension ref="A1:DJ178"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J127" sqref="J127:J164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -24329,32 +24280,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -24370,12 +24321,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="170"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="162"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -24383,12 +24334,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="170"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="162"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -24396,12 +24347,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="170"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="162"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -24409,12 +24360,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="162"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -24422,12 +24373,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="162"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -24475,117 +24426,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="171"/>
-      <c r="D13" s="173" t="str">
+      <c r="C13" s="153"/>
+      <c r="D13" s="152" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="171"/>
-      <c r="D14" s="173" t="str">
+      <c r="C14" s="153"/>
+      <c r="D14" s="152" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="173" t="str">
+      <c r="C15" s="153"/>
+      <c r="D15" s="152" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="173" t="str">
+      <c r="C16" s="153"/>
+      <c r="D16" s="152" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size</v>
       </c>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="171"/>
-      <c r="D17" s="173" t="str">
+      <c r="C17" s="153"/>
+      <c r="D17" s="152" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="171"/>
-      <c r="D18" s="172">
+      <c r="C18" s="153"/>
+      <c r="D18" s="163">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -24773,16 +24724,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="164"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="156"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -27587,7 +27538,7 @@
       <c r="I127" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="J127" s="130">
+      <c r="J127" s="127">
         <v>1.4</v>
       </c>
       <c r="K127" s="93" t="s">
@@ -27612,8 +27563,8 @@
       <c r="I128" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="J128" s="130">
-        <v>0.74299999999999999</v>
+      <c r="J128" s="97">
+        <v>0.74253427729521959</v>
       </c>
       <c r="K128" s="93" t="s">
         <v>8</v>
@@ -27637,8 +27588,8 @@
       <c r="I129" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="J129" s="131">
-        <v>0.63600000000000001</v>
+      <c r="J129" s="67">
+        <v>0.63575115537527982</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>87</v>
@@ -27676,7 +27627,7 @@
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
-      <c r="J131" s="126"/>
+      <c r="J131" s="12"/>
       <c r="K131" s="12"/>
       <c r="L131" s="3"/>
       <c r="U131" s="99"/>
@@ -27697,8 +27648,8 @@
       <c r="I132" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="J132" s="144">
-        <v>2.1031</v>
+      <c r="J132" s="97">
+        <v>2.1031001583544837</v>
       </c>
       <c r="K132" s="5" t="s">
         <v>87</v>
@@ -27722,8 +27673,8 @@
       <c r="I133" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J133" s="129">
-        <v>2212.11</v>
+      <c r="J133" s="170">
+        <v>2212.1093218994611</v>
       </c>
       <c r="K133" s="5" t="s">
         <v>82</v>
@@ -27747,8 +27698,8 @@
       <c r="I134" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="J134" s="138">
-        <v>87000</v>
+      <c r="J134" s="98">
+        <v>87000.000000000029</v>
       </c>
       <c r="K134" s="5" t="s">
         <v>220</v>
@@ -27772,8 +27723,8 @@
       <c r="I135" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J135" s="139">
-        <v>290000000</v>
+      <c r="J135" s="169">
+        <v>290000000.00000006</v>
       </c>
       <c r="K135" s="5" t="s">
         <v>290</v>
@@ -27797,8 +27748,8 @@
       <c r="I136" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="J136" s="128">
-        <v>100.21</v>
+      <c r="J136" s="170">
+        <v>100.21148969028162</v>
       </c>
       <c r="K136" s="5" t="s">
         <v>82</v>
@@ -27887,8 +27838,8 @@
       <c r="I140" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="J140" s="130">
-        <v>0.44</v>
+      <c r="J140" s="67">
+        <v>0.44036422450343377</v>
       </c>
       <c r="K140" s="5" t="s">
         <v>8</v>
@@ -27912,8 +27863,8 @@
       <c r="I141" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J141" s="140">
-        <v>14760.496965</v>
+      <c r="J141" s="62">
+        <v>14760.496964936936</v>
       </c>
       <c r="K141" s="5" t="s">
         <v>82</v>
@@ -28282,19 +28233,19 @@
         <v>220</v>
       </c>
       <c r="L155" s="3"/>
-      <c r="N155" s="137">
+      <c r="N155" s="133">
         <v>94.7</v>
       </c>
-      <c r="O155" s="137">
+      <c r="O155" s="133">
         <v>781</v>
       </c>
-      <c r="P155" s="137">
+      <c r="P155" s="133">
         <v>453</v>
       </c>
-      <c r="Q155" s="137">
+      <c r="Q155" s="133">
         <v>139</v>
       </c>
-      <c r="R155" s="137">
+      <c r="R155" s="133">
         <v>75.8</v>
       </c>
       <c r="U155" s="99"/>
@@ -28375,7 +28326,7 @@
       <c r="I159" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J159" s="62">
+      <c r="J159" s="64">
         <v>225.55390100553569</v>
       </c>
       <c r="K159" s="5" t="s">
@@ -28400,8 +28351,8 @@
       <c r="I160" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="J160" s="146">
-        <v>112.77695050276699</v>
+      <c r="J160" s="64">
+        <v>112.77695050276785</v>
       </c>
       <c r="K160" s="5" t="s">
         <v>8</v>
@@ -28425,8 +28376,8 @@
       <c r="I161" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="J161" s="147">
-        <v>123831110</v>
+      <c r="J161" s="169">
+        <v>123831110.42899768</v>
       </c>
       <c r="K161" s="5" t="s">
         <v>290</v>
@@ -28659,6 +28610,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -28672,13 +28630,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="between">
@@ -28718,8 +28669,8 @@
   <dimension ref="A1:DJ178"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J127" sqref="J127:J164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -28764,32 +28715,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -28805,12 +28756,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="170"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="162"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -28818,12 +28769,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="170"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="162"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -28831,12 +28782,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="170"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="162"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -28844,12 +28795,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="162"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -28857,12 +28808,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="162"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -28910,117 +28861,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="171"/>
-      <c r="D13" s="173" t="str">
+      <c r="C13" s="153"/>
+      <c r="D13" s="152" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="171"/>
-      <c r="D14" s="173" t="str">
+      <c r="C14" s="153"/>
+      <c r="D14" s="152" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="173" t="str">
+      <c r="C15" s="153"/>
+      <c r="D15" s="152" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="173" t="str">
+      <c r="C16" s="153"/>
+      <c r="D16" s="152" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size</v>
       </c>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="171"/>
-      <c r="D17" s="173" t="str">
+      <c r="C17" s="153"/>
+      <c r="D17" s="152" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="171"/>
-      <c r="D18" s="172">
+      <c r="C18" s="153"/>
+      <c r="D18" s="163">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -29208,16 +29159,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="164"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="156"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -32022,7 +31973,7 @@
       <c r="I127" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="J127" s="130">
+      <c r="J127" s="127">
         <v>1.4</v>
       </c>
       <c r="K127" s="93" t="s">
@@ -32047,9 +31998,8 @@
       <c r="I128" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="J128" s="131">
-        <f>1364/1000</f>
-        <v>1.3640000000000001</v>
+      <c r="J128" s="97">
+        <v>1.3643968401892375</v>
       </c>
       <c r="K128" s="93" t="s">
         <v>8</v>
@@ -32073,8 +32023,8 @@
       <c r="I129" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="J129" s="131">
-        <v>0.499</v>
+      <c r="J129" s="67">
+        <v>0.4993626397773579</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>87</v>
@@ -32112,7 +32062,7 @@
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
-      <c r="J131" s="126"/>
+      <c r="J131" s="12"/>
       <c r="K131" s="12"/>
       <c r="L131" s="3"/>
       <c r="U131" s="99"/>
@@ -32133,8 +32083,8 @@
       <c r="I132" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="J132" s="144">
-        <v>2.5046499999999998</v>
+      <c r="J132" s="97">
+        <v>2.5046502375317257</v>
       </c>
       <c r="K132" s="5" t="s">
         <v>87</v>
@@ -32158,8 +32108,8 @@
       <c r="I133" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J133" s="129">
-        <v>1238.31</v>
+      <c r="J133" s="170">
+        <v>1238.3066227426382</v>
       </c>
       <c r="K133" s="5" t="s">
         <v>82</v>
@@ -32183,8 +32133,8 @@
       <c r="I134" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="J134" s="138">
-        <v>87000</v>
+      <c r="J134" s="98">
+        <v>87000.000000000029</v>
       </c>
       <c r="K134" s="5" t="s">
         <v>220</v>
@@ -32208,8 +32158,8 @@
       <c r="I135" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J135" s="139">
-        <v>290000000</v>
+      <c r="J135" s="169">
+        <v>290000000.00000006</v>
       </c>
       <c r="K135" s="5" t="s">
         <v>290</v>
@@ -32233,8 +32183,8 @@
       <c r="I136" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="J136" s="128">
-        <v>20.09</v>
+      <c r="J136" s="170">
+        <v>20.094758307720781</v>
       </c>
       <c r="K136" s="5" t="s">
         <v>82</v>
@@ -32323,8 +32273,8 @@
       <c r="I140" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="J140" s="130">
-        <v>0.44600000000000001</v>
+      <c r="J140" s="67">
+        <v>0.44595284973156152</v>
       </c>
       <c r="K140" s="5" t="s">
         <v>8</v>
@@ -32348,8 +32298,8 @@
       <c r="I141" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J141" s="140">
-        <v>15660.843568</v>
+      <c r="J141" s="62">
+        <v>15660.843568082577</v>
       </c>
       <c r="K141" s="5" t="s">
         <v>82</v>
@@ -32718,19 +32668,19 @@
         <v>220</v>
       </c>
       <c r="L155" s="3"/>
-      <c r="N155" s="137">
+      <c r="N155" s="133">
         <v>94.7</v>
       </c>
-      <c r="O155" s="137">
+      <c r="O155" s="133">
         <v>781</v>
       </c>
-      <c r="P155" s="137">
+      <c r="P155" s="133">
         <v>453</v>
       </c>
-      <c r="Q155" s="137">
+      <c r="Q155" s="133">
         <v>139</v>
       </c>
-      <c r="R155" s="137">
+      <c r="R155" s="133">
         <v>75.8</v>
       </c>
       <c r="U155" s="99"/>
@@ -32811,7 +32761,7 @@
       <c r="I159" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J159" s="62">
+      <c r="J159" s="64">
         <v>225.55390100553569</v>
       </c>
       <c r="K159" s="5" t="s">
@@ -32836,8 +32786,8 @@
       <c r="I160" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="J160" s="145">
-        <v>112.77695050276699</v>
+      <c r="J160" s="64">
+        <v>112.77695050276785</v>
       </c>
       <c r="K160" s="5" t="s">
         <v>8</v>
@@ -32861,8 +32811,8 @@
       <c r="I161" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="J161" s="147">
-        <v>123831110</v>
+      <c r="J161" s="169">
+        <v>123831110.42899768</v>
       </c>
       <c r="K161" s="5" t="s">
         <v>290</v>
@@ -32886,7 +32836,7 @@
       <c r="I162" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="J162" s="62">
+      <c r="J162" s="92">
         <v>10310.000230734646</v>
       </c>
       <c r="K162" s="5" t="s">
@@ -33095,6 +33045,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -33108,13 +33065,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="between">
@@ -33153,9 +33103,9 @@
   </sheetPr>
   <dimension ref="A1:DJ178"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P145" sqref="P145"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O130" sqref="O130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -33200,32 +33150,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -33241,12 +33191,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="170"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="162"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -33254,12 +33204,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="170"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="162"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -33267,12 +33217,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="170"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="162"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -33280,12 +33230,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="162"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -33293,12 +33243,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="162"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -33346,117 +33296,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="171"/>
-      <c r="D13" s="173" t="str">
+      <c r="C13" s="153"/>
+      <c r="D13" s="152" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="171"/>
-      <c r="D14" s="173" t="str">
+      <c r="C14" s="153"/>
+      <c r="D14" s="152" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="173" t="str">
+      <c r="C15" s="153"/>
+      <c r="D15" s="152" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="173" t="str">
+      <c r="C16" s="153"/>
+      <c r="D16" s="152" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size</v>
       </c>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="171"/>
-      <c r="D17" s="173" t="str">
+      <c r="C17" s="153"/>
+      <c r="D17" s="152" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="171"/>
-      <c r="D18" s="172">
+      <c r="C18" s="153"/>
+      <c r="D18" s="163">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -33644,16 +33594,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="164"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="156"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -36306,7 +36256,7 @@
       <c r="J119" s="80">
         <v>7.0881700840347544E-4</v>
       </c>
-      <c r="K119" s="160">
+      <c r="K119" s="149">
         <v>6.3255985818019917E-10</v>
       </c>
       <c r="L119" s="3"/>
@@ -36458,7 +36408,7 @@
       <c r="I127" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="J127" s="130">
+      <c r="J127" s="127">
         <v>1.4</v>
       </c>
       <c r="K127" s="93" t="s">
@@ -36483,9 +36433,8 @@
       <c r="I128" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="J128" s="131">
-        <f>2153/1000</f>
-        <v>2.153</v>
+      <c r="J128" s="97">
+        <v>2.1533230192475297</v>
       </c>
       <c r="K128" s="93" t="s">
         <v>8</v>
@@ -36509,8 +36458,8 @@
       <c r="I129" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="J129" s="131">
-        <v>0.44400000000000001</v>
+      <c r="J129" s="67">
+        <v>0.44426272750754392</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>87</v>
@@ -36548,7 +36497,7 @@
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
-      <c r="J131" s="126"/>
+      <c r="J131" s="12"/>
       <c r="K131" s="12"/>
       <c r="L131" s="3"/>
       <c r="U131" s="99"/>
@@ -36569,8 +36518,8 @@
       <c r="I132" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="J132" s="144">
-        <v>2.9062000000000001</v>
+      <c r="J132" s="97">
+        <v>2.9062003167089676</v>
       </c>
       <c r="K132" s="5" t="s">
         <v>87</v>
@@ -36594,8 +36543,8 @@
       <c r="I133" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J133" s="129">
-        <v>800.41</v>
+      <c r="J133" s="170">
+        <v>800.40722561969153</v>
       </c>
       <c r="K133" s="5" t="s">
         <v>82</v>
@@ -36619,8 +36568,8 @@
       <c r="I134" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="J134" s="138">
-        <v>87000</v>
+      <c r="J134" s="98">
+        <v>87000.000000000029</v>
       </c>
       <c r="K134" s="5" t="s">
         <v>220</v>
@@ -36644,8 +36593,8 @@
       <c r="I135" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J135" s="139">
-        <v>290000000</v>
+      <c r="J135" s="169">
+        <v>290000000.00000006</v>
       </c>
       <c r="K135" s="5" t="s">
         <v>290</v>
@@ -36669,8 +36618,8 @@
       <c r="I136" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="J136" s="128">
-        <v>6.39</v>
+      <c r="J136" s="170">
+        <v>6.3920011573135929</v>
       </c>
       <c r="K136" s="5" t="s">
         <v>82</v>
@@ -36759,8 +36708,8 @@
       <c r="I140" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="J140" s="130">
-        <v>0.44800000000000001</v>
+      <c r="J140" s="67">
+        <v>0.44781758178683745</v>
       </c>
       <c r="K140" s="5" t="s">
         <v>8</v>
@@ -36784,8 +36733,8 @@
       <c r="I141" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J141" s="140">
-        <v>15956.288200000001</v>
+      <c r="J141" s="62">
+        <v>15956.258245417217</v>
       </c>
       <c r="K141" s="5" t="s">
         <v>82</v>
@@ -37154,19 +37103,19 @@
         <v>220</v>
       </c>
       <c r="L155" s="3"/>
-      <c r="N155" s="137">
+      <c r="N155" s="133">
         <v>94.7</v>
       </c>
-      <c r="O155" s="137">
+      <c r="O155" s="133">
         <v>781</v>
       </c>
-      <c r="P155" s="137">
+      <c r="P155" s="133">
         <v>453</v>
       </c>
-      <c r="Q155" s="137">
+      <c r="Q155" s="133">
         <v>139</v>
       </c>
-      <c r="R155" s="137">
+      <c r="R155" s="133">
         <v>75.8</v>
       </c>
       <c r="U155" s="99"/>
@@ -37247,7 +37196,7 @@
       <c r="I159" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J159" s="62">
+      <c r="J159" s="64">
         <v>225.55390100553569</v>
       </c>
       <c r="K159" s="5" t="s">
@@ -37272,8 +37221,8 @@
       <c r="I160" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="J160" s="145">
-        <v>112.77695050276699</v>
+      <c r="J160" s="64">
+        <v>112.77695050276785</v>
       </c>
       <c r="K160" s="5" t="s">
         <v>8</v>
@@ -37297,8 +37246,8 @@
       <c r="I161" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="J161" s="147">
-        <v>123831110</v>
+      <c r="J161" s="169">
+        <v>123831110.42899768</v>
       </c>
       <c r="K161" s="5" t="s">
         <v>290</v>
@@ -37322,7 +37271,7 @@
       <c r="I162" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="J162" s="62">
+      <c r="J162" s="92">
         <v>10310.000230734646</v>
       </c>
       <c r="K162" s="5" t="s">
@@ -37531,6 +37480,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -37544,13 +37500,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="between">
@@ -37587,7 +37536,7 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="B2:R120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
@@ -37614,23 +37563,23 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="13.8">
-      <c r="G20" s="141" t="s">
+      <c r="G20" s="134" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="18">
-      <c r="G21" s="142">
+      <c r="G21" s="135">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:18">
-      <c r="G22" s="143">
+      <c r="G22" s="136">
         <f>MATCH(gap_angle,N48:Q48,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="G23" s="143" t="str">
+      <c r="G23" s="136" t="str">
         <f>"Gap"&amp;gap_angle&amp;"deg"</f>
         <v>Gap60deg</v>
       </c>
@@ -37696,7 +37645,7 @@
       <c r="H27" t="s">
         <v>211</v>
       </c>
-      <c r="I27" s="151"/>
+      <c r="I27" s="140"/>
       <c r="K27" s="106">
         <v>1</v>
       </c>
@@ -37734,7 +37683,7 @@
       <c r="H28" t="s">
         <v>209</v>
       </c>
-      <c r="I28" s="152"/>
+      <c r="I28" s="141"/>
       <c r="K28" s="106">
         <f>K27+1</f>
         <v>2</v>
@@ -37785,7 +37734,7 @@
       <c r="H29" t="s">
         <v>206</v>
       </c>
-      <c r="I29" s="152"/>
+      <c r="I29" s="141"/>
       <c r="K29" s="106"/>
       <c r="L29" s="105" t="s">
         <v>208</v>
@@ -37830,7 +37779,7 @@
         <f ca="1">(F30-E30)/E30</f>
         <v>-4.0989759090784605E-6</v>
       </c>
-      <c r="I30" s="152"/>
+      <c r="I30" s="141"/>
       <c r="K30" s="106"/>
       <c r="L30" s="105" t="s">
         <v>205</v>
@@ -37881,7 +37830,7 @@
       <c r="H31" t="s">
         <v>204</v>
       </c>
-      <c r="I31" s="151"/>
+      <c r="I31" s="140"/>
       <c r="K31" s="106">
         <f>K28+1</f>
         <v>3</v>
@@ -37925,7 +37874,7 @@
         <v>87</v>
       </c>
       <c r="G32" s="107"/>
-      <c r="I32" s="151"/>
+      <c r="I32" s="140"/>
       <c r="K32" s="106"/>
       <c r="L32" s="103" t="s">
         <v>203</v>
@@ -37966,7 +37915,7 @@
         <v>87</v>
       </c>
       <c r="G33" s="109"/>
-      <c r="I33" s="151"/>
+      <c r="I33" s="140"/>
       <c r="K33" s="106"/>
       <c r="L33" s="103" t="s">
         <v>202</v>
@@ -38010,7 +37959,7 @@
       <c r="H34" t="s">
         <v>200</v>
       </c>
-      <c r="I34" s="151"/>
+      <c r="I34" s="140"/>
       <c r="K34" s="106"/>
       <c r="L34" s="103" t="s">
         <v>201</v>
@@ -38036,49 +37985,49 @@
       </c>
     </row>
     <row r="35" spans="2:18" ht="15.6">
-      <c r="B35" s="135">
+      <c r="B35" s="131">
         <f>B31+1</f>
         <v>4</v>
       </c>
-      <c r="C35" s="134" t="s">
+      <c r="C35" s="130" t="s">
         <v>278</v>
       </c>
-      <c r="D35" s="134" t="s">
+      <c r="D35" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="133" cm="1">
+      <c r="E35" s="129" cm="1">
         <f t="array" ref="E35">INDEX(N35:Q35,case_number)</f>
         <v>2466</v>
       </c>
-      <c r="F35" s="133" t="s">
+      <c r="F35" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="133"/>
-      <c r="H35" s="136" t="s">
+      <c r="G35" s="129"/>
+      <c r="H35" s="132" t="s">
         <v>198</v>
       </c>
-      <c r="I35" s="153"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="135">
+      <c r="I35" s="142"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="131">
         <f>K31+1</f>
         <v>4</v>
       </c>
-      <c r="L35" s="134" t="s">
+      <c r="L35" s="130" t="s">
         <v>278</v>
       </c>
-      <c r="M35" s="134" t="s">
+      <c r="M35" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="N35" s="133">
+      <c r="N35" s="129">
         <v>2466</v>
       </c>
-      <c r="O35" s="133">
+      <c r="O35" s="129">
         <v>2466</v>
       </c>
-      <c r="P35" s="133">
+      <c r="P35" s="129">
         <v>2466</v>
       </c>
-      <c r="Q35" s="133">
+      <c r="Q35" s="129">
         <v>2466</v>
       </c>
       <c r="R35" t="str">
@@ -38106,9 +38055,9 @@
         <f ca="1">(F36-E36)/E36</f>
         <v>4.0287388955891572E-5</v>
       </c>
-      <c r="I36" s="154"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="156"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="145"/>
       <c r="L36" s="105" t="s">
         <v>197</v>
       </c>
@@ -38152,10 +38101,10 @@
         <f ca="1">(F37-E37)/E37</f>
         <v>-3.9976088935691896E-16</v>
       </c>
-      <c r="H37" s="161"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="156"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="144"/>
+      <c r="K37" s="145"/>
       <c r="L37" s="105" t="s">
         <v>196</v>
       </c>
@@ -38199,10 +38148,10 @@
         <f ca="1">(F38-E38)/E38</f>
         <v>-3.4553061442869523E-5</v>
       </c>
-      <c r="H38" s="161"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="155"/>
-      <c r="K38" s="156"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="144"/>
+      <c r="K38" s="145"/>
       <c r="L38" s="105" t="s">
         <v>195</v>
       </c>
@@ -38245,9 +38194,9 @@
         <v>87</v>
       </c>
       <c r="G39" s="108"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="156">
+      <c r="I39" s="143"/>
+      <c r="J39" s="144"/>
+      <c r="K39" s="145">
         <f>K35+1</f>
         <v>5</v>
       </c>
@@ -38290,9 +38239,9 @@
         <v>87</v>
       </c>
       <c r="G40" s="107"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="155"/>
-      <c r="K40" s="156"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="144"/>
+      <c r="K40" s="145"/>
       <c r="L40" s="105" t="s">
         <v>193</v>
       </c>
@@ -38338,9 +38287,9 @@
       <c r="H41" t="s">
         <v>191</v>
       </c>
-      <c r="I41" s="157"/>
-      <c r="J41" s="155"/>
-      <c r="K41" s="156">
+      <c r="I41" s="146"/>
+      <c r="J41" s="144"/>
+      <c r="K41" s="145">
         <f>K39+1</f>
         <v>6</v>
       </c>
@@ -38386,9 +38335,9 @@
         <v>87</v>
       </c>
       <c r="G42" s="111"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="156">
+      <c r="I42" s="146"/>
+      <c r="J42" s="144"/>
+      <c r="K42" s="145">
         <f>K41+1</f>
         <v>7</v>
       </c>
@@ -38437,9 +38386,9 @@
       <c r="H43" t="s">
         <v>188</v>
       </c>
-      <c r="I43" s="157"/>
-      <c r="J43" s="155"/>
-      <c r="K43" s="156">
+      <c r="I43" s="146"/>
+      <c r="J43" s="144"/>
+      <c r="K43" s="145">
         <f>K42+1</f>
         <v>8</v>
       </c>
@@ -38485,9 +38434,9 @@
         <v>87</v>
       </c>
       <c r="G44" s="107"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="155"/>
-      <c r="K44" s="156">
+      <c r="I44" s="146"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="145">
         <f>K43+1</f>
         <v>9</v>
       </c>
@@ -38533,9 +38482,9 @@
         <v>87</v>
       </c>
       <c r="G45" s="107"/>
-      <c r="I45" s="157"/>
-      <c r="J45" s="155"/>
-      <c r="K45" s="156">
+      <c r="I45" s="146"/>
+      <c r="J45" s="144"/>
+      <c r="K45" s="145">
         <f>K44+1</f>
         <v>10</v>
       </c>
@@ -38578,9 +38527,9 @@
         <v>87</v>
       </c>
       <c r="G46" s="111"/>
-      <c r="I46" s="157"/>
-      <c r="J46" s="155"/>
-      <c r="K46" s="156"/>
+      <c r="I46" s="146"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="145"/>
       <c r="L46" s="103" t="s">
         <v>184</v>
       </c>
@@ -38623,9 +38572,9 @@
       <c r="H47" t="s">
         <v>310</v>
       </c>
-      <c r="I47" s="157"/>
-      <c r="J47" s="155"/>
-      <c r="K47" s="156">
+      <c r="I47" s="146"/>
+      <c r="J47" s="144"/>
+      <c r="K47" s="145">
         <f>K45+1</f>
         <v>11</v>
       </c>
@@ -38664,9 +38613,9 @@
         <f t="shared" ref="G48:G53" ca="1" si="1">(F48-E48)/E48</f>
         <v>-1.1842378929335003E-16</v>
       </c>
-      <c r="I48" s="154"/>
-      <c r="J48" s="155"/>
-      <c r="K48" s="156"/>
+      <c r="I48" s="143"/>
+      <c r="J48" s="144"/>
+      <c r="K48" s="145"/>
       <c r="L48" s="105" t="s">
         <v>182</v>
       </c>
@@ -38713,9 +38662,9 @@
       <c r="H49" t="s">
         <v>323</v>
       </c>
-      <c r="I49" s="157"/>
-      <c r="J49" s="155"/>
-      <c r="K49" s="156"/>
+      <c r="I49" s="146"/>
+      <c r="J49" s="144"/>
+      <c r="K49" s="145"/>
       <c r="L49" s="103" t="s">
         <v>180</v>
       </c>
@@ -38759,9 +38708,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="I50" s="157"/>
-      <c r="J50" s="155"/>
-      <c r="K50" s="156"/>
+      <c r="I50" s="146"/>
+      <c r="J50" s="144"/>
+      <c r="K50" s="145"/>
       <c r="L50" s="103" t="s">
         <v>94</v>
       </c>
@@ -38805,9 +38754,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="I51" s="157"/>
-      <c r="J51" s="155"/>
-      <c r="K51" s="156"/>
+      <c r="I51" s="146"/>
+      <c r="J51" s="144"/>
+      <c r="K51" s="145"/>
       <c r="L51" s="103" t="s">
         <v>179</v>
       </c>
@@ -38848,15 +38797,15 @@
       </c>
       <c r="F52" s="109" cm="1">
         <f t="array" aca="1" ref="F52" ca="1">INDIRECT(sheet_name&amp;"!gap.k_mean")</f>
-        <v>0.74299999999999999</v>
+        <v>0.74253427729521959</v>
       </c>
       <c r="G52" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2720701120667997E-4</v>
-      </c>
-      <c r="I52" s="157"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="156">
+        <v>5.9807233609163099E-16</v>
+      </c>
+      <c r="I52" s="146"/>
+      <c r="J52" s="144"/>
+      <c r="K52" s="145">
         <f>K47+1</f>
         <v>12</v>
       </c>
@@ -38900,15 +38849,15 @@
       </c>
       <c r="F53" s="109" cm="1">
         <f t="array" aca="1" ref="F53" ca="1">INDIRECT(sheet_name&amp;"!gap.COV")</f>
-        <v>0.63600000000000001</v>
+        <v>0.63575115537527982</v>
       </c>
       <c r="G53" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9141828153373603E-4</v>
-      </c>
-      <c r="I53" s="157"/>
-      <c r="J53" s="155"/>
-      <c r="K53" s="156">
+        <v>-1.7463169594553058E-16</v>
+      </c>
+      <c r="I53" s="146"/>
+      <c r="J53" s="144"/>
+      <c r="K53" s="145">
         <f>K52+1</f>
         <v>13</v>
       </c>
@@ -38951,9 +38900,9 @@
         <v>87</v>
       </c>
       <c r="G54" s="109"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="155"/>
-      <c r="K54" s="156"/>
+      <c r="I54" s="146"/>
+      <c r="J54" s="144"/>
+      <c r="K54" s="145"/>
       <c r="L54" s="103" t="s">
         <v>175</v>
       </c>
@@ -38996,9 +38945,9 @@
         <v>87</v>
       </c>
       <c r="G55" s="109"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="155"/>
-      <c r="K55" s="156">
+      <c r="I55" s="146"/>
+      <c r="J55" s="144"/>
+      <c r="K55" s="145">
         <f>K53+1</f>
         <v>14</v>
       </c>
@@ -39044,9 +38993,9 @@
         <v>87</v>
       </c>
       <c r="G56" s="109"/>
-      <c r="I56" s="157"/>
-      <c r="J56" s="155"/>
-      <c r="K56" s="156">
+      <c r="I56" s="146"/>
+      <c r="J56" s="144"/>
+      <c r="K56" s="145">
         <f>K55+1</f>
         <v>15</v>
       </c>
@@ -39090,9 +39039,9 @@
         <v>87</v>
       </c>
       <c r="G57" s="109"/>
-      <c r="I57" s="154"/>
-      <c r="J57" s="155"/>
-      <c r="K57" s="156">
+      <c r="I57" s="143"/>
+      <c r="J57" s="144"/>
+      <c r="K57" s="145">
         <f>K56+1</f>
         <v>16</v>
       </c>
@@ -39134,9 +39083,9 @@
         <v>87</v>
       </c>
       <c r="G58" s="109"/>
-      <c r="I58" s="154"/>
-      <c r="J58" s="155"/>
-      <c r="K58" s="156">
+      <c r="I58" s="143"/>
+      <c r="J58" s="144"/>
+      <c r="K58" s="145">
         <f>K57+1</f>
         <v>17</v>
       </c>
@@ -39178,9 +39127,9 @@
         <v>87</v>
       </c>
       <c r="G59" s="109"/>
-      <c r="I59" s="157"/>
-      <c r="J59" s="155"/>
-      <c r="K59" s="156">
+      <c r="I59" s="146"/>
+      <c r="J59" s="144"/>
+      <c r="K59" s="145">
         <f>K58+1</f>
         <v>18</v>
       </c>
@@ -39228,9 +39177,9 @@
         <f t="shared" ref="G60:G61" ca="1" si="2">(F60-E60)/E60</f>
         <v>6.7952523976424013E-16</v>
       </c>
-      <c r="I60" s="157"/>
-      <c r="J60" s="155"/>
-      <c r="K60" s="156">
+      <c r="I60" s="146"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="145">
         <f>K59+1</f>
         <v>19</v>
       </c>
@@ -39280,9 +39229,9 @@
       <c r="H61" t="s">
         <v>166</v>
       </c>
-      <c r="I61" s="157"/>
-      <c r="J61" s="155"/>
-      <c r="K61" s="156"/>
+      <c r="I61" s="146"/>
+      <c r="J61" s="144"/>
+      <c r="K61" s="145"/>
       <c r="L61" s="103" t="s">
         <v>167</v>
       </c>
@@ -39315,15 +39264,15 @@
         <v>165</v>
       </c>
       <c r="D62" s="103"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="132"/>
-      <c r="G62" s="132"/>
+      <c r="E62" s="128"/>
+      <c r="F62" s="128"/>
+      <c r="G62" s="128"/>
       <c r="H62" t="s">
         <v>164</v>
       </c>
-      <c r="I62" s="157"/>
-      <c r="J62" s="155"/>
-      <c r="K62" s="156">
+      <c r="I62" s="146"/>
+      <c r="J62" s="144"/>
+      <c r="K62" s="145">
         <f>K60+1</f>
         <v>20</v>
       </c>
@@ -39331,10 +39280,10 @@
         <v>165</v>
       </c>
       <c r="M62" s="103"/>
-      <c r="N62" s="132"/>
-      <c r="O62" s="132"/>
-      <c r="P62" s="132"/>
-      <c r="Q62" s="132"/>
+      <c r="N62" s="128"/>
+      <c r="O62" s="128"/>
+      <c r="P62" s="128"/>
+      <c r="Q62" s="128"/>
       <c r="R62" t="str">
         <f t="shared" si="0"/>
         <v>Gap shape formula</v>
@@ -39349,15 +39298,15 @@
         <v>163</v>
       </c>
       <c r="D63" s="103"/>
-      <c r="E63" s="132"/>
-      <c r="F63" s="132"/>
-      <c r="G63" s="132"/>
+      <c r="E63" s="128"/>
+      <c r="F63" s="128"/>
+      <c r="G63" s="128"/>
       <c r="H63" t="s">
         <v>162</v>
       </c>
-      <c r="I63" s="158"/>
-      <c r="J63" s="155"/>
-      <c r="K63" s="156">
+      <c r="I63" s="147"/>
+      <c r="J63" s="144"/>
+      <c r="K63" s="145">
         <f>K62+1</f>
         <v>21</v>
       </c>
@@ -39365,10 +39314,10 @@
         <v>163</v>
       </c>
       <c r="M63" s="103"/>
-      <c r="N63" s="132"/>
-      <c r="O63" s="132"/>
-      <c r="P63" s="132"/>
-      <c r="Q63" s="132"/>
+      <c r="N63" s="128"/>
+      <c r="O63" s="128"/>
+      <c r="P63" s="128"/>
+      <c r="Q63" s="128"/>
       <c r="R63" t="str">
         <f t="shared" si="0"/>
         <v>Stress range formula</v>
@@ -39386,9 +39335,9 @@
       <c r="E64" s="104"/>
       <c r="F64" s="104"/>
       <c r="G64" s="104"/>
-      <c r="I64" s="157"/>
-      <c r="J64" s="155"/>
-      <c r="K64" s="156">
+      <c r="I64" s="146"/>
+      <c r="J64" s="144"/>
+      <c r="K64" s="145">
         <f>K63+1</f>
         <v>22</v>
       </c>
@@ -39417,9 +39366,9 @@
       <c r="E65" s="104"/>
       <c r="F65" s="104"/>
       <c r="G65" s="104"/>
-      <c r="I65" s="157"/>
-      <c r="J65" s="155"/>
-      <c r="K65" s="156">
+      <c r="I65" s="146"/>
+      <c r="J65" s="144"/>
+      <c r="K65" s="145">
         <f>K64+1</f>
         <v>23</v>
       </c>
@@ -39445,15 +39394,15 @@
         <v>159</v>
       </c>
       <c r="D66" s="103"/>
-      <c r="E66" s="132"/>
-      <c r="F66" s="132"/>
-      <c r="G66" s="132"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
       <c r="H66" t="s">
         <v>158</v>
       </c>
-      <c r="I66" s="157"/>
-      <c r="J66" s="155"/>
-      <c r="K66" s="156">
+      <c r="I66" s="146"/>
+      <c r="J66" s="144"/>
+      <c r="K66" s="145">
         <f>K65+1</f>
         <v>24</v>
       </c>
@@ -39461,10 +39410,10 @@
         <v>159</v>
       </c>
       <c r="M66" s="103"/>
-      <c r="N66" s="132"/>
-      <c r="O66" s="132"/>
-      <c r="P66" s="132"/>
-      <c r="Q66" s="132"/>
+      <c r="N66" s="128"/>
+      <c r="O66" s="128"/>
+      <c r="P66" s="128"/>
+      <c r="Q66" s="128"/>
       <c r="R66" t="str">
         <f t="shared" si="0"/>
         <v>Summarized formula for bolt force curve</v>
@@ -39812,11 +39761,11 @@
         <v>313</v>
       </c>
       <c r="D76" s="103"/>
-      <c r="E76" s="159" cm="1">
+      <c r="E76" s="148" cm="1">
         <f t="array" ref="E76">INDEX(N76:Q76,case_number)</f>
         <v>1.6232861638834317E-4</v>
       </c>
-      <c r="F76" s="159" cm="1">
+      <c r="F76" s="148" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.2")*1000</f>
         <v>1.6232835882917454E-4</v>
       </c>
@@ -39829,16 +39778,16 @@
         <v>313</v>
       </c>
       <c r="M76" s="103"/>
-      <c r="N76" s="150">
+      <c r="N76" s="139">
         <v>1.12113274823377E-4</v>
       </c>
-      <c r="O76" s="150">
+      <c r="O76" s="139">
         <v>1.6232861638834317E-4</v>
       </c>
-      <c r="P76" s="150">
+      <c r="P76" s="139">
         <v>1.8736291722182857E-4</v>
       </c>
-      <c r="Q76" s="150">
+      <c r="Q76" s="139">
         <v>2.0308508309270604E-4</v>
       </c>
     </row>
@@ -39848,11 +39797,11 @@
         <v>312</v>
       </c>
       <c r="D77" s="103"/>
-      <c r="E77" s="159" cm="1">
+      <c r="E77" s="148" cm="1">
         <f t="array" ref="E77">INDEX(N77:Q77,case_number)</f>
         <v>0.13974757904295831</v>
       </c>
-      <c r="F77" s="159" cm="1">
+      <c r="F77" s="148" cm="1">
         <f t="array" aca="1" ref="F77" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.1")</f>
         <v>0.13974247252157912</v>
       </c>
@@ -39865,16 +39814,16 @@
         <v>312</v>
       </c>
       <c r="M77" s="103"/>
-      <c r="N77" s="150">
+      <c r="N77" s="139">
         <v>0.12797137708491083</v>
       </c>
-      <c r="O77" s="150">
+      <c r="O77" s="139">
         <v>0.13974757904295831</v>
       </c>
-      <c r="P77" s="150">
+      <c r="P77" s="139">
         <v>0.14260543972202608</v>
       </c>
-      <c r="Q77" s="150">
+      <c r="Q77" s="139">
         <v>0.14400693643367177</v>
       </c>
     </row>
@@ -39937,7 +39886,7 @@
         <f ca="1">(F79-E79)/E79</f>
         <v>1.4414022956968493E-8</v>
       </c>
-      <c r="I79" s="152"/>
+      <c r="I79" s="141"/>
       <c r="K79" s="106">
         <f>K66+1</f>
         <v>25</v>
@@ -39981,7 +39930,7 @@
         <v>87</v>
       </c>
       <c r="G80" s="111"/>
-      <c r="I80" s="151"/>
+      <c r="I80" s="140"/>
       <c r="K80" s="106"/>
       <c r="L80" s="103" t="s">
         <v>146</v>
@@ -40020,13 +39969,13 @@
       </c>
       <c r="F81" s="114" cm="1">
         <f t="array" aca="1" ref="F81" ca="1">INDIRECT(sheet_name&amp;"!I_tg")</f>
-        <v>123831110</v>
+        <v>123831110.42899768</v>
       </c>
       <c r="G81" s="118">
         <f t="shared" ref="G81:G83" ca="1" si="7">(F81-E81)/E81</f>
-        <v>-3.4643772397634438E-9</v>
-      </c>
-      <c r="I81" s="151"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="140"/>
       <c r="K81" s="106"/>
       <c r="L81" s="103" t="s">
         <v>144</v>
@@ -40034,16 +39983,16 @@
       <c r="M81" s="103" t="s">
         <v>275</v>
       </c>
-      <c r="N81" s="149">
+      <c r="N81" s="138">
         <v>123831110.42899768</v>
       </c>
-      <c r="O81" s="149">
+      <c r="O81" s="138">
         <v>123831110.42899768</v>
       </c>
-      <c r="P81" s="149">
+      <c r="P81" s="138">
         <v>123831110.42899768</v>
       </c>
-      <c r="Q81" s="149">
+      <c r="Q81" s="138">
         <v>123831110.42899768</v>
       </c>
       <c r="R81" t="str">
@@ -40065,13 +40014,13 @@
       </c>
       <c r="F82" s="111" cm="1">
         <f t="array" aca="1" ref="F82" ca="1">INDIRECT(sheet_name&amp;"!flange.A_cf")</f>
-        <v>87000</v>
+        <v>87000.000000000029</v>
       </c>
       <c r="G82" s="118">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="151"/>
+        <v>3.3452678685900808E-16</v>
+      </c>
+      <c r="I82" s="140"/>
       <c r="K82" s="106"/>
       <c r="L82" s="103" t="s">
         <v>150</v>
@@ -40110,13 +40059,13 @@
       </c>
       <c r="F83" s="114" cm="1">
         <f t="array" aca="1" ref="F83" ca="1">INDIRECT(sheet_name&amp;"!flange.I_cf")</f>
-        <v>290000000</v>
+        <v>290000000.00000006</v>
       </c>
       <c r="G83" s="118">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="151"/>
+        <v>2.0553325784617456E-16</v>
+      </c>
+      <c r="I83" s="140"/>
       <c r="K83" s="106"/>
       <c r="L83" s="103" t="s">
         <v>149</v>
@@ -40124,16 +40073,16 @@
       <c r="M83" s="103" t="s">
         <v>275</v>
       </c>
-      <c r="N83" s="149">
+      <c r="N83" s="138">
         <v>290000000</v>
       </c>
-      <c r="O83" s="149">
+      <c r="O83" s="138">
         <v>290000000</v>
       </c>
-      <c r="P83" s="149">
+      <c r="P83" s="138">
         <v>290000000</v>
       </c>
-      <c r="Q83" s="149">
+      <c r="Q83" s="138">
         <v>290000000</v>
       </c>
       <c r="R83" t="str">
@@ -40164,7 +40113,7 @@
         <f ca="1">(F84-E84)/E84</f>
         <v>1.4414022392578782E-8</v>
       </c>
-      <c r="I84" s="151"/>
+      <c r="I84" s="140"/>
       <c r="K84" s="106">
         <f>K79+1</f>
         <v>26</v>
@@ -40214,7 +40163,7 @@
       <c r="H85" t="s">
         <v>155</v>
       </c>
-      <c r="I85" s="151"/>
+      <c r="I85" s="140"/>
       <c r="K85" s="106">
         <f>K84+1</f>
         <v>27</v>
@@ -40256,16 +40205,16 @@
       </c>
       <c r="F86" s="111" cm="1">
         <f t="array" aca="1" ref="F86" ca="1">INDIRECT(sheet_name&amp;"!gap.k_shell")</f>
-        <v>2212.11</v>
+        <v>2212.1093218994611</v>
       </c>
       <c r="G86" s="118">
         <f ca="1">(F86-E86)/E86</f>
-        <v>3.0654024751357306E-7</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
         <v>154</v>
       </c>
-      <c r="I86" s="151"/>
+      <c r="I86" s="140"/>
       <c r="K86" s="106"/>
       <c r="L86" s="103" t="s">
         <v>153</v>
@@ -40304,16 +40253,16 @@
       </c>
       <c r="F87" s="111" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">INDIRECT(sheet_name&amp;"!gap.k_shell")</f>
-        <v>2212.11</v>
+        <v>2212.1093218994611</v>
       </c>
       <c r="G87" s="118">
         <f ca="1">(F87-E87)/E87</f>
-        <v>3.0654024751357306E-7</v>
+        <v>0</v>
       </c>
       <c r="H87" t="s">
         <v>152</v>
       </c>
-      <c r="I87" s="151"/>
+      <c r="I87" s="140"/>
       <c r="K87" s="106"/>
       <c r="L87" s="103" t="s">
         <v>153</v>
@@ -40355,13 +40304,13 @@
       </c>
       <c r="F88" s="109" cm="1">
         <f t="array" aca="1" ref="F88" ca="1">INDIRECT(sheet_name&amp;"!gap.k_fac")</f>
-        <v>2.1031</v>
+        <v>2.1031001583544837</v>
       </c>
       <c r="G88" s="118">
         <f ca="1">(F88-E88)/E88</f>
-        <v>-7.5295740490036232E-8</v>
-      </c>
-      <c r="I88" s="151"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="140"/>
       <c r="K88" s="106">
         <f>K85+1</f>
         <v>28</v>
@@ -40406,13 +40355,13 @@
       </c>
       <c r="F89" s="107" cm="1">
         <f t="array" aca="1" ref="F89" ca="1">INDIRECT(sheet_name&amp;"!gap.k_fl")</f>
-        <v>100.21</v>
+        <v>100.21148969028162</v>
       </c>
       <c r="G89" s="118">
         <f ca="1">(F89-E89)/E89</f>
-        <v>-1.4532873697042141E-5</v>
-      </c>
-      <c r="I89" s="151"/>
+        <v>3.3259513989691736E-7</v>
+      </c>
+      <c r="I89" s="140"/>
       <c r="K89" s="106">
         <f>K88+1</f>
         <v>29</v>
@@ -40462,7 +40411,7 @@
       <c r="H90" t="s">
         <v>309</v>
       </c>
-      <c r="I90" s="152"/>
+      <c r="I90" s="141"/>
       <c r="K90" s="106">
         <f>K89+1</f>
         <v>30</v>
@@ -40512,7 +40461,7 @@
       <c r="H91" t="s">
         <v>309</v>
       </c>
-      <c r="I91" s="151"/>
+      <c r="I91" s="140"/>
       <c r="K91" s="106">
         <f>K90+1</f>
         <v>31</v>
@@ -40560,7 +40509,7 @@
         <f>"Inclination used: "&amp;E92&amp;"deg"</f>
         <v>Inclination used: 0deg</v>
       </c>
-      <c r="I92" s="152"/>
+      <c r="I92" s="141"/>
       <c r="K92" s="106"/>
       <c r="L92" s="105" t="s">
         <v>142</v>
@@ -40604,7 +40553,7 @@
         <v>87</v>
       </c>
       <c r="G93" s="107"/>
-      <c r="I93" s="152"/>
+      <c r="I93" s="141"/>
       <c r="K93" s="106">
         <f>K91+1</f>
         <v>32</v>
@@ -40651,7 +40600,7 @@
         <v>87</v>
       </c>
       <c r="G94" s="118"/>
-      <c r="I94" s="151"/>
+      <c r="I94" s="140"/>
       <c r="K94" s="106">
         <f>K93+1</f>
         <v>33</v>
@@ -40705,7 +40654,7 @@
       <c r="H95" t="s">
         <v>310</v>
       </c>
-      <c r="I95" s="151"/>
+      <c r="I95" s="140"/>
       <c r="K95" s="106">
         <f>K94+1</f>
         <v>34</v>
@@ -40755,7 +40704,7 @@
       <c r="H96" t="s">
         <v>309</v>
       </c>
-      <c r="I96" s="151"/>
+      <c r="I96" s="140"/>
       <c r="K96" s="106">
         <f>K95+1</f>
         <v>35</v>
@@ -40806,7 +40755,7 @@
         <f ca="1">(F97-E97)/E97</f>
         <v>8.5714681293114124E-6</v>
       </c>
-      <c r="I97" s="152"/>
+      <c r="I97" s="141"/>
       <c r="K97" s="106">
         <f>K96+1</f>
         <v>36</v>
@@ -40850,7 +40799,7 @@
         <v>87</v>
       </c>
       <c r="G98" s="118"/>
-      <c r="I98" s="152"/>
+      <c r="I98" s="141"/>
       <c r="K98" s="106"/>
       <c r="L98" s="105" t="s">
         <v>274</v>
@@ -40892,13 +40841,13 @@
       </c>
       <c r="F99" s="107" cm="1">
         <f t="array" aca="1" ref="F99" ca="1">INDIRECT(sheet_name&amp;"!k_seg")</f>
-        <v>14760.496965</v>
+        <v>14760.496964936936</v>
       </c>
       <c r="G99" s="118">
         <f ca="1">(F99-E99)/E99</f>
-        <v>-3.3427315738403335E-5</v>
-      </c>
-      <c r="I99" s="151"/>
+        <v>-3.3427320010769955E-5</v>
+      </c>
+      <c r="I99" s="140"/>
       <c r="K99" s="106">
         <f>K97+1</f>
         <v>37</v>
@@ -40949,7 +40898,7 @@
         <f ca="1">(F100-E100)/E100</f>
         <v>2.8817183533582925E-4</v>
       </c>
-      <c r="I100" s="151"/>
+      <c r="I100" s="140"/>
       <c r="K100" s="106">
         <f>K99+1</f>
         <v>38</v>
@@ -40994,16 +40943,16 @@
       </c>
       <c r="F101" s="109" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">INDIRECT(sheet_name&amp;"!u")</f>
-        <v>0.44</v>
+        <v>0.44036422450343377</v>
       </c>
       <c r="G101" s="118">
         <f ca="1">(F101-E101)/E101</f>
-        <v>-7.9370672379270907E-4</v>
+        <v>3.3419221653695012E-5</v>
       </c>
       <c r="H101" t="s">
         <v>310</v>
       </c>
-      <c r="I101" s="151"/>
+      <c r="I101" s="140"/>
       <c r="K101" s="106">
         <f>K100+1</f>
         <v>39</v>
@@ -41051,7 +41000,7 @@
       <c r="H102" t="s">
         <v>309</v>
       </c>
-      <c r="I102" s="151"/>
+      <c r="I102" s="140"/>
       <c r="K102" s="106">
         <f>K101+1</f>
         <v>40</v>
@@ -41095,7 +41044,7 @@
         <v>87</v>
       </c>
       <c r="G103" s="110"/>
-      <c r="I103" s="151"/>
+      <c r="I103" s="140"/>
       <c r="K103" s="106"/>
       <c r="L103" s="103" t="s">
         <v>134</v>
@@ -41143,7 +41092,7 @@
         <f ca="1">(F104-E104)/E104</f>
         <v>0</v>
       </c>
-      <c r="I104" s="152"/>
+      <c r="I104" s="141"/>
       <c r="K104" s="106">
         <f>K102+1</f>
         <v>41</v>
@@ -41454,9 +41403,9 @@
       <c r="D111" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="E111" s="132"/>
-      <c r="F111" s="132"/>
-      <c r="G111" s="132"/>
+      <c r="E111" s="128"/>
+      <c r="F111" s="128"/>
+      <c r="G111" s="128"/>
       <c r="H111" t="s">
         <v>273</v>
       </c>
@@ -41471,10 +41420,10 @@
       <c r="M111" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="N111" s="132"/>
-      <c r="O111" s="132"/>
-      <c r="P111" s="132"/>
-      <c r="Q111" s="132"/>
+      <c r="N111" s="128"/>
+      <c r="O111" s="128"/>
+      <c r="P111" s="128"/>
+      <c r="Q111" s="128"/>
       <c r="R111" t="str">
         <f t="shared" si="6"/>
         <v>Bending moment L-Flange as a function of external force Z</v>
@@ -41497,11 +41446,11 @@
       </c>
       <c r="F112" s="107" cm="1">
         <f t="array" aca="1" ref="F112" ca="1">INDIRECT(sheet_name&amp;"!a_star")</f>
-        <v>112.77695050276699</v>
+        <v>112.77695050276785</v>
       </c>
       <c r="G112" s="118">
         <f ca="1">(F112-E112)/E112</f>
-        <v>-7.6865186881076997E-15</v>
+        <v>-1.2600850308373279E-16</v>
       </c>
       <c r="I112" s="105"/>
       <c r="K112" s="106">
@@ -41590,9 +41539,9 @@
       <c r="D114" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="E114" s="132"/>
-      <c r="F114" s="132"/>
-      <c r="G114" s="132"/>
+      <c r="E114" s="128"/>
+      <c r="F114" s="128"/>
+      <c r="G114" s="128"/>
       <c r="H114" t="s">
         <v>269</v>
       </c>
@@ -41607,10 +41556,10 @@
       <c r="M114" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="N114" s="132"/>
-      <c r="O114" s="132"/>
-      <c r="P114" s="132"/>
-      <c r="Q114" s="132"/>
+      <c r="N114" s="128"/>
+      <c r="O114" s="128"/>
+      <c r="P114" s="128"/>
+      <c r="Q114" s="128"/>
       <c r="R114" t="str">
         <f t="shared" si="6"/>
         <v>Bending moment for T-Flange as a function of external force Z</v>
@@ -41627,9 +41576,9 @@
       <c r="D115" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="E115" s="132"/>
-      <c r="F115" s="132"/>
-      <c r="G115" s="132"/>
+      <c r="E115" s="128"/>
+      <c r="F115" s="128"/>
+      <c r="G115" s="128"/>
       <c r="H115" t="s">
         <v>267</v>
       </c>
@@ -41644,10 +41593,10 @@
       <c r="M115" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="N115" s="132"/>
-      <c r="O115" s="132"/>
-      <c r="P115" s="132"/>
-      <c r="Q115" s="132"/>
+      <c r="N115" s="128"/>
+      <c r="O115" s="128"/>
+      <c r="P115" s="128"/>
+      <c r="Q115" s="128"/>
       <c r="R115" t="str">
         <f t="shared" si="6"/>
         <v>Intermediate values as function of Z</v>
@@ -41664,9 +41613,9 @@
       <c r="D116" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="E116" s="132"/>
-      <c r="F116" s="132"/>
-      <c r="G116" s="132"/>
+      <c r="E116" s="128"/>
+      <c r="F116" s="128"/>
+      <c r="G116" s="128"/>
       <c r="H116" t="s">
         <v>267</v>
       </c>
@@ -41681,10 +41630,10 @@
       <c r="M116" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="N116" s="132"/>
-      <c r="O116" s="132"/>
-      <c r="P116" s="132"/>
-      <c r="Q116" s="132"/>
+      <c r="N116" s="128"/>
+      <c r="O116" s="128"/>
+      <c r="P116" s="128"/>
+      <c r="Q116" s="128"/>
       <c r="R116" t="str">
         <f t="shared" si="6"/>
         <v>Intermediate values as function of Z</v>
@@ -42016,15 +41965,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E5A98ECA1EC044BB77E0D7F6ADEF7BC" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5e88349ac6f5efd4674595e2a92e1fa9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2278e7f3-5df8-4100-b836-5320443b7544" xmlns:ns4="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bde21b231255bb48ab8a6ec7dd561648" ns3:_="" ns4:_="">
     <xsd:import namespace="2278e7f3-5df8-4100-b836-5320443b7544"/>
@@ -42277,6 +42217,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -42286,14 +42235,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A7863D2-B6F1-4C67-B9E9-1F3A9276C4FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42308,6 +42249,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/validation/BnB_ReferenceFlange-Results.xlsx
+++ b/tests/validation/BnB_ReferenceFlange-Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\tests\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBA2DE2-2DC1-411A-8B3F-7A731B9C8B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C9A944-19BE-4703-971F-6905957FC2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9165" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="-25290" yWindow="-6255" windowWidth="21600" windowHeight="12585" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap30deg" sheetId="2" r:id="rId1"/>
@@ -27,30 +27,30 @@
     <definedName name="a" localSheetId="0">Gap30deg!$J$36</definedName>
     <definedName name="a" localSheetId="1">Gap60deg!$J$36</definedName>
     <definedName name="a" localSheetId="2">Gap90deg!$J$36</definedName>
-    <definedName name="a_prime" localSheetId="3">Gap120deg!$J$159</definedName>
-    <definedName name="a_prime" localSheetId="0">Gap30deg!$J$159</definedName>
-    <definedName name="a_prime" localSheetId="1">Gap60deg!$J$159</definedName>
-    <definedName name="a_prime" localSheetId="2">Gap90deg!$J$159</definedName>
-    <definedName name="a_star" localSheetId="3">Gap120deg!$J$160</definedName>
-    <definedName name="a_star" localSheetId="0">Gap30deg!$J$160</definedName>
-    <definedName name="a_star" localSheetId="1">Gap60deg!$J$160</definedName>
-    <definedName name="a_star" localSheetId="2">Gap90deg!$J$160</definedName>
+    <definedName name="a_prime" localSheetId="3">Gap120deg!$J$160</definedName>
+    <definedName name="a_prime" localSheetId="0">Gap30deg!$J$160</definedName>
+    <definedName name="a_prime" localSheetId="1">Gap60deg!$J$160</definedName>
+    <definedName name="a_prime" localSheetId="2">Gap90deg!$J$160</definedName>
+    <definedName name="a_star" localSheetId="3">Gap120deg!$J$161</definedName>
+    <definedName name="a_star" localSheetId="0">Gap30deg!$J$161</definedName>
+    <definedName name="a_star" localSheetId="1">Gap60deg!$J$161</definedName>
+    <definedName name="a_star" localSheetId="2">Gap90deg!$J$161</definedName>
     <definedName name="b" localSheetId="3">Gap120deg!$J$37</definedName>
     <definedName name="b" localSheetId="0">Gap30deg!$J$37</definedName>
     <definedName name="b" localSheetId="1">Gap60deg!$J$37</definedName>
     <definedName name="b" localSheetId="2">Gap90deg!$J$37</definedName>
-    <definedName name="bolt.As" localSheetId="3">Gap120deg!$J$155</definedName>
-    <definedName name="bolt.As" localSheetId="0">Gap30deg!$J$155</definedName>
-    <definedName name="bolt.As" localSheetId="1">Gap60deg!$J$155</definedName>
-    <definedName name="bolt.As" localSheetId="2">Gap90deg!$J$155</definedName>
-    <definedName name="bolt.axial_stiffness" localSheetId="3">Gap120deg!$J$153</definedName>
-    <definedName name="bolt.axial_stiffness" localSheetId="0">Gap30deg!$J$153</definedName>
-    <definedName name="bolt.axial_stiffness" localSheetId="1">Gap60deg!$J$153</definedName>
-    <definedName name="bolt.axial_stiffness" localSheetId="2">Gap90deg!$J$153</definedName>
-    <definedName name="bolt.bending_stiffness" localSheetId="3">Gap120deg!$J$154</definedName>
-    <definedName name="bolt.bending_stiffness" localSheetId="0">Gap30deg!$J$154</definedName>
-    <definedName name="bolt.bending_stiffness" localSheetId="1">Gap60deg!$J$154</definedName>
-    <definedName name="bolt.bending_stiffness" localSheetId="2">Gap90deg!$J$154</definedName>
+    <definedName name="bolt.As" localSheetId="3">Gap120deg!$J$156</definedName>
+    <definedName name="bolt.As" localSheetId="0">Gap30deg!$J$156</definedName>
+    <definedName name="bolt.As" localSheetId="1">Gap60deg!$J$156</definedName>
+    <definedName name="bolt.As" localSheetId="2">Gap90deg!$J$156</definedName>
+    <definedName name="bolt.axial_stiffness" localSheetId="3">Gap120deg!$J$154</definedName>
+    <definedName name="bolt.axial_stiffness" localSheetId="0">Gap30deg!$J$154</definedName>
+    <definedName name="bolt.axial_stiffness" localSheetId="1">Gap60deg!$J$154</definedName>
+    <definedName name="bolt.axial_stiffness" localSheetId="2">Gap90deg!$J$154</definedName>
+    <definedName name="bolt.bending_stiffness" localSheetId="3">Gap120deg!$J$155</definedName>
+    <definedName name="bolt.bending_stiffness" localSheetId="0">Gap30deg!$J$155</definedName>
+    <definedName name="bolt.bending_stiffness" localSheetId="1">Gap60deg!$J$155</definedName>
+    <definedName name="bolt.bending_stiffness" localSheetId="2">Gap90deg!$J$155</definedName>
     <definedName name="bolt.Dn" localSheetId="3">Gap120deg!$J$48</definedName>
     <definedName name="bolt.Dn" localSheetId="0">Gap30deg!$J$48</definedName>
     <definedName name="bolt.Dn" localSheetId="1">Gap60deg!$J$48</definedName>
@@ -92,10 +92,10 @@
     <definedName name="central_angle" localSheetId="0">Gap30deg!$J$40</definedName>
     <definedName name="central_angle" localSheetId="1">Gap60deg!$J$40</definedName>
     <definedName name="central_angle" localSheetId="2">Gap90deg!$J$40</definedName>
-    <definedName name="clamped_parts_stiffness" localSheetId="3">Gap120deg!$J$162</definedName>
-    <definedName name="clamped_parts_stiffness" localSheetId="0">Gap30deg!$J$162</definedName>
-    <definedName name="clamped_parts_stiffness" localSheetId="1">Gap60deg!$J$162</definedName>
-    <definedName name="clamped_parts_stiffness" localSheetId="2">Gap90deg!$J$162</definedName>
+    <definedName name="clamped_parts_stiffness" localSheetId="3">Gap120deg!$J$163</definedName>
+    <definedName name="clamped_parts_stiffness" localSheetId="0">Gap30deg!$J$163</definedName>
+    <definedName name="clamped_parts_stiffness" localSheetId="1">Gap60deg!$J$163</definedName>
+    <definedName name="clamped_parts_stiffness" localSheetId="2">Gap90deg!$J$163</definedName>
     <definedName name="dataseries.Fs" localSheetId="3">Gap120deg!$O$67</definedName>
     <definedName name="dataseries.Fs" localSheetId="0">Gap30deg!$O$67</definedName>
     <definedName name="dataseries.Fs" localSheetId="1">Gap60deg!$O$67</definedName>
@@ -116,10 +116,14 @@
     <definedName name="Dw" localSheetId="0">Gap30deg!$J$57</definedName>
     <definedName name="Dw" localSheetId="1">Gap60deg!$J$57</definedName>
     <definedName name="Dw" localSheetId="2">Gap90deg!$J$57</definedName>
-    <definedName name="DZ_gap" localSheetId="3">Gap120deg!$J$147</definedName>
-    <definedName name="DZ_gap" localSheetId="0">Gap30deg!$J$147</definedName>
-    <definedName name="DZ_gap" localSheetId="1">Gap60deg!$J$147</definedName>
-    <definedName name="DZ_gap" localSheetId="2">Gap90deg!$J$147</definedName>
+    <definedName name="DZ_gap" localSheetId="3">Gap120deg!$J$148</definedName>
+    <definedName name="DZ_gap" localSheetId="0">Gap30deg!$J$148</definedName>
+    <definedName name="DZ_gap" localSheetId="1">Gap60deg!$J$148</definedName>
+    <definedName name="DZ_gap" localSheetId="2">Gap90deg!$J$148</definedName>
+    <definedName name="DZ_gap_inclination" localSheetId="3">Gap120deg!$J$147</definedName>
+    <definedName name="DZ_gap_inclination" localSheetId="0">Gap30deg!$J$147</definedName>
+    <definedName name="DZ_gap_inclination" localSheetId="1">Gap60deg!$J$147</definedName>
+    <definedName name="DZ_gap_inclination" localSheetId="2">Gap90deg!$J$147</definedName>
     <definedName name="E_mod" localSheetId="3">Gap120deg!$J$43</definedName>
     <definedName name="E_mod" localSheetId="0">Gap30deg!$J$43</definedName>
     <definedName name="E_mod" localSheetId="1">Gap60deg!$J$43</definedName>
@@ -164,10 +168,10 @@
     <definedName name="G_mod" localSheetId="0">Gap30deg!$J$44</definedName>
     <definedName name="G_mod" localSheetId="1">Gap60deg!$J$44</definedName>
     <definedName name="G_mod" localSheetId="2">Gap90deg!$J$44</definedName>
-    <definedName name="gap.angle" localSheetId="3">Gap120deg!$J$158</definedName>
-    <definedName name="gap.angle" localSheetId="0">Gap30deg!$J$158</definedName>
-    <definedName name="gap.angle" localSheetId="1">Gap60deg!$J$158</definedName>
-    <definedName name="gap.angle" localSheetId="2">Gap90deg!$J$158</definedName>
+    <definedName name="gap.angle" localSheetId="3">Gap120deg!$J$159</definedName>
+    <definedName name="gap.angle" localSheetId="0">Gap30deg!$J$159</definedName>
+    <definedName name="gap.angle" localSheetId="1">Gap60deg!$J$159</definedName>
+    <definedName name="gap.angle" localSheetId="2">Gap90deg!$J$159</definedName>
     <definedName name="gap.COV" localSheetId="3">Gap120deg!$J$129</definedName>
     <definedName name="gap.COV" localSheetId="0">Gap30deg!$J$129</definedName>
     <definedName name="gap.COV" localSheetId="1">Gap60deg!$J$129</definedName>
@@ -201,10 +205,10 @@
     <definedName name="gap.stiffness" localSheetId="1">Gap60deg!$J$137</definedName>
     <definedName name="gap.stiffness" localSheetId="2">Gap90deg!$J$137</definedName>
     <definedName name="gap_angle" localSheetId="4">'AMD1'!$G$21</definedName>
-    <definedName name="I_tg" localSheetId="3">Gap120deg!$J$161</definedName>
-    <definedName name="I_tg" localSheetId="0">Gap30deg!$J$161</definedName>
-    <definedName name="I_tg" localSheetId="1">Gap60deg!$J$161</definedName>
-    <definedName name="I_tg" localSheetId="2">Gap90deg!$J$161</definedName>
+    <definedName name="I_tg" localSheetId="3">Gap120deg!$J$162</definedName>
+    <definedName name="I_tg" localSheetId="0">Gap30deg!$J$162</definedName>
+    <definedName name="I_tg" localSheetId="1">Gap60deg!$J$162</definedName>
+    <definedName name="I_tg" localSheetId="2">Gap90deg!$J$162</definedName>
     <definedName name="k_seg" localSheetId="3">Gap120deg!$J$141</definedName>
     <definedName name="k_seg" localSheetId="0">Gap30deg!$J$141</definedName>
     <definedName name="k_seg" localSheetId="1">Gap60deg!$J$141</definedName>
@@ -285,14 +289,14 @@
     <definedName name="point4.Z" localSheetId="0">Gap30deg!$J$86</definedName>
     <definedName name="point4.Z" localSheetId="1">Gap60deg!$J$86</definedName>
     <definedName name="point4.Z" localSheetId="2">Gap90deg!$J$86</definedName>
-    <definedName name="polynomial_initial_slope" localSheetId="3">Gap120deg!$J$150</definedName>
-    <definedName name="polynomial_initial_slope" localSheetId="0">Gap30deg!$J$150</definedName>
-    <definedName name="polynomial_initial_slope" localSheetId="1">Gap60deg!$J$150</definedName>
-    <definedName name="polynomial_initial_slope" localSheetId="2">Gap90deg!$J$150</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Gap120deg!$A$11:$K$174</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Gap30deg!$A$11:$K$174</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Gap60deg!$A$11:$K$174</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Gap90deg!$A$11:$K$174</definedName>
+    <definedName name="polynomial_initial_slope" localSheetId="3">Gap120deg!$J$151</definedName>
+    <definedName name="polynomial_initial_slope" localSheetId="0">Gap30deg!$J$151</definedName>
+    <definedName name="polynomial_initial_slope" localSheetId="1">Gap60deg!$J$151</definedName>
+    <definedName name="polynomial_initial_slope" localSheetId="2">Gap90deg!$J$151</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Gap120deg!$A$11:$K$175</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Gap30deg!$A$11:$K$175</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Gap60deg!$A$11:$K$175</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Gap90deg!$A$11:$K$175</definedName>
     <definedName name="Radius" localSheetId="3">Gap120deg!$J$41</definedName>
     <definedName name="Radius" localSheetId="0">Gap30deg!$J$41</definedName>
     <definedName name="Radius" localSheetId="1">Gap60deg!$J$41</definedName>
@@ -322,14 +326,14 @@
     <definedName name="Title" localSheetId="0">Gap30deg!$B$11</definedName>
     <definedName name="Title" localSheetId="1">Gap60deg!$B$11</definedName>
     <definedName name="Title" localSheetId="2">Gap90deg!$B$11</definedName>
-    <definedName name="true_force_initial_slope" localSheetId="3">Gap120deg!$J$163</definedName>
-    <definedName name="true_force_initial_slope" localSheetId="0">Gap30deg!$J$163</definedName>
-    <definedName name="true_force_initial_slope" localSheetId="1">Gap60deg!$J$163</definedName>
-    <definedName name="true_force_initial_slope" localSheetId="2">Gap90deg!$J$163</definedName>
-    <definedName name="true_moment_initial_slope" localSheetId="3">Gap120deg!$J$164</definedName>
-    <definedName name="true_moment_initial_slope" localSheetId="0">Gap30deg!$J$164</definedName>
-    <definedName name="true_moment_initial_slope" localSheetId="1">Gap60deg!$J$164</definedName>
-    <definedName name="true_moment_initial_slope" localSheetId="2">Gap90deg!$J$164</definedName>
+    <definedName name="true_force_initial_slope" localSheetId="3">Gap120deg!$J$164</definedName>
+    <definedName name="true_force_initial_slope" localSheetId="0">Gap30deg!$J$164</definedName>
+    <definedName name="true_force_initial_slope" localSheetId="1">Gap60deg!$J$164</definedName>
+    <definedName name="true_force_initial_slope" localSheetId="2">Gap90deg!$J$164</definedName>
+    <definedName name="true_moment_initial_slope" localSheetId="3">Gap120deg!$J$165</definedName>
+    <definedName name="true_moment_initial_slope" localSheetId="0">Gap30deg!$J$165</definedName>
+    <definedName name="true_moment_initial_slope" localSheetId="1">Gap60deg!$J$165</definedName>
+    <definedName name="true_moment_initial_slope" localSheetId="2">Gap90deg!$J$165</definedName>
     <definedName name="u" localSheetId="3">Gap120deg!$J$140</definedName>
     <definedName name="u" localSheetId="0">Gap30deg!$J$140</definedName>
     <definedName name="u" localSheetId="1">Gap60deg!$J$140</definedName>
@@ -394,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="331">
   <si>
     <t>A</t>
   </si>
@@ -3731,6 +3735,48 @@
   <si>
     <t>0.10</t>
   </si>
+  <si>
+    <t>Force necessary to neutralize the flange tilt:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>gap,inclination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -4548,7 +4594,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4984,14 +5030,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="11" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5020,29 +5063,17 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5051,7 +5082,21 @@
     <cellStyle name="Normal 3" xfId="2" xr:uid="{E743A38D-16A7-497B-BF78-6D533003511F}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -19774,11 +19819,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ178"/>
+  <dimension ref="A1:DJ179"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J127" sqref="J127:J164"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -19823,32 +19868,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -19864,12 +19909,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="160"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="162"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="161"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -19877,12 +19922,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="162"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="161"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -19890,12 +19935,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="162"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="161"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -19903,12 +19948,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="162"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -19916,12 +19961,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="162"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -19969,102 +20014,102 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="153"/>
-      <c r="D13" s="152" t="s">
+      <c r="C13" s="162"/>
+      <c r="D13" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="153"/>
-      <c r="D14" s="152" t="s">
+      <c r="C14" s="162"/>
+      <c r="D14" s="164" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="153"/>
-      <c r="D15" s="152" t="s">
+      <c r="C15" s="162"/>
+      <c r="D15" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="153"/>
-      <c r="D16" s="152" t="str">
+      <c r="C16" s="162"/>
+      <c r="D16" s="164" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size</v>
       </c>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="153"/>
-      <c r="D17" s="151" t="s">
+      <c r="C17" s="162"/>
+      <c r="D17" s="165" t="s">
         <v>328</v>
       </c>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="153"/>
+      <c r="C18" s="162"/>
       <c r="D18" s="163">
         <v>45432</v>
       </c>
@@ -20262,16 +20307,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="156"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="155"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -23101,29 +23146,29 @@
       <c r="A127" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B127" s="165" t="s">
+      <c r="B127" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="C127" s="165"/>
-      <c r="D127" s="165"/>
-      <c r="E127" s="165"/>
-      <c r="F127" s="165"/>
-      <c r="G127" s="165"/>
-      <c r="H127" s="165"/>
-      <c r="I127" s="166" t="s">
+      <c r="C127" s="58"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="58"/>
+      <c r="G127" s="58"/>
+      <c r="H127" s="58"/>
+      <c r="I127" s="59" t="s">
         <v>264</v>
       </c>
       <c r="J127" s="127">
         <v>1.4</v>
       </c>
-      <c r="K127" s="167" t="s">
+      <c r="K127" s="60" t="s">
         <v>265</v>
       </c>
       <c r="L127" s="3"/>
       <c r="U127" s="99"/>
     </row>
     <row r="128" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="164" t="s">
+      <c r="A128" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B128" s="8" t="s">
@@ -23188,7 +23233,7 @@
       <c r="U130" s="99"/>
     </row>
     <row r="131" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="168" t="str">
+      <c r="A131" s="75" t="str">
         <f>$A$124&amp;"."&amp;1</f>
         <v>A.4.1</v>
       </c>
@@ -23248,7 +23293,7 @@
       <c r="I133" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="J133" s="170">
+      <c r="J133" s="152">
         <v>5169.2082946490964</v>
       </c>
       <c r="K133" s="15" t="s">
@@ -23258,7 +23303,7 @@
       <c r="U133" s="99"/>
     </row>
     <row r="134" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="164" t="s">
+      <c r="A134" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B134" s="8" t="s">
@@ -23283,7 +23328,7 @@
       <c r="U134" s="99"/>
     </row>
     <row r="135" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="164" t="s">
+      <c r="A135" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -23298,7 +23343,7 @@
       <c r="I135" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J135" s="169">
+      <c r="J135" s="151">
         <v>290000000.00000006</v>
       </c>
       <c r="K135" s="5" t="s">
@@ -23323,7 +23368,7 @@
       <c r="I136" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="J136" s="170">
+      <c r="J136" s="152">
         <v>1483.8038863767938</v>
       </c>
       <c r="K136" s="93" t="s">
@@ -23561,7 +23606,7 @@
         <v>3</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -23570,177 +23615,162 @@
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="I147" s="81" t="s">
-        <v>84</v>
+        <v>330</v>
       </c>
       <c r="J147" s="62">
-        <v>-1244.3583528535567</v>
+        <v>0</v>
       </c>
       <c r="K147" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L147" s="3"/>
+      <c r="U147" s="101"/>
     </row>
     <row r="148" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
+      <c r="A148" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="J148" s="62">
+        <v>-1244.3583528535567</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L148" s="3"/>
-      <c r="U148" s="99"/>
     </row>
     <row r="149" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="75" t="str">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="3"/>
+      <c r="U149" s="99"/>
+    </row>
+    <row r="150" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A150" s="75" t="str">
         <f>$A$124&amp;"."&amp;4</f>
         <v>A.4.4</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B150" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="3"/>
-      <c r="U149" s="99"/>
-    </row>
-    <row r="150" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="9" t="s">
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="3"/>
+      <c r="U150" s="99"/>
+    </row>
+    <row r="151" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A151" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B151" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="81" t="s">
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="J150" s="67">
+      <c r="J151" s="67">
         <v>0.14230099316700437</v>
       </c>
-      <c r="K150" s="5" t="s">
+      <c r="K151" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L150" s="3"/>
-    </row>
-    <row r="151" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
       <c r="L151" s="3"/>
-      <c r="U151" s="99"/>
     </row>
     <row r="152" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="75" t="str">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="3"/>
+      <c r="U152" s="99"/>
+    </row>
+    <row r="153" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A153" s="75" t="str">
         <f>$A$124&amp;"."&amp;5</f>
         <v>A.4.5</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B153" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="3"/>
-      <c r="M152" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="N152" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="O152" s="78">
-        <v>1</v>
-      </c>
-      <c r="P152" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q152" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="R152" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="S152" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="U152" s="99"/>
-    </row>
-    <row r="153" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J153" s="62">
-        <v>1710.5339527007882</v>
-      </c>
-      <c r="K153" s="5" t="s">
-        <v>224</v>
-      </c>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
       <c r="L153" s="3"/>
       <c r="M153" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="N153" s="102"/>
-      <c r="O153" s="102"/>
-      <c r="P153" s="102"/>
-      <c r="Q153" s="102"/>
-      <c r="R153" s="102"/>
-      <c r="S153" s="122">
-        <f>1/bolt.axial_stiffness</f>
-        <v>5.846127745205436E-4</v>
-      </c>
-      <c r="T153" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
+      </c>
+      <c r="N153" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="O153" s="78">
+        <v>1</v>
+      </c>
+      <c r="P153" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q153" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="R153" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="S153" s="78" t="s">
+        <v>232</v>
       </c>
       <c r="U153" s="99"/>
     </row>
     <row r="154" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -23749,48 +23779,38 @@
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
       <c r="I154" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J154" s="62">
-        <v>600.85776552878792</v>
+        <v>1710.5339527007882</v>
       </c>
       <c r="K154" s="5" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="L154" s="3"/>
       <c r="M154" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="N154" s="120">
-        <v>94.734999999999999</v>
-      </c>
-      <c r="O154" s="120">
-        <v>780.97299999999996</v>
-      </c>
-      <c r="P154" s="120">
-        <v>452.98</v>
-      </c>
-      <c r="Q154" s="120">
-        <v>139.38</v>
-      </c>
-      <c r="R154" s="120">
-        <v>75.787999999999997</v>
-      </c>
-      <c r="S154" s="121">
-        <f>1/(bolt.bending_stiffness/1000000)</f>
-        <v>1664.2873860837014</v>
+        <v>234</v>
+      </c>
+      <c r="N154" s="102"/>
+      <c r="O154" s="102"/>
+      <c r="P154" s="102"/>
+      <c r="Q154" s="102"/>
+      <c r="R154" s="102"/>
+      <c r="S154" s="122">
+        <f>1/bolt.axial_stiffness</f>
+        <v>5.846127745205436E-4</v>
       </c>
       <c r="T154" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U154" s="99"/>
     </row>
     <row r="155" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -23799,113 +23819,138 @@
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J155" s="62">
+        <v>600.85776552878792</v>
+      </c>
+      <c r="K155" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L155" s="3"/>
+      <c r="M155" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="N155" s="120">
+        <v>94.734999999999999</v>
+      </c>
+      <c r="O155" s="120">
+        <v>780.97299999999996</v>
+      </c>
+      <c r="P155" s="120">
+        <v>452.98</v>
+      </c>
+      <c r="Q155" s="120">
+        <v>139.38</v>
+      </c>
+      <c r="R155" s="120">
+        <v>75.787999999999997</v>
+      </c>
+      <c r="S155" s="121">
+        <f>1/(bolt.bending_stiffness/1000000)</f>
+        <v>1664.2873860837014</v>
+      </c>
+      <c r="T155" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U155" s="99"/>
+    </row>
+    <row r="156" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A156" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="J155" s="62">
+      <c r="J156" s="62">
         <v>4344.0537979949813</v>
       </c>
-      <c r="K155" s="5" t="s">
+      <c r="K156" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L155" s="3"/>
-      <c r="N155" s="133"/>
-      <c r="O155" s="133"/>
-      <c r="P155" s="133"/>
-      <c r="Q155" s="133"/>
-      <c r="R155" s="133"/>
-      <c r="U155" s="99"/>
-    </row>
-    <row r="156" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
       <c r="L156" s="3"/>
+      <c r="N156" s="133"/>
+      <c r="O156" s="133"/>
+      <c r="P156" s="133"/>
+      <c r="Q156" s="133"/>
+      <c r="R156" s="133"/>
       <c r="U156" s="99"/>
     </row>
     <row r="157" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="75" t="str">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="3"/>
+      <c r="U157" s="99"/>
+    </row>
+    <row r="158" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A158" s="75" t="str">
         <f>$A$124&amp;"."&amp;6</f>
         <v>A.4.6</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B158" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="3"/>
-      <c r="U157" s="99"/>
-    </row>
-    <row r="158" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
-      <c r="I158" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="J158" s="92">
-        <v>29.999999999999996</v>
-      </c>
-      <c r="K158" s="93" t="s">
-        <v>217</v>
-      </c>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
       <c r="L158" s="3"/>
       <c r="U158" s="99"/>
     </row>
     <row r="159" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A159" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J159" s="64">
-        <v>225.55390100553569</v>
-      </c>
-      <c r="K159" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J159" s="92">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="K159" s="93" t="s">
+        <v>217</v>
       </c>
       <c r="L159" s="3"/>
-      <c r="U159" s="100"/>
+      <c r="U159" s="99"/>
     </row>
     <row r="160" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
@@ -23914,10 +23959,10 @@
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" s="7" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="J160" s="64">
-        <v>112.77695050276785</v>
+        <v>225.55390100553569</v>
       </c>
       <c r="K160" s="5" t="s">
         <v>8</v>
@@ -23927,10 +23972,10 @@
     </row>
     <row r="161" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A161" s="9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -23939,23 +23984,23 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="J161" s="169">
-        <v>123831110.42899768</v>
+        <v>298</v>
+      </c>
+      <c r="J161" s="64">
+        <v>112.77695050276785</v>
       </c>
       <c r="K161" s="5" t="s">
-        <v>290</v>
+        <v>8</v>
       </c>
       <c r="L161" s="3"/>
       <c r="U161" s="100"/>
     </row>
     <row r="162" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -23964,82 +24009,93 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="J162" s="92">
-        <v>10310.000230734646</v>
+        <v>301</v>
+      </c>
+      <c r="J162" s="151">
+        <v>123831110.42899768</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="L162" s="3"/>
-      <c r="N162" s="123"/>
-      <c r="O162" s="123"/>
-      <c r="P162" s="123"/>
-      <c r="Q162" s="123"/>
-      <c r="R162" s="123"/>
-      <c r="S162" s="124"/>
+      <c r="U162" s="100"/>
     </row>
     <row r="163" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B163" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="17"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
-      <c r="I163" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="J163" s="84">
-        <v>0.10032183986561098</v>
-      </c>
-      <c r="K163" s="15" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J163" s="92">
+        <v>10310.000230734646</v>
+      </c>
+      <c r="K163" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="L163" s="3"/>
+      <c r="N163" s="123"/>
+      <c r="O163" s="123"/>
+      <c r="P163" s="123"/>
+      <c r="Q163" s="123"/>
+      <c r="R163" s="123"/>
+      <c r="S163" s="124"/>
     </row>
     <row r="164" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A164" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="J164" s="84">
+        <v>0.10032183986561098</v>
+      </c>
+      <c r="K164" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L164" s="3"/>
+    </row>
+    <row r="165" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A165" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B165" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="7" t="s">
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J164" s="66">
+      <c r="J165" s="66">
         <v>0.4315711874246439</v>
       </c>
-      <c r="K164" s="5" t="s">
+      <c r="K165" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L164" s="3"/>
-    </row>
-    <row r="165" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="9"/>
-      <c r="B165" s="58"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="58"/>
-      <c r="E165" s="58"/>
-      <c r="F165" s="58"/>
-      <c r="G165" s="58"/>
-      <c r="H165" s="58"/>
-      <c r="I165" s="59"/>
-      <c r="J165" s="125"/>
-      <c r="K165" s="60"/>
       <c r="L165" s="3"/>
     </row>
     <row r="166" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -24136,22 +24192,22 @@
       <c r="G172" s="58"/>
       <c r="H172" s="58"/>
       <c r="I172" s="59"/>
-      <c r="J172" s="63"/>
+      <c r="J172" s="125"/>
       <c r="K172" s="60"/>
       <c r="L172" s="3"/>
     </row>
     <row r="173" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
+      <c r="A173" s="9"/>
+      <c r="B173" s="58"/>
+      <c r="C173" s="58"/>
+      <c r="D173" s="58"/>
+      <c r="E173" s="58"/>
+      <c r="F173" s="58"/>
+      <c r="G173" s="58"/>
+      <c r="H173" s="58"/>
+      <c r="I173" s="59"/>
+      <c r="J173" s="63"/>
+      <c r="K173" s="60"/>
       <c r="L173" s="3"/>
     </row>
     <row r="174" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -24168,13 +24224,37 @@
       <c r="K174" s="4"/>
       <c r="L174" s="3"/>
     </row>
-    <row r="178" spans="2:4" ht="13.2">
-      <c r="B178" s="69"/>
-      <c r="C178" s="69"/>
-      <c r="D178" s="69"/>
+    <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="3"/>
+    </row>
+    <row r="179" spans="2:4" ht="13.2">
+      <c r="B179" s="69"/>
+      <c r="C179" s="69"/>
+      <c r="D179" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B18:C18"/>
@@ -24185,31 +24265,21 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="26" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="5" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="25" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -24231,11 +24301,11 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ178"/>
+  <dimension ref="A1:DJ179"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J127" sqref="J127:J164"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -24280,32 +24350,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -24321,12 +24391,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="160"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="162"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="161"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -24334,12 +24404,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="162"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="161"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -24347,12 +24417,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="162"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="161"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -24360,12 +24430,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="162"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -24373,12 +24443,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="162"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -24426,106 +24496,106 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="153"/>
-      <c r="D13" s="152" t="str">
+      <c r="C13" s="162"/>
+      <c r="D13" s="164" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="153"/>
-      <c r="D14" s="152" t="str">
+      <c r="C14" s="162"/>
+      <c r="D14" s="164" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="153"/>
-      <c r="D15" s="152" t="str">
+      <c r="C15" s="162"/>
+      <c r="D15" s="164" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="153"/>
-      <c r="D16" s="152" t="str">
+      <c r="C16" s="162"/>
+      <c r="D16" s="164" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size</v>
       </c>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="153"/>
-      <c r="D17" s="152" t="str">
+      <c r="C17" s="162"/>
+      <c r="D17" s="164" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="153"/>
+      <c r="C18" s="162"/>
       <c r="D18" s="163">
         <f>Gap30deg!D18</f>
         <v>45432</v>
@@ -24724,16 +24794,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="156"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="155"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -27673,7 +27743,7 @@
       <c r="I133" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J133" s="170">
+      <c r="J133" s="152">
         <v>2212.1093218994611</v>
       </c>
       <c r="K133" s="5" t="s">
@@ -27723,7 +27793,7 @@
       <c r="I135" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J135" s="169">
+      <c r="J135" s="151">
         <v>290000000.00000006</v>
       </c>
       <c r="K135" s="5" t="s">
@@ -27748,7 +27818,7 @@
       <c r="I136" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="J136" s="170">
+      <c r="J136" s="152">
         <v>100.21148969028162</v>
       </c>
       <c r="K136" s="5" t="s">
@@ -27986,7 +28056,7 @@
         <v>3</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -27995,177 +28065,162 @@
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="I147" s="81" t="s">
-        <v>84</v>
+        <v>330</v>
       </c>
       <c r="J147" s="62">
-        <v>-806.61560331250178</v>
+        <v>0</v>
       </c>
       <c r="K147" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L147" s="3"/>
+      <c r="U147" s="101"/>
     </row>
     <row r="148" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
+      <c r="A148" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="J148" s="62">
+        <v>-806.61560331250178</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L148" s="3"/>
-      <c r="U148" s="99"/>
     </row>
     <row r="149" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="75" t="str">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="3"/>
+      <c r="U149" s="99"/>
+    </row>
+    <row r="150" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A150" s="75" t="str">
         <f>$A$124&amp;"."&amp;4</f>
         <v>B.4.4</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B150" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="3"/>
-      <c r="U149" s="99"/>
-    </row>
-    <row r="150" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="9" t="s">
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="3"/>
+      <c r="U150" s="99"/>
+    </row>
+    <row r="151" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A151" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B151" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="81" t="s">
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="J150" s="67">
+      <c r="J151" s="67">
         <v>0.14230099316700437</v>
       </c>
-      <c r="K150" s="5" t="s">
+      <c r="K151" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L150" s="3"/>
-    </row>
-    <row r="151" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
       <c r="L151" s="3"/>
-      <c r="U151" s="99"/>
     </row>
     <row r="152" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="75" t="str">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="3"/>
+      <c r="U152" s="99"/>
+    </row>
+    <row r="153" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A153" s="75" t="str">
         <f>$A$124&amp;"."&amp;5</f>
         <v>B.4.5</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B153" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="3"/>
-      <c r="M152" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="N152" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="O152" s="78">
-        <v>1</v>
-      </c>
-      <c r="P152" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q152" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="R152" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="S152" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="U152" s="99"/>
-    </row>
-    <row r="153" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J153" s="62">
-        <v>1710.5339527007882</v>
-      </c>
-      <c r="K153" s="5" t="s">
-        <v>224</v>
-      </c>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
       <c r="L153" s="3"/>
       <c r="M153" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="N153" s="102"/>
-      <c r="O153" s="102"/>
-      <c r="P153" s="102"/>
-      <c r="Q153" s="102"/>
-      <c r="R153" s="102"/>
-      <c r="S153" s="122">
-        <f>1/bolt.axial_stiffness</f>
-        <v>5.846127745205436E-4</v>
-      </c>
-      <c r="T153" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
+      </c>
+      <c r="N153" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="O153" s="78">
+        <v>1</v>
+      </c>
+      <c r="P153" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q153" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="R153" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="S153" s="78" t="s">
+        <v>232</v>
       </c>
       <c r="U153" s="99"/>
     </row>
     <row r="154" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -28174,48 +28229,38 @@
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
       <c r="I154" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J154" s="62">
-        <v>600.85776552878792</v>
+        <v>1710.5339527007882</v>
       </c>
       <c r="K154" s="5" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="L154" s="3"/>
       <c r="M154" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="N154" s="120">
-        <v>94.734999999999999</v>
-      </c>
-      <c r="O154" s="120">
-        <v>780.97299999999996</v>
-      </c>
-      <c r="P154" s="120">
-        <v>452.98</v>
-      </c>
-      <c r="Q154" s="120">
-        <v>139.38</v>
-      </c>
-      <c r="R154" s="120">
-        <v>75.787999999999997</v>
-      </c>
-      <c r="S154" s="121">
-        <f>1/(bolt.bending_stiffness/1000000)</f>
-        <v>1664.2873860837014</v>
+        <v>234</v>
+      </c>
+      <c r="N154" s="102"/>
+      <c r="O154" s="102"/>
+      <c r="P154" s="102"/>
+      <c r="Q154" s="102"/>
+      <c r="R154" s="102"/>
+      <c r="S154" s="122">
+        <f>1/bolt.axial_stiffness</f>
+        <v>5.846127745205436E-4</v>
       </c>
       <c r="T154" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U154" s="99"/>
     </row>
     <row r="155" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -28224,123 +28269,148 @@
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J155" s="62">
+        <v>600.85776552878792</v>
+      </c>
+      <c r="K155" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L155" s="3"/>
+      <c r="M155" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="N155" s="120">
+        <v>94.734999999999999</v>
+      </c>
+      <c r="O155" s="120">
+        <v>780.97299999999996</v>
+      </c>
+      <c r="P155" s="120">
+        <v>452.98</v>
+      </c>
+      <c r="Q155" s="120">
+        <v>139.38</v>
+      </c>
+      <c r="R155" s="120">
+        <v>75.787999999999997</v>
+      </c>
+      <c r="S155" s="121">
+        <f>1/(bolt.bending_stiffness/1000000)</f>
+        <v>1664.2873860837014</v>
+      </c>
+      <c r="T155" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U155" s="99"/>
+    </row>
+    <row r="156" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A156" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="J155" s="62">
+      <c r="J156" s="62">
         <v>4344.0537979949813</v>
       </c>
-      <c r="K155" s="5" t="s">
+      <c r="K156" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L155" s="3"/>
-      <c r="N155" s="133">
+      <c r="L156" s="3"/>
+      <c r="N156" s="133">
         <v>94.7</v>
       </c>
-      <c r="O155" s="133">
+      <c r="O156" s="133">
         <v>781</v>
       </c>
-      <c r="P155" s="133">
+      <c r="P156" s="133">
         <v>453</v>
       </c>
-      <c r="Q155" s="133">
+      <c r="Q156" s="133">
         <v>139</v>
       </c>
-      <c r="R155" s="133">
+      <c r="R156" s="133">
         <v>75.8</v>
       </c>
-      <c r="U155" s="99"/>
-    </row>
-    <row r="156" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="3"/>
       <c r="U156" s="99"/>
     </row>
     <row r="157" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="75" t="str">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="3"/>
+      <c r="U157" s="99"/>
+    </row>
+    <row r="158" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A158" s="75" t="str">
         <f>$A$124&amp;"."&amp;6</f>
         <v>B.4.6</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B158" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="3"/>
-      <c r="U157" s="99"/>
-    </row>
-    <row r="158" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
-      <c r="I158" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="J158" s="92">
-        <v>59.999999999999993</v>
-      </c>
-      <c r="K158" s="93" t="s">
-        <v>217</v>
-      </c>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
       <c r="L158" s="3"/>
       <c r="U158" s="99"/>
     </row>
     <row r="159" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A159" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J159" s="64">
-        <v>225.55390100553569</v>
-      </c>
-      <c r="K159" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J159" s="92">
+        <v>59.999999999999993</v>
+      </c>
+      <c r="K159" s="93" t="s">
+        <v>217</v>
       </c>
       <c r="L159" s="3"/>
-      <c r="U159" s="100"/>
+      <c r="U159" s="99"/>
     </row>
     <row r="160" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
@@ -28349,10 +28419,10 @@
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" s="7" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="J160" s="64">
-        <v>112.77695050276785</v>
+        <v>225.55390100553569</v>
       </c>
       <c r="K160" s="5" t="s">
         <v>8</v>
@@ -28362,10 +28432,10 @@
     </row>
     <row r="161" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A161" s="9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -28374,23 +28444,23 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="J161" s="169">
-        <v>123831110.42899768</v>
+        <v>298</v>
+      </c>
+      <c r="J161" s="64">
+        <v>112.77695050276785</v>
       </c>
       <c r="K161" s="5" t="s">
-        <v>290</v>
+        <v>8</v>
       </c>
       <c r="L161" s="3"/>
       <c r="U161" s="100"/>
     </row>
     <row r="162" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -28399,82 +28469,93 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="J162" s="92">
-        <v>10310.000230734646</v>
+        <v>301</v>
+      </c>
+      <c r="J162" s="151">
+        <v>123831110.42899768</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="L162" s="3"/>
-      <c r="N162" s="123"/>
-      <c r="O162" s="123"/>
-      <c r="P162" s="123"/>
-      <c r="Q162" s="123"/>
-      <c r="R162" s="123"/>
-      <c r="S162" s="124"/>
+      <c r="U162" s="100"/>
     </row>
     <row r="163" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B163" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="17"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
-      <c r="I163" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="J163" s="84">
-        <v>9.9715004706951826E-2</v>
-      </c>
-      <c r="K163" s="15" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J163" s="92">
+        <v>10310.000230734646</v>
+      </c>
+      <c r="K163" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="L163" s="3"/>
+      <c r="N163" s="123"/>
+      <c r="O163" s="123"/>
+      <c r="P163" s="123"/>
+      <c r="Q163" s="123"/>
+      <c r="R163" s="123"/>
+      <c r="S163" s="124"/>
     </row>
     <row r="164" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A164" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="J164" s="84">
+        <v>9.9715004706951826E-2</v>
+      </c>
+      <c r="K164" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L164" s="3"/>
+    </row>
+    <row r="165" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A165" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B165" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="7" t="s">
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J164" s="66">
+      <c r="J165" s="66">
         <v>0.52569390293812568</v>
       </c>
-      <c r="K164" s="5" t="s">
+      <c r="K165" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L164" s="3"/>
-    </row>
-    <row r="165" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="9"/>
-      <c r="B165" s="58"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="58"/>
-      <c r="E165" s="58"/>
-      <c r="F165" s="58"/>
-      <c r="G165" s="58"/>
-      <c r="H165" s="58"/>
-      <c r="I165" s="59"/>
-      <c r="J165" s="125"/>
-      <c r="K165" s="60"/>
       <c r="L165" s="3"/>
     </row>
     <row r="166" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -28571,22 +28652,22 @@
       <c r="G172" s="58"/>
       <c r="H172" s="58"/>
       <c r="I172" s="59"/>
-      <c r="J172" s="63"/>
+      <c r="J172" s="125"/>
       <c r="K172" s="60"/>
       <c r="L172" s="3"/>
     </row>
     <row r="173" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
+      <c r="A173" s="9"/>
+      <c r="B173" s="58"/>
+      <c r="C173" s="58"/>
+      <c r="D173" s="58"/>
+      <c r="E173" s="58"/>
+      <c r="F173" s="58"/>
+      <c r="G173" s="58"/>
+      <c r="H173" s="58"/>
+      <c r="I173" s="59"/>
+      <c r="J173" s="63"/>
+      <c r="K173" s="60"/>
       <c r="L173" s="3"/>
     </row>
     <row r="174" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -28603,10 +28684,24 @@
       <c r="K174" s="4"/>
       <c r="L174" s="3"/>
     </row>
-    <row r="178" spans="2:4" ht="13.2">
-      <c r="B178" s="69"/>
-      <c r="C178" s="69"/>
-      <c r="D178" s="69"/>
+    <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="3"/>
+    </row>
+    <row r="179" spans="2:4" ht="13.2">
+      <c r="B179" s="69"/>
+      <c r="C179" s="69"/>
+      <c r="D179" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -28632,19 +28727,19 @@
     <mergeCell ref="D14:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="22" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -28666,11 +28761,11 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ178"/>
+  <dimension ref="A1:DJ179"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J127" sqref="J127:J164"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -28715,32 +28810,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -28756,12 +28851,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="160"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="162"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="161"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -28769,12 +28864,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="162"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="161"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -28782,12 +28877,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="162"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="161"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -28795,12 +28890,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="162"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -28808,12 +28903,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="162"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -28861,106 +28956,106 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="153"/>
-      <c r="D13" s="152" t="str">
+      <c r="C13" s="162"/>
+      <c r="D13" s="164" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="153"/>
-      <c r="D14" s="152" t="str">
+      <c r="C14" s="162"/>
+      <c r="D14" s="164" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="153"/>
-      <c r="D15" s="152" t="str">
+      <c r="C15" s="162"/>
+      <c r="D15" s="164" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="153"/>
-      <c r="D16" s="152" t="str">
+      <c r="C16" s="162"/>
+      <c r="D16" s="164" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size</v>
       </c>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="153"/>
-      <c r="D17" s="152" t="str">
+      <c r="C17" s="162"/>
+      <c r="D17" s="164" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="153"/>
+      <c r="C18" s="162"/>
       <c r="D18" s="163">
         <f>Gap30deg!D18</f>
         <v>45432</v>
@@ -29159,16 +29254,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="156"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="155"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -32108,7 +32203,7 @@
       <c r="I133" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J133" s="170">
+      <c r="J133" s="152">
         <v>1238.3066227426382</v>
       </c>
       <c r="K133" s="5" t="s">
@@ -32158,7 +32253,7 @@
       <c r="I135" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J135" s="169">
+      <c r="J135" s="151">
         <v>290000000.00000006</v>
       </c>
       <c r="K135" s="5" t="s">
@@ -32183,7 +32278,7 @@
       <c r="I136" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="J136" s="170">
+      <c r="J136" s="152">
         <v>20.094758307720781</v>
       </c>
       <c r="K136" s="5" t="s">
@@ -32421,7 +32516,7 @@
         <v>3</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -32430,177 +32525,162 @@
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="I147" s="81" t="s">
-        <v>84</v>
+        <v>330</v>
       </c>
       <c r="J147" s="62">
-        <v>-712.67155330455603</v>
+        <v>0</v>
       </c>
       <c r="K147" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L147" s="3"/>
+      <c r="U147" s="101"/>
     </row>
     <row r="148" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
+      <c r="A148" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="J148" s="62">
+        <v>-712.67155330455603</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L148" s="3"/>
-      <c r="U148" s="99"/>
     </row>
     <row r="149" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="75" t="str">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="3"/>
+      <c r="U149" s="99"/>
+    </row>
+    <row r="150" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A150" s="75" t="str">
         <f>$A$124&amp;"."&amp;4</f>
         <v>C.4.4</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B150" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="3"/>
-      <c r="U149" s="99"/>
-    </row>
-    <row r="150" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="9" t="s">
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="3"/>
+      <c r="U150" s="99"/>
+    </row>
+    <row r="151" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A151" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B151" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="81" t="s">
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="J150" s="67">
+      <c r="J151" s="67">
         <v>0.14230099316700437</v>
       </c>
-      <c r="K150" s="5" t="s">
+      <c r="K151" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L150" s="3"/>
-    </row>
-    <row r="151" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
       <c r="L151" s="3"/>
-      <c r="U151" s="99"/>
     </row>
     <row r="152" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="75" t="str">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="3"/>
+      <c r="U152" s="99"/>
+    </row>
+    <row r="153" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A153" s="75" t="str">
         <f>$A$124&amp;"."&amp;5</f>
         <v>C.4.5</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B153" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="3"/>
-      <c r="M152" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="N152" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="O152" s="78">
-        <v>1</v>
-      </c>
-      <c r="P152" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q152" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="R152" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="S152" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="U152" s="99"/>
-    </row>
-    <row r="153" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J153" s="62">
-        <v>1710.5339527007882</v>
-      </c>
-      <c r="K153" s="5" t="s">
-        <v>224</v>
-      </c>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
       <c r="L153" s="3"/>
       <c r="M153" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="N153" s="102"/>
-      <c r="O153" s="102"/>
-      <c r="P153" s="102"/>
-      <c r="Q153" s="102"/>
-      <c r="R153" s="102"/>
-      <c r="S153" s="122">
-        <f>1/bolt.axial_stiffness</f>
-        <v>5.846127745205436E-4</v>
-      </c>
-      <c r="T153" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
+      </c>
+      <c r="N153" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="O153" s="78">
+        <v>1</v>
+      </c>
+      <c r="P153" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q153" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="R153" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="S153" s="78" t="s">
+        <v>232</v>
       </c>
       <c r="U153" s="99"/>
     </row>
     <row r="154" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -32609,48 +32689,38 @@
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
       <c r="I154" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J154" s="62">
-        <v>600.85776552878792</v>
+        <v>1710.5339527007882</v>
       </c>
       <c r="K154" s="5" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="L154" s="3"/>
       <c r="M154" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="N154" s="120">
-        <v>94.734999999999999</v>
-      </c>
-      <c r="O154" s="120">
-        <v>780.97299999999996</v>
-      </c>
-      <c r="P154" s="120">
-        <v>452.98</v>
-      </c>
-      <c r="Q154" s="120">
-        <v>139.38</v>
-      </c>
-      <c r="R154" s="120">
-        <v>75.787999999999997</v>
-      </c>
-      <c r="S154" s="121">
-        <f>1/(bolt.bending_stiffness/1000000)</f>
-        <v>1664.2873860837014</v>
+        <v>234</v>
+      </c>
+      <c r="N154" s="102"/>
+      <c r="O154" s="102"/>
+      <c r="P154" s="102"/>
+      <c r="Q154" s="102"/>
+      <c r="R154" s="102"/>
+      <c r="S154" s="122">
+        <f>1/bolt.axial_stiffness</f>
+        <v>5.846127745205436E-4</v>
       </c>
       <c r="T154" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U154" s="99"/>
     </row>
     <row r="155" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -32659,123 +32729,148 @@
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J155" s="62">
+        <v>600.85776552878792</v>
+      </c>
+      <c r="K155" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L155" s="3"/>
+      <c r="M155" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="N155" s="120">
+        <v>94.734999999999999</v>
+      </c>
+      <c r="O155" s="120">
+        <v>780.97299999999996</v>
+      </c>
+      <c r="P155" s="120">
+        <v>452.98</v>
+      </c>
+      <c r="Q155" s="120">
+        <v>139.38</v>
+      </c>
+      <c r="R155" s="120">
+        <v>75.787999999999997</v>
+      </c>
+      <c r="S155" s="121">
+        <f>1/(bolt.bending_stiffness/1000000)</f>
+        <v>1664.2873860837014</v>
+      </c>
+      <c r="T155" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U155" s="99"/>
+    </row>
+    <row r="156" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A156" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="J155" s="62">
+      <c r="J156" s="62">
         <v>4344.0537979949813</v>
       </c>
-      <c r="K155" s="5" t="s">
+      <c r="K156" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L155" s="3"/>
-      <c r="N155" s="133">
+      <c r="L156" s="3"/>
+      <c r="N156" s="133">
         <v>94.7</v>
       </c>
-      <c r="O155" s="133">
+      <c r="O156" s="133">
         <v>781</v>
       </c>
-      <c r="P155" s="133">
+      <c r="P156" s="133">
         <v>453</v>
       </c>
-      <c r="Q155" s="133">
+      <c r="Q156" s="133">
         <v>139</v>
       </c>
-      <c r="R155" s="133">
+      <c r="R156" s="133">
         <v>75.8</v>
       </c>
-      <c r="U155" s="99"/>
-    </row>
-    <row r="156" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="3"/>
       <c r="U156" s="99"/>
     </row>
     <row r="157" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="75" t="str">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="3"/>
+      <c r="U157" s="99"/>
+    </row>
+    <row r="158" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A158" s="75" t="str">
         <f>$A$124&amp;"."&amp;6</f>
         <v>C.4.6</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B158" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="3"/>
-      <c r="U157" s="99"/>
-    </row>
-    <row r="158" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
-      <c r="I158" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="J158" s="92">
-        <v>90</v>
-      </c>
-      <c r="K158" s="93" t="s">
-        <v>217</v>
-      </c>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
       <c r="L158" s="3"/>
       <c r="U158" s="99"/>
     </row>
     <row r="159" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A159" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J159" s="64">
-        <v>225.55390100553569</v>
-      </c>
-      <c r="K159" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J159" s="92">
+        <v>90</v>
+      </c>
+      <c r="K159" s="93" t="s">
+        <v>217</v>
       </c>
       <c r="L159" s="3"/>
-      <c r="U159" s="100"/>
+      <c r="U159" s="99"/>
     </row>
     <row r="160" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
@@ -32784,10 +32879,10 @@
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" s="7" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="J160" s="64">
-        <v>112.77695050276785</v>
+        <v>225.55390100553569</v>
       </c>
       <c r="K160" s="5" t="s">
         <v>8</v>
@@ -32797,10 +32892,10 @@
     </row>
     <row r="161" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A161" s="9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -32809,23 +32904,23 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="J161" s="169">
-        <v>123831110.42899768</v>
+        <v>298</v>
+      </c>
+      <c r="J161" s="64">
+        <v>112.77695050276785</v>
       </c>
       <c r="K161" s="5" t="s">
-        <v>290</v>
+        <v>8</v>
       </c>
       <c r="L161" s="3"/>
       <c r="U161" s="100"/>
     </row>
     <row r="162" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -32834,82 +32929,93 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="J162" s="92">
-        <v>10310.000230734646</v>
+        <v>301</v>
+      </c>
+      <c r="J162" s="151">
+        <v>123831110.42899768</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="L162" s="3"/>
-      <c r="N162" s="123"/>
-      <c r="O162" s="123"/>
-      <c r="P162" s="123"/>
-      <c r="Q162" s="123"/>
-      <c r="R162" s="123"/>
-      <c r="S162" s="124"/>
+      <c r="U162" s="100"/>
     </row>
     <row r="163" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B163" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="17"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
-      <c r="I163" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="J163" s="84">
-        <v>9.6399566957856703E-2</v>
-      </c>
-      <c r="K163" s="15" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J163" s="92">
+        <v>10310.000230734646</v>
+      </c>
+      <c r="K163" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="L163" s="3"/>
+      <c r="N163" s="123"/>
+      <c r="O163" s="123"/>
+      <c r="P163" s="123"/>
+      <c r="Q163" s="123"/>
+      <c r="R163" s="123"/>
+      <c r="S163" s="124"/>
     </row>
     <row r="164" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A164" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="J164" s="84">
+        <v>9.6399566957856703E-2</v>
+      </c>
+      <c r="K164" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L164" s="3"/>
+    </row>
+    <row r="165" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A165" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B165" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="7" t="s">
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J164" s="66">
+      <c r="J165" s="66">
         <v>0.54605228631186098</v>
       </c>
-      <c r="K164" s="5" t="s">
+      <c r="K165" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L164" s="3"/>
-    </row>
-    <row r="165" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="9"/>
-      <c r="B165" s="58"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="58"/>
-      <c r="E165" s="58"/>
-      <c r="F165" s="58"/>
-      <c r="G165" s="58"/>
-      <c r="H165" s="58"/>
-      <c r="I165" s="59"/>
-      <c r="J165" s="125"/>
-      <c r="K165" s="60"/>
       <c r="L165" s="3"/>
     </row>
     <row r="166" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -33006,22 +33112,22 @@
       <c r="G172" s="58"/>
       <c r="H172" s="58"/>
       <c r="I172" s="59"/>
-      <c r="J172" s="63"/>
+      <c r="J172" s="125"/>
       <c r="K172" s="60"/>
       <c r="L172" s="3"/>
     </row>
     <row r="173" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
+      <c r="A173" s="9"/>
+      <c r="B173" s="58"/>
+      <c r="C173" s="58"/>
+      <c r="D173" s="58"/>
+      <c r="E173" s="58"/>
+      <c r="F173" s="58"/>
+      <c r="G173" s="58"/>
+      <c r="H173" s="58"/>
+      <c r="I173" s="59"/>
+      <c r="J173" s="63"/>
+      <c r="K173" s="60"/>
       <c r="L173" s="3"/>
     </row>
     <row r="174" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -33038,10 +33144,24 @@
       <c r="K174" s="4"/>
       <c r="L174" s="3"/>
     </row>
-    <row r="178" spans="2:4" ht="13.2">
-      <c r="B178" s="69"/>
-      <c r="C178" s="69"/>
-      <c r="D178" s="69"/>
+    <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="3"/>
+    </row>
+    <row r="179" spans="2:4" ht="13.2">
+      <c r="B179" s="69"/>
+      <c r="C179" s="69"/>
+      <c r="D179" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -33067,19 +33187,19 @@
     <mergeCell ref="D14:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -33101,11 +33221,11 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ178"/>
+  <dimension ref="A1:DJ179"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O130" sqref="O130"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -33150,32 +33270,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -33191,12 +33311,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="160"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="162"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="161"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -33204,12 +33324,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="162"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="161"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -33217,12 +33337,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="162"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="161"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -33230,12 +33350,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="162"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -33243,12 +33363,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="162"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -33296,106 +33416,106 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="153"/>
-      <c r="D13" s="152" t="str">
+      <c r="C13" s="162"/>
+      <c r="D13" s="164" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="153"/>
-      <c r="D14" s="152" t="str">
+      <c r="C14" s="162"/>
+      <c r="D14" s="164" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="153"/>
-      <c r="D15" s="152" t="str">
+      <c r="C15" s="162"/>
+      <c r="D15" s="164" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="153"/>
-      <c r="D16" s="152" t="str">
+      <c r="C16" s="162"/>
+      <c r="D16" s="164" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size</v>
       </c>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="153"/>
-      <c r="D17" s="152" t="str">
+      <c r="C17" s="162"/>
+      <c r="D17" s="164" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="153"/>
+      <c r="C18" s="162"/>
       <c r="D18" s="163">
         <f>Gap30deg!D18</f>
         <v>45432</v>
@@ -33594,16 +33714,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="156"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="155"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -36543,7 +36663,7 @@
       <c r="I133" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J133" s="170">
+      <c r="J133" s="152">
         <v>800.40722561969153</v>
       </c>
       <c r="K133" s="5" t="s">
@@ -36593,7 +36713,7 @@
       <c r="I135" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J135" s="169">
+      <c r="J135" s="151">
         <v>290000000.00000006</v>
       </c>
       <c r="K135" s="5" t="s">
@@ -36618,7 +36738,7 @@
       <c r="I136" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="J136" s="170">
+      <c r="J136" s="152">
         <v>6.3920011573135929</v>
       </c>
       <c r="K136" s="5" t="s">
@@ -36856,7 +36976,7 @@
         <v>3</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -36865,177 +36985,162 @@
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="I147" s="81" t="s">
-        <v>84</v>
+        <v>330</v>
       </c>
       <c r="J147" s="62">
-        <v>-681.3256543935745</v>
+        <v>0</v>
       </c>
       <c r="K147" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L147" s="3"/>
+      <c r="U147" s="101"/>
     </row>
     <row r="148" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
+      <c r="A148" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="J148" s="62">
+        <v>-681.3256543935745</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L148" s="3"/>
-      <c r="U148" s="99"/>
     </row>
     <row r="149" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="75" t="str">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="3"/>
+      <c r="U149" s="99"/>
+    </row>
+    <row r="150" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A150" s="75" t="str">
         <f>$A$124&amp;"."&amp;4</f>
         <v>D.4.4</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B150" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="3"/>
-      <c r="U149" s="99"/>
-    </row>
-    <row r="150" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="9" t="s">
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="3"/>
+      <c r="U150" s="99"/>
+    </row>
+    <row r="151" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A151" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B151" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="81" t="s">
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="J150" s="67">
+      <c r="J151" s="67">
         <v>0.14230099316700437</v>
       </c>
-      <c r="K150" s="5" t="s">
+      <c r="K151" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L150" s="3"/>
-    </row>
-    <row r="151" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
       <c r="L151" s="3"/>
-      <c r="U151" s="99"/>
     </row>
     <row r="152" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="75" t="str">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="3"/>
+      <c r="U152" s="99"/>
+    </row>
+    <row r="153" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A153" s="75" t="str">
         <f>$A$124&amp;"."&amp;5</f>
         <v>D.4.5</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B153" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="3"/>
-      <c r="M152" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="N152" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="O152" s="78">
-        <v>1</v>
-      </c>
-      <c r="P152" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q152" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="R152" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="S152" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="U152" s="99"/>
-    </row>
-    <row r="153" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J153" s="62">
-        <v>1710.5339527007882</v>
-      </c>
-      <c r="K153" s="5" t="s">
-        <v>224</v>
-      </c>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
       <c r="L153" s="3"/>
       <c r="M153" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="N153" s="102"/>
-      <c r="O153" s="102"/>
-      <c r="P153" s="102"/>
-      <c r="Q153" s="102"/>
-      <c r="R153" s="102"/>
-      <c r="S153" s="122">
-        <f>1/bolt.axial_stiffness</f>
-        <v>5.846127745205436E-4</v>
-      </c>
-      <c r="T153" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
+      </c>
+      <c r="N153" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="O153" s="78">
+        <v>1</v>
+      </c>
+      <c r="P153" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q153" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="R153" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="S153" s="78" t="s">
+        <v>232</v>
       </c>
       <c r="U153" s="99"/>
     </row>
     <row r="154" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -37044,48 +37149,38 @@
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
       <c r="I154" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J154" s="62">
-        <v>600.85776552878792</v>
+        <v>1710.5339527007882</v>
       </c>
       <c r="K154" s="5" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="L154" s="3"/>
       <c r="M154" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="N154" s="120">
-        <v>94.734999999999999</v>
-      </c>
-      <c r="O154" s="120">
-        <v>780.97299999999996</v>
-      </c>
-      <c r="P154" s="120">
-        <v>452.98</v>
-      </c>
-      <c r="Q154" s="120">
-        <v>139.38</v>
-      </c>
-      <c r="R154" s="120">
-        <v>75.787999999999997</v>
-      </c>
-      <c r="S154" s="121">
-        <f>1/(bolt.bending_stiffness/1000000)</f>
-        <v>1664.2873860837014</v>
+        <v>234</v>
+      </c>
+      <c r="N154" s="102"/>
+      <c r="O154" s="102"/>
+      <c r="P154" s="102"/>
+      <c r="Q154" s="102"/>
+      <c r="R154" s="102"/>
+      <c r="S154" s="122">
+        <f>1/bolt.axial_stiffness</f>
+        <v>5.846127745205436E-4</v>
       </c>
       <c r="T154" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U154" s="99"/>
     </row>
     <row r="155" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -37094,123 +37189,148 @@
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J155" s="62">
+        <v>600.85776552878792</v>
+      </c>
+      <c r="K155" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L155" s="3"/>
+      <c r="M155" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="N155" s="120">
+        <v>94.734999999999999</v>
+      </c>
+      <c r="O155" s="120">
+        <v>780.97299999999996</v>
+      </c>
+      <c r="P155" s="120">
+        <v>452.98</v>
+      </c>
+      <c r="Q155" s="120">
+        <v>139.38</v>
+      </c>
+      <c r="R155" s="120">
+        <v>75.787999999999997</v>
+      </c>
+      <c r="S155" s="121">
+        <f>1/(bolt.bending_stiffness/1000000)</f>
+        <v>1664.2873860837014</v>
+      </c>
+      <c r="T155" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U155" s="99"/>
+    </row>
+    <row r="156" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A156" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="J155" s="62">
+      <c r="J156" s="62">
         <v>4344.0537979949813</v>
       </c>
-      <c r="K155" s="5" t="s">
+      <c r="K156" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L155" s="3"/>
-      <c r="N155" s="133">
+      <c r="L156" s="3"/>
+      <c r="N156" s="133">
         <v>94.7</v>
       </c>
-      <c r="O155" s="133">
+      <c r="O156" s="133">
         <v>781</v>
       </c>
-      <c r="P155" s="133">
+      <c r="P156" s="133">
         <v>453</v>
       </c>
-      <c r="Q155" s="133">
+      <c r="Q156" s="133">
         <v>139</v>
       </c>
-      <c r="R155" s="133">
+      <c r="R156" s="133">
         <v>75.8</v>
       </c>
-      <c r="U155" s="99"/>
-    </row>
-    <row r="156" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="3"/>
       <c r="U156" s="99"/>
     </row>
     <row r="157" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="75" t="str">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="3"/>
+      <c r="U157" s="99"/>
+    </row>
+    <row r="158" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A158" s="75" t="str">
         <f>$A$124&amp;"."&amp;6</f>
         <v>D.4.6</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B158" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="3"/>
-      <c r="U157" s="99"/>
-    </row>
-    <row r="158" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
-      <c r="I158" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="J158" s="92">
-        <v>119.99999999999999</v>
-      </c>
-      <c r="K158" s="93" t="s">
-        <v>217</v>
-      </c>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
       <c r="L158" s="3"/>
       <c r="U158" s="99"/>
     </row>
     <row r="159" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A159" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J159" s="64">
-        <v>225.55390100553569</v>
-      </c>
-      <c r="K159" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J159" s="92">
+        <v>119.99999999999999</v>
+      </c>
+      <c r="K159" s="93" t="s">
+        <v>217</v>
       </c>
       <c r="L159" s="3"/>
-      <c r="U159" s="100"/>
+      <c r="U159" s="99"/>
     </row>
     <row r="160" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
@@ -37219,10 +37339,10 @@
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" s="7" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="J160" s="64">
-        <v>112.77695050276785</v>
+        <v>225.55390100553569</v>
       </c>
       <c r="K160" s="5" t="s">
         <v>8</v>
@@ -37232,10 +37352,10 @@
     </row>
     <row r="161" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A161" s="9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -37244,23 +37364,23 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="J161" s="169">
-        <v>123831110.42899768</v>
+        <v>298</v>
+      </c>
+      <c r="J161" s="64">
+        <v>112.77695050276785</v>
       </c>
       <c r="K161" s="5" t="s">
-        <v>290</v>
+        <v>8</v>
       </c>
       <c r="L161" s="3"/>
       <c r="U161" s="100"/>
     </row>
     <row r="162" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -37269,82 +37389,93 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="J162" s="92">
-        <v>10310.000230734646</v>
+        <v>301</v>
+      </c>
+      <c r="J162" s="151">
+        <v>123831110.42899768</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="L162" s="3"/>
-      <c r="N162" s="123"/>
-      <c r="O162" s="123"/>
-      <c r="P162" s="123"/>
-      <c r="Q162" s="123"/>
-      <c r="R162" s="123"/>
-      <c r="S162" s="124"/>
+      <c r="U162" s="100"/>
     </row>
     <row r="163" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B163" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="17"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
-      <c r="I163" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="J163" s="84">
-        <v>9.3924103466994507E-2</v>
-      </c>
-      <c r="K163" s="15" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J163" s="92">
+        <v>10310.000230734646</v>
+      </c>
+      <c r="K163" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="L163" s="3"/>
+      <c r="N163" s="123"/>
+      <c r="O163" s="123"/>
+      <c r="P163" s="123"/>
+      <c r="Q163" s="123"/>
+      <c r="R163" s="123"/>
+      <c r="S163" s="124"/>
     </row>
     <row r="164" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A164" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="J164" s="84">
+        <v>9.3924103466994507E-2</v>
+      </c>
+      <c r="K164" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L164" s="3"/>
+    </row>
+    <row r="165" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A165" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B165" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="7" t="s">
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J164" s="66">
+      <c r="J165" s="66">
         <v>0.5528382900405413</v>
       </c>
-      <c r="K164" s="5" t="s">
+      <c r="K165" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L164" s="3"/>
-    </row>
-    <row r="165" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="9"/>
-      <c r="B165" s="58"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="58"/>
-      <c r="E165" s="58"/>
-      <c r="F165" s="58"/>
-      <c r="G165" s="58"/>
-      <c r="H165" s="58"/>
-      <c r="I165" s="59"/>
-      <c r="J165" s="125"/>
-      <c r="K165" s="60"/>
       <c r="L165" s="3"/>
     </row>
     <row r="166" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -37441,22 +37572,22 @@
       <c r="G172" s="58"/>
       <c r="H172" s="58"/>
       <c r="I172" s="59"/>
-      <c r="J172" s="63"/>
+      <c r="J172" s="125"/>
       <c r="K172" s="60"/>
       <c r="L172" s="3"/>
     </row>
     <row r="173" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
+      <c r="A173" s="9"/>
+      <c r="B173" s="58"/>
+      <c r="C173" s="58"/>
+      <c r="D173" s="58"/>
+      <c r="E173" s="58"/>
+      <c r="F173" s="58"/>
+      <c r="G173" s="58"/>
+      <c r="H173" s="58"/>
+      <c r="I173" s="59"/>
+      <c r="J173" s="63"/>
+      <c r="K173" s="60"/>
       <c r="L173" s="3"/>
     </row>
     <row r="174" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -37473,10 +37604,24 @@
       <c r="K174" s="4"/>
       <c r="L174" s="3"/>
     </row>
-    <row r="178" spans="2:4" ht="13.2">
-      <c r="B178" s="69"/>
-      <c r="C178" s="69"/>
-      <c r="D178" s="69"/>
+    <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="3"/>
+    </row>
+    <row r="179" spans="2:4" ht="13.2">
+      <c r="B179" s="69"/>
+      <c r="C179" s="69"/>
+      <c r="D179" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -37502,19 +37647,19 @@
     <mergeCell ref="D14:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -37536,8 +37681,8 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="B2:R120"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -40501,10 +40646,14 @@
         <f t="array" ref="E92">INDEX(N92:Q92,case_number)</f>
         <v>0</v>
       </c>
-      <c r="F92" s="110" t="s">
-        <v>87</v>
-      </c>
-      <c r="G92" s="104"/>
+      <c r="F92" s="110" cm="1">
+        <f t="array" aca="1" ref="F92" ca="1">INDIRECT(sheet_name&amp;"!DZ_gap_inclination")</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="118">
+        <f ca="1">IF(AND(E92=0,F92=0), 0, (F92-E92)/E92)</f>
+        <v>0</v>
+      </c>
       <c r="H92" t="str">
         <f>"Inclination used: "&amp;E92&amp;"deg"</f>
         <v>Inclination used: 0deg</v>
@@ -41835,96 +41984,102 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G29:G31">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="notBetween">
+      <formula>-0.001</formula>
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G38">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="notBetween">
+      <formula>-0.001</formula>
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:G53">
     <cfRule type="cellIs" dxfId="14" priority="16" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G38">
+  <conditionalFormatting sqref="G60:G61">
     <cfRule type="cellIs" dxfId="13" priority="15" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:G53">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="notBetween">
-      <formula>-0.001</formula>
-      <formula>0.001</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G60:G61">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="notBetween">
-      <formula>-0.001</formula>
-      <formula>0.001</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G67:G72">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76:G79">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:G84">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="notBetween">
+      <formula>-0.001</formula>
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G86:G89">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="notBetween">
+      <formula>-0.001</formula>
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94:G95">
     <cfRule type="cellIs" dxfId="8" priority="11" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86:G89">
+  <conditionalFormatting sqref="G97:G101">
     <cfRule type="cellIs" dxfId="7" priority="10" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G94:G95">
+  <conditionalFormatting sqref="G104">
     <cfRule type="cellIs" dxfId="6" priority="9" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97:G101">
+  <conditionalFormatting sqref="G106:G108">
     <cfRule type="cellIs" dxfId="5" priority="8" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G104">
+  <conditionalFormatting sqref="G112:G113">
     <cfRule type="cellIs" dxfId="4" priority="7" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G106:G108">
+  <conditionalFormatting sqref="G117">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G112:G113">
+  <conditionalFormatting sqref="G119">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G117">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="notBetween">
+  <conditionalFormatting sqref="G92">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G119">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="notBetween">
-      <formula>-0.001</formula>
-      <formula>0.001</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G21" xr:uid="{A97D2F7B-FDA4-407E-92F3-17F2D0816A54}">
       <formula1>$N$48:$Q$48</formula1>
     </dataValidation>
@@ -41965,6 +42120,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E5A98ECA1EC044BB77E0D7F6ADEF7BC" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5e88349ac6f5efd4674595e2a92e1fa9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2278e7f3-5df8-4100-b836-5320443b7544" xmlns:ns4="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bde21b231255bb48ab8a6ec7dd561648" ns3:_="" ns4:_="">
     <xsd:import namespace="2278e7f3-5df8-4100-b836-5320443b7544"/>
@@ -42217,7 +42380,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -42226,15 +42389,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
+    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A7863D2-B6F1-4C67-B9E9-1F3A9276C4FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42253,27 +42425,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
-    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/validation/BnB_ReferenceFlange-Results.xlsx
+++ b/tests/validation/BnB_ReferenceFlange-Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\tests\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C9A944-19BE-4703-971F-6905957FC2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A96E5CE-4B9C-4E84-AE83-FFAC808F9CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25290" yWindow="-6255" windowWidth="21600" windowHeight="12585" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="-28920" yWindow="-9165" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap30deg" sheetId="2" r:id="rId1"/>
@@ -342,6 +342,10 @@
     <definedName name="u_tol" localSheetId="0">Gap30deg!$J$127</definedName>
     <definedName name="u_tol" localSheetId="1">Gap60deg!$J$127</definedName>
     <definedName name="u_tol" localSheetId="2">Gap90deg!$J$127</definedName>
+    <definedName name="Z_2_td" localSheetId="3">Gap120deg!$J$146</definedName>
+    <definedName name="Z_2_td" localSheetId="0">Gap30deg!$J$146</definedName>
+    <definedName name="Z_2_td" localSheetId="1">Gap60deg!$J$146</definedName>
+    <definedName name="Z_2_td" localSheetId="2">Gap90deg!$J$146</definedName>
     <definedName name="Z_dw" localSheetId="3">Gap120deg!$J$42</definedName>
     <definedName name="Z_dw" localSheetId="0">Gap30deg!$J$42</definedName>
     <definedName name="Z_dw" localSheetId="1">Gap60deg!$J$42</definedName>
@@ -350,10 +354,6 @@
     <definedName name="Z0" localSheetId="0">Gap30deg!$J$145</definedName>
     <definedName name="Z0" localSheetId="1">Gap60deg!$J$145</definedName>
     <definedName name="Z0" localSheetId="2">Gap90deg!$J$145</definedName>
-    <definedName name="Z2_tilde" localSheetId="3">Gap120deg!$J$146</definedName>
-    <definedName name="Z2_tilde" localSheetId="0">Gap30deg!$J$146</definedName>
-    <definedName name="Z2_tilde" localSheetId="1">Gap60deg!$J$146</definedName>
-    <definedName name="Z2_tilde" localSheetId="2">Gap90deg!$J$146</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="331">
   <si>
     <t>A</t>
   </si>
@@ -5036,24 +5036,6 @@
     <xf numFmtId="2" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5072,8 +5054,26 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5082,14 +5082,7 @@
     <cellStyle name="Normal 3" xfId="2" xr:uid="{E743A38D-16A7-497B-BF78-6D533003511F}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <b/>
@@ -19823,7 +19816,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J147" sqref="J147"/>
+      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -19868,32 +19861,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -19909,12 +19902,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="161"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -19922,12 +19915,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -19935,12 +19928,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="161"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -19948,12 +19941,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -19961,12 +19954,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -20014,112 +20007,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="164" t="s">
+      <c r="C13" s="156"/>
+      <c r="D13" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="162" t="s">
+      <c r="B14" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="164" t="s">
+      <c r="C14" s="156"/>
+      <c r="D14" s="158" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="164" t="s">
+      <c r="C15" s="156"/>
+      <c r="D15" s="158" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="164" t="str">
+      <c r="C16" s="156"/>
+      <c r="D16" s="158" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="165" t="s">
+      <c r="C17" s="156"/>
+      <c r="D17" s="162" t="s">
         <v>328</v>
       </c>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="163">
+      <c r="C18" s="156"/>
+      <c r="D18" s="157">
         <v>45432</v>
       </c>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -20307,16 +20300,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="165"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -24245,10 +24238,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B28:K28"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="B4:G4"/>
@@ -24265,21 +24254,25 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="28" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="5" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="27" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -24305,7 +24298,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J147" sqref="J147"/>
+      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -24350,32 +24343,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -24391,12 +24384,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="161"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -24404,12 +24397,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -24417,12 +24410,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="161"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -24430,12 +24423,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -24443,12 +24436,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -24496,117 +24489,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="164" t="str">
+      <c r="C13" s="156"/>
+      <c r="D13" s="158" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="162" t="s">
+      <c r="B14" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="164" t="str">
+      <c r="C14" s="156"/>
+      <c r="D14" s="158" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="164" t="str">
+      <c r="C15" s="156"/>
+      <c r="D15" s="158" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="164" t="str">
+      <c r="C16" s="156"/>
+      <c r="D16" s="158" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="164" t="str">
+      <c r="C17" s="156"/>
+      <c r="D17" s="158" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="163">
+      <c r="C18" s="156"/>
+      <c r="D18" s="157">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -24794,16 +24787,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="165"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -28705,13 +28698,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -28725,21 +28711,28 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="24" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -28765,7 +28758,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J147" sqref="J147"/>
+      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -28810,32 +28803,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -28851,12 +28844,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="161"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -28864,12 +28857,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -28877,12 +28870,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="161"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -28890,12 +28883,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -28903,12 +28896,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -28956,117 +28949,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="164" t="str">
+      <c r="C13" s="156"/>
+      <c r="D13" s="158" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="162" t="s">
+      <c r="B14" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="164" t="str">
+      <c r="C14" s="156"/>
+      <c r="D14" s="158" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="164" t="str">
+      <c r="C15" s="156"/>
+      <c r="D15" s="158" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="164" t="str">
+      <c r="C16" s="156"/>
+      <c r="D16" s="158" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="164" t="str">
+      <c r="C17" s="156"/>
+      <c r="D17" s="158" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="163">
+      <c r="C18" s="156"/>
+      <c r="D18" s="157">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -29254,16 +29247,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="165"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -33165,13 +33158,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -33185,21 +33171,28 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="22" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="21" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -33225,7 +33218,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J147" sqref="J147"/>
+      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -33270,32 +33263,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -33311,12 +33304,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="161"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -33324,12 +33317,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -33337,12 +33330,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="161"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -33350,12 +33343,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -33363,12 +33356,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -33416,117 +33409,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="164" t="str">
+      <c r="C13" s="156"/>
+      <c r="D13" s="158" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="162" t="s">
+      <c r="B14" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="164" t="str">
+      <c r="C14" s="156"/>
+      <c r="D14" s="158" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="164" t="str">
+      <c r="C15" s="156"/>
+      <c r="D15" s="158" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="164" t="str">
+      <c r="C16" s="156"/>
+      <c r="D16" s="158" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="164" t="str">
+      <c r="C17" s="156"/>
+      <c r="D17" s="158" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="163">
+      <c r="C18" s="156"/>
+      <c r="D18" s="157">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -33714,16 +33707,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="165"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -37625,13 +37618,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -37645,21 +37631,28 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -37681,8 +37674,8 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="B2:R120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -40023,8 +40016,8 @@
         <f t="array" ref="E79">INDEX(N79:Q79,case_number)</f>
         <v>806.61559168592612</v>
       </c>
-      <c r="F79" s="107" cm="1">
-        <f t="array" aca="1" ref="F79" ca="1">-INDIRECT(sheet_name&amp;"!DZ_gap")</f>
+      <c r="F79" s="107">
+        <f ca="1">F93-F92</f>
         <v>806.61560331250178</v>
       </c>
       <c r="G79" s="118">
@@ -40698,8 +40691,9 @@
         <f t="array" ref="E93">INDEX(N93:Q93,case_number)</f>
         <v>1378.9613729855218</v>
       </c>
-      <c r="F93" s="107" t="s">
-        <v>87</v>
+      <c r="F93" s="107" cm="1">
+        <f t="array" aca="1" ref="F93" ca="1">-INDIRECT(sheet_name&amp;"!DZ_gap")</f>
+        <v>806.61560331250178</v>
       </c>
       <c r="G93" s="107"/>
       <c r="I93" s="141"/>
@@ -41040,7 +41034,7 @@
         <v>1261.6364319138888</v>
       </c>
       <c r="F100" s="111" cm="1">
-        <f t="array" aca="1" ref="F100" ca="1">ROUND(INDIRECT(sheet_name&amp;"!Z2_tilde"),0)</f>
+        <f t="array" aca="1" ref="F100" ca="1">ROUND(INDIRECT(sheet_name&amp;"!Z_2_td"),0)</f>
         <v>1262</v>
       </c>
       <c r="G100" s="118">
@@ -41984,97 +41978,97 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G29:G31">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="notBetween">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:G38">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="notBetween">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:G53">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="notBetween">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:G61">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="notBetween">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:G72">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="notBetween">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76:G79">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="notBetween">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:G84">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="notBetween">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G89">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="notBetween">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="notBetween">
+      <formula>-0.001</formula>
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G92">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G94:G95">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="notBetween">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97:G101">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="notBetween">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G104">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106:G108">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="notBetween">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G112:G113">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="notBetween">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="notBetween">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G119">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="notBetween">
-      <formula>-0.001</formula>
-      <formula>0.001</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G92">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
@@ -42120,11 +42114,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42381,27 +42376,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
-    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42426,9 +42411,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
+    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tests/validation/BnB_ReferenceFlange-Results.xlsx
+++ b/tests/validation/BnB_ReferenceFlange-Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\tests\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6180CA0A-073C-467C-B9D9-99C2E97A3779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD895A3-8A60-4BFA-8650-EC09F0347675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9165" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="-28920" yWindow="-9165" windowWidth="29040" windowHeight="17520" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap30deg" sheetId="2" r:id="rId1"/>
@@ -24,30 +24,30 @@
     <definedName name="a" localSheetId="0">Gap30deg!$J$36</definedName>
     <definedName name="a" localSheetId="1">Gap60deg!$J$36</definedName>
     <definedName name="a" localSheetId="2">Gap90deg!$J$36</definedName>
-    <definedName name="a_prime" localSheetId="3">Gap120deg!$J$160</definedName>
-    <definedName name="a_prime" localSheetId="0">Gap30deg!$J$160</definedName>
-    <definedName name="a_prime" localSheetId="1">Gap60deg!$J$160</definedName>
-    <definedName name="a_prime" localSheetId="2">Gap90deg!$J$160</definedName>
-    <definedName name="a_star" localSheetId="3">Gap120deg!$J$161</definedName>
-    <definedName name="a_star" localSheetId="0">Gap30deg!$J$161</definedName>
-    <definedName name="a_star" localSheetId="1">Gap60deg!$J$161</definedName>
-    <definedName name="a_star" localSheetId="2">Gap90deg!$J$161</definedName>
+    <definedName name="a_prime" localSheetId="3">Gap120deg!$J$161</definedName>
+    <definedName name="a_prime" localSheetId="0">Gap30deg!$J$161</definedName>
+    <definedName name="a_prime" localSheetId="1">Gap60deg!$J$161</definedName>
+    <definedName name="a_prime" localSheetId="2">Gap90deg!$J$161</definedName>
+    <definedName name="a_star" localSheetId="3">Gap120deg!$J$162</definedName>
+    <definedName name="a_star" localSheetId="0">Gap30deg!$J$162</definedName>
+    <definedName name="a_star" localSheetId="1">Gap60deg!$J$162</definedName>
+    <definedName name="a_star" localSheetId="2">Gap90deg!$J$162</definedName>
     <definedName name="b" localSheetId="3">Gap120deg!$J$37</definedName>
     <definedName name="b" localSheetId="0">Gap30deg!$J$37</definedName>
     <definedName name="b" localSheetId="1">Gap60deg!$J$37</definedName>
     <definedName name="b" localSheetId="2">Gap90deg!$J$37</definedName>
-    <definedName name="bolt.As" localSheetId="3">Gap120deg!$J$156</definedName>
-    <definedName name="bolt.As" localSheetId="0">Gap30deg!$J$156</definedName>
-    <definedName name="bolt.As" localSheetId="1">Gap60deg!$J$156</definedName>
-    <definedName name="bolt.As" localSheetId="2">Gap90deg!$J$156</definedName>
-    <definedName name="bolt.axial_stiffness" localSheetId="3">Gap120deg!$J$154</definedName>
-    <definedName name="bolt.axial_stiffness" localSheetId="0">Gap30deg!$J$154</definedName>
-    <definedName name="bolt.axial_stiffness" localSheetId="1">Gap60deg!$J$154</definedName>
-    <definedName name="bolt.axial_stiffness" localSheetId="2">Gap90deg!$J$154</definedName>
-    <definedName name="bolt.bending_stiffness" localSheetId="3">Gap120deg!$J$155</definedName>
-    <definedName name="bolt.bending_stiffness" localSheetId="0">Gap30deg!$J$155</definedName>
-    <definedName name="bolt.bending_stiffness" localSheetId="1">Gap60deg!$J$155</definedName>
-    <definedName name="bolt.bending_stiffness" localSheetId="2">Gap90deg!$J$155</definedName>
+    <definedName name="bolt.As" localSheetId="3">Gap120deg!$J$157</definedName>
+    <definedName name="bolt.As" localSheetId="0">Gap30deg!$J$157</definedName>
+    <definedName name="bolt.As" localSheetId="1">Gap60deg!$J$157</definedName>
+    <definedName name="bolt.As" localSheetId="2">Gap90deg!$J$157</definedName>
+    <definedName name="bolt.axial_stiffness" localSheetId="3">Gap120deg!$J$155</definedName>
+    <definedName name="bolt.axial_stiffness" localSheetId="0">Gap30deg!$J$155</definedName>
+    <definedName name="bolt.axial_stiffness" localSheetId="1">Gap60deg!$J$155</definedName>
+    <definedName name="bolt.axial_stiffness" localSheetId="2">Gap90deg!$J$155</definedName>
+    <definedName name="bolt.bending_stiffness" localSheetId="3">Gap120deg!$J$156</definedName>
+    <definedName name="bolt.bending_stiffness" localSheetId="0">Gap30deg!$J$156</definedName>
+    <definedName name="bolt.bending_stiffness" localSheetId="1">Gap60deg!$J$156</definedName>
+    <definedName name="bolt.bending_stiffness" localSheetId="2">Gap90deg!$J$156</definedName>
     <definedName name="bolt.Dn" localSheetId="3">Gap120deg!$J$48</definedName>
     <definedName name="bolt.Dn" localSheetId="0">Gap30deg!$J$48</definedName>
     <definedName name="bolt.Dn" localSheetId="1">Gap60deg!$J$48</definedName>
@@ -89,10 +89,10 @@
     <definedName name="central_angle" localSheetId="0">Gap30deg!$J$40</definedName>
     <definedName name="central_angle" localSheetId="1">Gap60deg!$J$40</definedName>
     <definedName name="central_angle" localSheetId="2">Gap90deg!$J$40</definedName>
-    <definedName name="clamped_parts_stiffness" localSheetId="3">Gap120deg!$J$163</definedName>
-    <definedName name="clamped_parts_stiffness" localSheetId="0">Gap30deg!$J$163</definedName>
-    <definedName name="clamped_parts_stiffness" localSheetId="1">Gap60deg!$J$163</definedName>
-    <definedName name="clamped_parts_stiffness" localSheetId="2">Gap90deg!$J$163</definedName>
+    <definedName name="clamped_parts_stiffness" localSheetId="3">Gap120deg!$J$164</definedName>
+    <definedName name="clamped_parts_stiffness" localSheetId="0">Gap30deg!$J$164</definedName>
+    <definedName name="clamped_parts_stiffness" localSheetId="1">Gap60deg!$J$164</definedName>
+    <definedName name="clamped_parts_stiffness" localSheetId="2">Gap90deg!$J$164</definedName>
     <definedName name="dataseries.Fs" localSheetId="3">Gap120deg!$O$67</definedName>
     <definedName name="dataseries.Fs" localSheetId="0">Gap30deg!$O$67</definedName>
     <definedName name="dataseries.Fs" localSheetId="1">Gap60deg!$O$67</definedName>
@@ -121,6 +121,10 @@
     <definedName name="DZ_gap_inclination" localSheetId="0">Gap30deg!$J$147</definedName>
     <definedName name="DZ_gap_inclination" localSheetId="1">Gap60deg!$J$147</definedName>
     <definedName name="DZ_gap_inclination" localSheetId="2">Gap90deg!$J$147</definedName>
+    <definedName name="DZ_gap_tot" localSheetId="3">Gap120deg!$J$149</definedName>
+    <definedName name="DZ_gap_tot" localSheetId="0">Gap30deg!$J$149</definedName>
+    <definedName name="DZ_gap_tot" localSheetId="1">Gap60deg!$J$149</definedName>
+    <definedName name="DZ_gap_tot" localSheetId="2">Gap90deg!$J$149</definedName>
     <definedName name="E_mod" localSheetId="3">Gap120deg!$J$43</definedName>
     <definedName name="E_mod" localSheetId="0">Gap30deg!$J$43</definedName>
     <definedName name="E_mod" localSheetId="1">Gap60deg!$J$43</definedName>
@@ -165,10 +169,10 @@
     <definedName name="G_mod" localSheetId="0">Gap30deg!$J$44</definedName>
     <definedName name="G_mod" localSheetId="1">Gap60deg!$J$44</definedName>
     <definedName name="G_mod" localSheetId="2">Gap90deg!$J$44</definedName>
-    <definedName name="gap.angle" localSheetId="3">Gap120deg!$J$159</definedName>
-    <definedName name="gap.angle" localSheetId="0">Gap30deg!$J$159</definedName>
-    <definedName name="gap.angle" localSheetId="1">Gap60deg!$J$159</definedName>
-    <definedName name="gap.angle" localSheetId="2">Gap90deg!$J$159</definedName>
+    <definedName name="gap.angle" localSheetId="3">Gap120deg!$J$160</definedName>
+    <definedName name="gap.angle" localSheetId="0">Gap30deg!$J$160</definedName>
+    <definedName name="gap.angle" localSheetId="1">Gap60deg!$J$160</definedName>
+    <definedName name="gap.angle" localSheetId="2">Gap90deg!$J$160</definedName>
     <definedName name="gap.COV" localSheetId="3">Gap120deg!$J$129</definedName>
     <definedName name="gap.COV" localSheetId="0">Gap30deg!$J$129</definedName>
     <definedName name="gap.COV" localSheetId="1">Gap60deg!$J$129</definedName>
@@ -202,10 +206,10 @@
     <definedName name="gap.stiffness" localSheetId="1">Gap60deg!$J$137</definedName>
     <definedName name="gap.stiffness" localSheetId="2">Gap90deg!$J$137</definedName>
     <definedName name="gap_angle" localSheetId="4">'AMD1'!$G$21</definedName>
-    <definedName name="I_tg" localSheetId="3">Gap120deg!$J$162</definedName>
-    <definedName name="I_tg" localSheetId="0">Gap30deg!$J$162</definedName>
-    <definedName name="I_tg" localSheetId="1">Gap60deg!$J$162</definedName>
-    <definedName name="I_tg" localSheetId="2">Gap90deg!$J$162</definedName>
+    <definedName name="I_tg" localSheetId="3">Gap120deg!$J$163</definedName>
+    <definedName name="I_tg" localSheetId="0">Gap30deg!$J$163</definedName>
+    <definedName name="I_tg" localSheetId="1">Gap60deg!$J$163</definedName>
+    <definedName name="I_tg" localSheetId="2">Gap90deg!$J$163</definedName>
     <definedName name="k_seg" localSheetId="3">Gap120deg!$J$141</definedName>
     <definedName name="k_seg" localSheetId="0">Gap30deg!$J$141</definedName>
     <definedName name="k_seg" localSheetId="1">Gap60deg!$J$141</definedName>
@@ -286,14 +290,14 @@
     <definedName name="point4.Z" localSheetId="0">Gap30deg!$J$86</definedName>
     <definedName name="point4.Z" localSheetId="1">Gap60deg!$J$86</definedName>
     <definedName name="point4.Z" localSheetId="2">Gap90deg!$J$86</definedName>
-    <definedName name="polynomial_initial_slope" localSheetId="3">Gap120deg!$J$151</definedName>
-    <definedName name="polynomial_initial_slope" localSheetId="0">Gap30deg!$J$151</definedName>
-    <definedName name="polynomial_initial_slope" localSheetId="1">Gap60deg!$J$151</definedName>
-    <definedName name="polynomial_initial_slope" localSheetId="2">Gap90deg!$J$151</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Gap120deg!$A$11:$K$175</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Gap30deg!$A$11:$K$175</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Gap60deg!$A$11:$K$175</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Gap90deg!$A$11:$K$175</definedName>
+    <definedName name="polynomial_initial_slope" localSheetId="3">Gap120deg!$J$152</definedName>
+    <definedName name="polynomial_initial_slope" localSheetId="0">Gap30deg!$J$152</definedName>
+    <definedName name="polynomial_initial_slope" localSheetId="1">Gap60deg!$J$152</definedName>
+    <definedName name="polynomial_initial_slope" localSheetId="2">Gap90deg!$J$152</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Gap120deg!$A$11:$K$176</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Gap30deg!$A$11:$K$176</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Gap60deg!$A$11:$K$176</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Gap90deg!$A$11:$K$176</definedName>
     <definedName name="Radius" localSheetId="3">Gap120deg!$J$41</definedName>
     <definedName name="Radius" localSheetId="0">Gap30deg!$J$41</definedName>
     <definedName name="Radius" localSheetId="1">Gap60deg!$J$41</definedName>
@@ -323,14 +327,14 @@
     <definedName name="Title" localSheetId="0">Gap30deg!$B$11</definedName>
     <definedName name="Title" localSheetId="1">Gap60deg!$B$11</definedName>
     <definedName name="Title" localSheetId="2">Gap90deg!$B$11</definedName>
-    <definedName name="true_force_initial_slope" localSheetId="3">Gap120deg!$J$164</definedName>
-    <definedName name="true_force_initial_slope" localSheetId="0">Gap30deg!$J$164</definedName>
-    <definedName name="true_force_initial_slope" localSheetId="1">Gap60deg!$J$164</definedName>
-    <definedName name="true_force_initial_slope" localSheetId="2">Gap90deg!$J$164</definedName>
-    <definedName name="true_moment_initial_slope" localSheetId="3">Gap120deg!$J$165</definedName>
-    <definedName name="true_moment_initial_slope" localSheetId="0">Gap30deg!$J$165</definedName>
-    <definedName name="true_moment_initial_slope" localSheetId="1">Gap60deg!$J$165</definedName>
-    <definedName name="true_moment_initial_slope" localSheetId="2">Gap90deg!$J$165</definedName>
+    <definedName name="true_force_initial_slope" localSheetId="3">Gap120deg!$J$165</definedName>
+    <definedName name="true_force_initial_slope" localSheetId="0">Gap30deg!$J$165</definedName>
+    <definedName name="true_force_initial_slope" localSheetId="1">Gap60deg!$J$165</definedName>
+    <definedName name="true_force_initial_slope" localSheetId="2">Gap90deg!$J$165</definedName>
+    <definedName name="true_moment_initial_slope" localSheetId="3">Gap120deg!$J$166</definedName>
+    <definedName name="true_moment_initial_slope" localSheetId="0">Gap30deg!$J$166</definedName>
+    <definedName name="true_moment_initial_slope" localSheetId="1">Gap60deg!$J$166</definedName>
+    <definedName name="true_moment_initial_slope" localSheetId="2">Gap90deg!$J$166</definedName>
     <definedName name="u" localSheetId="3">Gap120deg!$J$140</definedName>
     <definedName name="u" localSheetId="0">Gap30deg!$J$140</definedName>
     <definedName name="u" localSheetId="1">Gap60deg!$J$140</definedName>
@@ -395,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="334">
   <si>
     <t>A</t>
   </si>
@@ -3774,6 +3778,51 @@
       <t xml:space="preserve"> =</t>
     </r>
   </si>
+  <si>
+    <t>Force necessary to neutralize a parallel gap:</t>
+  </si>
+  <si>
+    <t>Total force necessary to neutralize the gap:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>gap,tot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -5033,6 +5082,15 @@
     <xf numFmtId="2" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5060,17 +5118,8 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -19572,11 +19621,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ179"/>
+  <dimension ref="A1:DJ180"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -19621,32 +19670,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -19662,12 +19711,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="161"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="164"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -19675,12 +19724,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="164"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -19688,12 +19737,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="161"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="164"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -19701,12 +19750,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -19714,12 +19763,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -19767,112 +19816,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="164" t="s">
+      <c r="C13" s="155"/>
+      <c r="D13" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="162" t="s">
+      <c r="B14" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="164" t="s">
+      <c r="C14" s="155"/>
+      <c r="D14" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="155" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="164" t="s">
+      <c r="C15" s="155"/>
+      <c r="D15" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="155" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="164" t="str">
+      <c r="C16" s="155"/>
+      <c r="D16" s="154" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="165" t="s">
+      <c r="C17" s="155"/>
+      <c r="D17" s="153" t="s">
         <v>328</v>
       </c>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="163">
+      <c r="C18" s="155"/>
+      <c r="D18" s="165">
         <v>45432</v>
       </c>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -20060,16 +20109,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="158"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -23384,7 +23433,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -23404,166 +23453,150 @@
       <c r="L148" s="3"/>
     </row>
     <row r="149" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
+      <c r="A149" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="81" t="s">
+        <v>333</v>
+      </c>
+      <c r="J149" s="62">
+        <v>-1244.3583528535567</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L149" s="3"/>
-      <c r="U149" s="99"/>
     </row>
     <row r="150" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="75" t="str">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="3"/>
+      <c r="U150" s="99"/>
+    </row>
+    <row r="151" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A151" s="75" t="str">
         <f>$A$124&amp;"."&amp;4</f>
         <v>A.4.4</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B151" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="3"/>
-      <c r="U150" s="99"/>
-    </row>
-    <row r="151" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="9" t="s">
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="3"/>
+      <c r="U151" s="99"/>
+    </row>
+    <row r="152" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A152" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B152" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="81" t="s">
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="J151" s="67">
+      <c r="J152" s="67">
         <v>0.14230099316700437</v>
       </c>
-      <c r="K151" s="5" t="s">
+      <c r="K152" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L151" s="3"/>
-    </row>
-    <row r="152" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
       <c r="L152" s="3"/>
-      <c r="U152" s="99"/>
     </row>
     <row r="153" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="75" t="str">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="3"/>
+      <c r="U153" s="99"/>
+    </row>
+    <row r="154" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A154" s="75" t="str">
         <f>$A$124&amp;"."&amp;5</f>
         <v>A.4.5</v>
       </c>
-      <c r="B153" s="12" t="s">
+      <c r="B154" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="3"/>
-      <c r="M153" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="N153" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="O153" s="78">
-        <v>1</v>
-      </c>
-      <c r="P153" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q153" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="R153" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="S153" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="U153" s="99"/>
-    </row>
-    <row r="154" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J154" s="62">
-        <v>1710.5339527007882</v>
-      </c>
-      <c r="K154" s="5" t="s">
-        <v>224</v>
-      </c>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
       <c r="L154" s="3"/>
       <c r="M154" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="N154" s="102"/>
-      <c r="O154" s="102"/>
-      <c r="P154" s="102"/>
-      <c r="Q154" s="102"/>
-      <c r="R154" s="102"/>
-      <c r="S154" s="122">
-        <f>1/bolt.axial_stiffness</f>
-        <v>5.846127745205436E-4</v>
-      </c>
-      <c r="T154" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
+      </c>
+      <c r="N154" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="O154" s="78">
+        <v>1</v>
+      </c>
+      <c r="P154" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q154" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="R154" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="S154" s="78" t="s">
+        <v>232</v>
       </c>
       <c r="U154" s="99"/>
     </row>
     <row r="155" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -23572,48 +23605,38 @@
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J155" s="62">
-        <v>600.85776552878792</v>
+        <v>1710.5339527007882</v>
       </c>
       <c r="K155" s="5" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="L155" s="3"/>
       <c r="M155" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="N155" s="120">
-        <v>94.734999999999999</v>
-      </c>
-      <c r="O155" s="120">
-        <v>780.97299999999996</v>
-      </c>
-      <c r="P155" s="120">
-        <v>452.98</v>
-      </c>
-      <c r="Q155" s="120">
-        <v>139.38</v>
-      </c>
-      <c r="R155" s="120">
-        <v>75.787999999999997</v>
-      </c>
-      <c r="S155" s="121">
-        <f>1/(bolt.bending_stiffness/1000000)</f>
-        <v>1664.2873860837014</v>
+        <v>234</v>
+      </c>
+      <c r="N155" s="102"/>
+      <c r="O155" s="102"/>
+      <c r="P155" s="102"/>
+      <c r="Q155" s="102"/>
+      <c r="R155" s="102"/>
+      <c r="S155" s="122">
+        <f>1/bolt.axial_stiffness</f>
+        <v>5.846127745205436E-4</v>
       </c>
       <c r="T155" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U155" s="99"/>
     </row>
     <row r="156" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -23622,113 +23645,138 @@
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
       <c r="I156" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J156" s="62">
+        <v>600.85776552878792</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L156" s="3"/>
+      <c r="M156" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="N156" s="120">
+        <v>94.734999999999999</v>
+      </c>
+      <c r="O156" s="120">
+        <v>780.97299999999996</v>
+      </c>
+      <c r="P156" s="120">
+        <v>452.98</v>
+      </c>
+      <c r="Q156" s="120">
+        <v>139.38</v>
+      </c>
+      <c r="R156" s="120">
+        <v>75.787999999999997</v>
+      </c>
+      <c r="S156" s="121">
+        <f>1/(bolt.bending_stiffness/1000000)</f>
+        <v>1664.2873860837014</v>
+      </c>
+      <c r="T156" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U156" s="99"/>
+    </row>
+    <row r="157" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A157" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="J156" s="62">
+      <c r="J157" s="62">
         <v>4344.0537979949813</v>
       </c>
-      <c r="K156" s="5" t="s">
+      <c r="K157" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L156" s="3"/>
-      <c r="N156" s="133"/>
-      <c r="O156" s="133"/>
-      <c r="P156" s="133"/>
-      <c r="Q156" s="133"/>
-      <c r="R156" s="133"/>
-      <c r="U156" s="99"/>
-    </row>
-    <row r="157" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
       <c r="L157" s="3"/>
+      <c r="N157" s="133"/>
+      <c r="O157" s="133"/>
+      <c r="P157" s="133"/>
+      <c r="Q157" s="133"/>
+      <c r="R157" s="133"/>
       <c r="U157" s="99"/>
     </row>
     <row r="158" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="75" t="str">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="3"/>
+      <c r="U158" s="99"/>
+    </row>
+    <row r="159" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A159" s="75" t="str">
         <f>$A$124&amp;"."&amp;6</f>
         <v>A.4.6</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="B159" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="12"/>
-      <c r="L158" s="3"/>
-      <c r="U158" s="99"/>
-    </row>
-    <row r="159" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
-      <c r="I159" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="J159" s="92">
-        <v>29.999999999999996</v>
-      </c>
-      <c r="K159" s="93" t="s">
-        <v>217</v>
-      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
       <c r="L159" s="3"/>
       <c r="U159" s="99"/>
     </row>
     <row r="160" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J160" s="64">
-        <v>225.55390100553569</v>
-      </c>
-      <c r="K160" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J160" s="92">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="K160" s="93" t="s">
+        <v>217</v>
       </c>
       <c r="L160" s="3"/>
-      <c r="U160" s="100"/>
+      <c r="U160" s="99"/>
     </row>
     <row r="161" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A161" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -23737,10 +23785,10 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="7" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="J161" s="64">
-        <v>112.77695050276785</v>
+        <v>225.55390100553569</v>
       </c>
       <c r="K161" s="5" t="s">
         <v>8</v>
@@ -23750,10 +23798,10 @@
     </row>
     <row r="162" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -23762,23 +23810,23 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="J162" s="151">
-        <v>123831110.42899768</v>
+        <v>298</v>
+      </c>
+      <c r="J162" s="64">
+        <v>112.77695050276785</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>290</v>
+        <v>8</v>
       </c>
       <c r="L162" s="3"/>
       <c r="U162" s="100"/>
     </row>
     <row r="163" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
@@ -23787,82 +23835,93 @@
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
       <c r="I163" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="J163" s="92">
-        <v>10310.000230734646</v>
+        <v>301</v>
+      </c>
+      <c r="J163" s="151">
+        <v>123831110.42899768</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="L163" s="3"/>
-      <c r="N163" s="123"/>
-      <c r="O163" s="123"/>
-      <c r="P163" s="123"/>
-      <c r="Q163" s="123"/>
-      <c r="R163" s="123"/>
-      <c r="S163" s="124"/>
+      <c r="U163" s="100"/>
     </row>
     <row r="164" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="J164" s="84">
-        <v>0.10032183986561098</v>
-      </c>
-      <c r="K164" s="15" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J164" s="92">
+        <v>10310.000230734646</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="L164" s="3"/>
+      <c r="N164" s="123"/>
+      <c r="O164" s="123"/>
+      <c r="P164" s="123"/>
+      <c r="Q164" s="123"/>
+      <c r="R164" s="123"/>
+      <c r="S164" s="124"/>
     </row>
     <row r="165" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A165" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="J165" s="84">
+        <v>0.10032183986561098</v>
+      </c>
+      <c r="K165" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L165" s="3"/>
+    </row>
+    <row r="166" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A166" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B166" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="7" t="s">
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J165" s="66">
+      <c r="J166" s="66">
         <v>0.4315711874246439</v>
       </c>
-      <c r="K165" s="5" t="s">
+      <c r="K166" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L165" s="3"/>
-    </row>
-    <row r="166" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="9"/>
-      <c r="B166" s="58"/>
-      <c r="C166" s="58"/>
-      <c r="D166" s="58"/>
-      <c r="E166" s="58"/>
-      <c r="F166" s="58"/>
-      <c r="G166" s="58"/>
-      <c r="H166" s="58"/>
-      <c r="I166" s="59"/>
-      <c r="J166" s="125"/>
-      <c r="K166" s="60"/>
       <c r="L166" s="3"/>
     </row>
     <row r="167" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -23959,22 +24018,22 @@
       <c r="G173" s="58"/>
       <c r="H173" s="58"/>
       <c r="I173" s="59"/>
-      <c r="J173" s="63"/>
+      <c r="J173" s="125"/>
       <c r="K173" s="60"/>
       <c r="L173" s="3"/>
     </row>
     <row r="174" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
+      <c r="A174" s="9"/>
+      <c r="B174" s="58"/>
+      <c r="C174" s="58"/>
+      <c r="D174" s="58"/>
+      <c r="E174" s="58"/>
+      <c r="F174" s="58"/>
+      <c r="G174" s="58"/>
+      <c r="H174" s="58"/>
+      <c r="I174" s="59"/>
+      <c r="J174" s="63"/>
+      <c r="K174" s="60"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -23991,23 +24050,27 @@
       <c r="K175" s="4"/>
       <c r="L175" s="3"/>
     </row>
-    <row r="179" spans="2:4" ht="13.2">
-      <c r="B179" s="69"/>
-      <c r="C179" s="69"/>
-      <c r="D179" s="69"/>
+    <row r="176" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="3"/>
+    </row>
+    <row r="180" spans="2:4" ht="13.2">
+      <c r="B180" s="69"/>
+      <c r="C180" s="69"/>
+      <c r="D180" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B18:C18"/>
@@ -24018,6 +24081,16 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="27" priority="5" stopIfTrue="1" operator="between">
@@ -24054,11 +24127,11 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ179"/>
+  <dimension ref="A1:DJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
+      <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -24103,32 +24176,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -24144,12 +24217,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="161"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="164"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -24157,12 +24230,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="164"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -24170,12 +24243,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="161"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="164"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -24183,12 +24256,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -24196,12 +24269,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -24249,117 +24322,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="164" t="str">
+      <c r="C13" s="155"/>
+      <c r="D13" s="154" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="162" t="s">
+      <c r="B14" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="164" t="str">
+      <c r="C14" s="155"/>
+      <c r="D14" s="154" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="155" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="164" t="str">
+      <c r="C15" s="155"/>
+      <c r="D15" s="154" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="155" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="164" t="str">
+      <c r="C16" s="155"/>
+      <c r="D16" s="154" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="164" t="str">
+      <c r="C17" s="155"/>
+      <c r="D17" s="154" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="163">
+      <c r="C18" s="155"/>
+      <c r="D18" s="165">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -24547,16 +24620,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="158"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -27854,166 +27927,150 @@
       <c r="L148" s="3"/>
     </row>
     <row r="149" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
+      <c r="A149" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="81" t="s">
+        <v>333</v>
+      </c>
+      <c r="J149" s="62">
+        <v>-806.61560331250178</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L149" s="3"/>
-      <c r="U149" s="99"/>
     </row>
     <row r="150" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="75" t="str">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="3"/>
+      <c r="U150" s="99"/>
+    </row>
+    <row r="151" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A151" s="75" t="str">
         <f>$A$124&amp;"."&amp;4</f>
         <v>B.4.4</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B151" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="3"/>
-      <c r="U150" s="99"/>
-    </row>
-    <row r="151" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="9" t="s">
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="3"/>
+      <c r="U151" s="99"/>
+    </row>
+    <row r="152" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A152" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B152" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="81" t="s">
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="J151" s="67">
+      <c r="J152" s="67">
         <v>0.14230099316700437</v>
       </c>
-      <c r="K151" s="5" t="s">
+      <c r="K152" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L151" s="3"/>
-    </row>
-    <row r="152" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
       <c r="L152" s="3"/>
-      <c r="U152" s="99"/>
     </row>
     <row r="153" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="75" t="str">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="3"/>
+      <c r="U153" s="99"/>
+    </row>
+    <row r="154" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A154" s="75" t="str">
         <f>$A$124&amp;"."&amp;5</f>
         <v>B.4.5</v>
       </c>
-      <c r="B153" s="12" t="s">
+      <c r="B154" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="3"/>
-      <c r="M153" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="N153" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="O153" s="78">
-        <v>1</v>
-      </c>
-      <c r="P153" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q153" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="R153" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="S153" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="U153" s="99"/>
-    </row>
-    <row r="154" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J154" s="62">
-        <v>1710.5339527007882</v>
-      </c>
-      <c r="K154" s="5" t="s">
-        <v>224</v>
-      </c>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
       <c r="L154" s="3"/>
       <c r="M154" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="N154" s="102"/>
-      <c r="O154" s="102"/>
-      <c r="P154" s="102"/>
-      <c r="Q154" s="102"/>
-      <c r="R154" s="102"/>
-      <c r="S154" s="122">
-        <f>1/bolt.axial_stiffness</f>
-        <v>5.846127745205436E-4</v>
-      </c>
-      <c r="T154" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
+      </c>
+      <c r="N154" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="O154" s="78">
+        <v>1</v>
+      </c>
+      <c r="P154" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q154" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="R154" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="S154" s="78" t="s">
+        <v>232</v>
       </c>
       <c r="U154" s="99"/>
     </row>
     <row r="155" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -28022,48 +28079,38 @@
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J155" s="62">
-        <v>600.85776552878792</v>
+        <v>1710.5339527007882</v>
       </c>
       <c r="K155" s="5" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="L155" s="3"/>
       <c r="M155" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="N155" s="120">
-        <v>94.734999999999999</v>
-      </c>
-      <c r="O155" s="120">
-        <v>780.97299999999996</v>
-      </c>
-      <c r="P155" s="120">
-        <v>452.98</v>
-      </c>
-      <c r="Q155" s="120">
-        <v>139.38</v>
-      </c>
-      <c r="R155" s="120">
-        <v>75.787999999999997</v>
-      </c>
-      <c r="S155" s="121">
-        <f>1/(bolt.bending_stiffness/1000000)</f>
-        <v>1664.2873860837014</v>
+        <v>234</v>
+      </c>
+      <c r="N155" s="102"/>
+      <c r="O155" s="102"/>
+      <c r="P155" s="102"/>
+      <c r="Q155" s="102"/>
+      <c r="R155" s="102"/>
+      <c r="S155" s="122">
+        <f>1/bolt.axial_stiffness</f>
+        <v>5.846127745205436E-4</v>
       </c>
       <c r="T155" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U155" s="99"/>
     </row>
     <row r="156" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -28072,123 +28119,148 @@
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
       <c r="I156" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J156" s="62">
+        <v>600.85776552878792</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L156" s="3"/>
+      <c r="M156" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="N156" s="120">
+        <v>94.734999999999999</v>
+      </c>
+      <c r="O156" s="120">
+        <v>780.97299999999996</v>
+      </c>
+      <c r="P156" s="120">
+        <v>452.98</v>
+      </c>
+      <c r="Q156" s="120">
+        <v>139.38</v>
+      </c>
+      <c r="R156" s="120">
+        <v>75.787999999999997</v>
+      </c>
+      <c r="S156" s="121">
+        <f>1/(bolt.bending_stiffness/1000000)</f>
+        <v>1664.2873860837014</v>
+      </c>
+      <c r="T156" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U156" s="99"/>
+    </row>
+    <row r="157" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A157" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="J156" s="62">
+      <c r="J157" s="62">
         <v>4344.0537979949813</v>
       </c>
-      <c r="K156" s="5" t="s">
+      <c r="K157" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L156" s="3"/>
-      <c r="N156" s="133">
+      <c r="L157" s="3"/>
+      <c r="N157" s="133">
         <v>94.7</v>
       </c>
-      <c r="O156" s="133">
+      <c r="O157" s="133">
         <v>781</v>
       </c>
-      <c r="P156" s="133">
+      <c r="P157" s="133">
         <v>453</v>
       </c>
-      <c r="Q156" s="133">
+      <c r="Q157" s="133">
         <v>139</v>
       </c>
-      <c r="R156" s="133">
+      <c r="R157" s="133">
         <v>75.8</v>
       </c>
-      <c r="U156" s="99"/>
-    </row>
-    <row r="157" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-      <c r="L157" s="3"/>
       <c r="U157" s="99"/>
     </row>
     <row r="158" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="75" t="str">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="3"/>
+      <c r="U158" s="99"/>
+    </row>
+    <row r="159" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A159" s="75" t="str">
         <f>$A$124&amp;"."&amp;6</f>
         <v>B.4.6</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="B159" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="12"/>
-      <c r="L158" s="3"/>
-      <c r="U158" s="99"/>
-    </row>
-    <row r="159" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
-      <c r="I159" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="J159" s="92">
-        <v>59.999999999999993</v>
-      </c>
-      <c r="K159" s="93" t="s">
-        <v>217</v>
-      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
       <c r="L159" s="3"/>
       <c r="U159" s="99"/>
     </row>
     <row r="160" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J160" s="64">
-        <v>225.55390100553569</v>
-      </c>
-      <c r="K160" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J160" s="92">
+        <v>59.999999999999993</v>
+      </c>
+      <c r="K160" s="93" t="s">
+        <v>217</v>
       </c>
       <c r="L160" s="3"/>
-      <c r="U160" s="100"/>
+      <c r="U160" s="99"/>
     </row>
     <row r="161" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A161" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -28197,10 +28269,10 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="7" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="J161" s="64">
-        <v>112.77695050276785</v>
+        <v>225.55390100553569</v>
       </c>
       <c r="K161" s="5" t="s">
         <v>8</v>
@@ -28210,10 +28282,10 @@
     </row>
     <row r="162" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -28222,23 +28294,23 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="J162" s="151">
-        <v>123831110.42899768</v>
+        <v>298</v>
+      </c>
+      <c r="J162" s="64">
+        <v>112.77695050276785</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>290</v>
+        <v>8</v>
       </c>
       <c r="L162" s="3"/>
       <c r="U162" s="100"/>
     </row>
     <row r="163" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
@@ -28247,82 +28319,93 @@
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
       <c r="I163" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="J163" s="92">
-        <v>10310.000230734646</v>
+        <v>301</v>
+      </c>
+      <c r="J163" s="151">
+        <v>123831110.42899768</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="L163" s="3"/>
-      <c r="N163" s="123"/>
-      <c r="O163" s="123"/>
-      <c r="P163" s="123"/>
-      <c r="Q163" s="123"/>
-      <c r="R163" s="123"/>
-      <c r="S163" s="124"/>
+      <c r="U163" s="100"/>
     </row>
     <row r="164" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="J164" s="84">
-        <v>9.9715004706951826E-2</v>
-      </c>
-      <c r="K164" s="15" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J164" s="92">
+        <v>10310.000230734646</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="L164" s="3"/>
+      <c r="N164" s="123"/>
+      <c r="O164" s="123"/>
+      <c r="P164" s="123"/>
+      <c r="Q164" s="123"/>
+      <c r="R164" s="123"/>
+      <c r="S164" s="124"/>
     </row>
     <row r="165" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A165" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="J165" s="84">
+        <v>9.9715004706951826E-2</v>
+      </c>
+      <c r="K165" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L165" s="3"/>
+    </row>
+    <row r="166" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A166" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B166" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="7" t="s">
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J165" s="66">
+      <c r="J166" s="66">
         <v>0.52569390293812568</v>
       </c>
-      <c r="K165" s="5" t="s">
+      <c r="K166" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L165" s="3"/>
-    </row>
-    <row r="166" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="9"/>
-      <c r="B166" s="58"/>
-      <c r="C166" s="58"/>
-      <c r="D166" s="58"/>
-      <c r="E166" s="58"/>
-      <c r="F166" s="58"/>
-      <c r="G166" s="58"/>
-      <c r="H166" s="58"/>
-      <c r="I166" s="59"/>
-      <c r="J166" s="125"/>
-      <c r="K166" s="60"/>
       <c r="L166" s="3"/>
     </row>
     <row r="167" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -28419,22 +28502,22 @@
       <c r="G173" s="58"/>
       <c r="H173" s="58"/>
       <c r="I173" s="59"/>
-      <c r="J173" s="63"/>
+      <c r="J173" s="125"/>
       <c r="K173" s="60"/>
       <c r="L173" s="3"/>
     </row>
     <row r="174" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
+      <c r="A174" s="9"/>
+      <c r="B174" s="58"/>
+      <c r="C174" s="58"/>
+      <c r="D174" s="58"/>
+      <c r="E174" s="58"/>
+      <c r="F174" s="58"/>
+      <c r="G174" s="58"/>
+      <c r="H174" s="58"/>
+      <c r="I174" s="59"/>
+      <c r="J174" s="63"/>
+      <c r="K174" s="60"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -28451,10 +28534,24 @@
       <c r="K175" s="4"/>
       <c r="L175" s="3"/>
     </row>
-    <row r="179" spans="2:4" ht="13.2">
-      <c r="B179" s="69"/>
-      <c r="C179" s="69"/>
-      <c r="D179" s="69"/>
+    <row r="176" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="3"/>
+    </row>
+    <row r="180" spans="2:4" ht="13.2">
+      <c r="B180" s="69"/>
+      <c r="C180" s="69"/>
+      <c r="D180" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -28514,11 +28611,11 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ179"/>
+  <dimension ref="A1:DJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
+      <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -28563,32 +28660,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -28604,12 +28701,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="161"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="164"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -28617,12 +28714,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="164"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -28630,12 +28727,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="161"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="164"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -28643,12 +28740,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -28656,12 +28753,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -28709,117 +28806,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="164" t="str">
+      <c r="C13" s="155"/>
+      <c r="D13" s="154" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="162" t="s">
+      <c r="B14" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="164" t="str">
+      <c r="C14" s="155"/>
+      <c r="D14" s="154" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="155" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="164" t="str">
+      <c r="C15" s="155"/>
+      <c r="D15" s="154" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="155" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="164" t="str">
+      <c r="C16" s="155"/>
+      <c r="D16" s="154" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="164" t="str">
+      <c r="C17" s="155"/>
+      <c r="D17" s="154" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="163">
+      <c r="C18" s="155"/>
+      <c r="D18" s="165">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -29007,16 +29104,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="158"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -32314,166 +32411,150 @@
       <c r="L148" s="3"/>
     </row>
     <row r="149" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
+      <c r="A149" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="81" t="s">
+        <v>333</v>
+      </c>
+      <c r="J149" s="62">
+        <v>-712.67155330455603</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L149" s="3"/>
-      <c r="U149" s="99"/>
     </row>
     <row r="150" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="75" t="str">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="3"/>
+      <c r="U150" s="99"/>
+    </row>
+    <row r="151" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A151" s="75" t="str">
         <f>$A$124&amp;"."&amp;4</f>
         <v>C.4.4</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B151" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="3"/>
-      <c r="U150" s="99"/>
-    </row>
-    <row r="151" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="9" t="s">
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="3"/>
+      <c r="U151" s="99"/>
+    </row>
+    <row r="152" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A152" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B152" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="81" t="s">
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="J151" s="67">
+      <c r="J152" s="67">
         <v>0.14230099316700437</v>
       </c>
-      <c r="K151" s="5" t="s">
+      <c r="K152" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L151" s="3"/>
-    </row>
-    <row r="152" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
       <c r="L152" s="3"/>
-      <c r="U152" s="99"/>
     </row>
     <row r="153" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="75" t="str">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="3"/>
+      <c r="U153" s="99"/>
+    </row>
+    <row r="154" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A154" s="75" t="str">
         <f>$A$124&amp;"."&amp;5</f>
         <v>C.4.5</v>
       </c>
-      <c r="B153" s="12" t="s">
+      <c r="B154" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="3"/>
-      <c r="M153" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="N153" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="O153" s="78">
-        <v>1</v>
-      </c>
-      <c r="P153" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q153" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="R153" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="S153" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="U153" s="99"/>
-    </row>
-    <row r="154" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J154" s="62">
-        <v>1710.5339527007882</v>
-      </c>
-      <c r="K154" s="5" t="s">
-        <v>224</v>
-      </c>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
       <c r="L154" s="3"/>
       <c r="M154" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="N154" s="102"/>
-      <c r="O154" s="102"/>
-      <c r="P154" s="102"/>
-      <c r="Q154" s="102"/>
-      <c r="R154" s="102"/>
-      <c r="S154" s="122">
-        <f>1/bolt.axial_stiffness</f>
-        <v>5.846127745205436E-4</v>
-      </c>
-      <c r="T154" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
+      </c>
+      <c r="N154" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="O154" s="78">
+        <v>1</v>
+      </c>
+      <c r="P154" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q154" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="R154" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="S154" s="78" t="s">
+        <v>232</v>
       </c>
       <c r="U154" s="99"/>
     </row>
     <row r="155" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -32482,48 +32563,38 @@
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J155" s="62">
-        <v>600.85776552878792</v>
+        <v>1710.5339527007882</v>
       </c>
       <c r="K155" s="5" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="L155" s="3"/>
       <c r="M155" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="N155" s="120">
-        <v>94.734999999999999</v>
-      </c>
-      <c r="O155" s="120">
-        <v>780.97299999999996</v>
-      </c>
-      <c r="P155" s="120">
-        <v>452.98</v>
-      </c>
-      <c r="Q155" s="120">
-        <v>139.38</v>
-      </c>
-      <c r="R155" s="120">
-        <v>75.787999999999997</v>
-      </c>
-      <c r="S155" s="121">
-        <f>1/(bolt.bending_stiffness/1000000)</f>
-        <v>1664.2873860837014</v>
+        <v>234</v>
+      </c>
+      <c r="N155" s="102"/>
+      <c r="O155" s="102"/>
+      <c r="P155" s="102"/>
+      <c r="Q155" s="102"/>
+      <c r="R155" s="102"/>
+      <c r="S155" s="122">
+        <f>1/bolt.axial_stiffness</f>
+        <v>5.846127745205436E-4</v>
       </c>
       <c r="T155" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U155" s="99"/>
     </row>
     <row r="156" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -32532,123 +32603,148 @@
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
       <c r="I156" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J156" s="62">
+        <v>600.85776552878792</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L156" s="3"/>
+      <c r="M156" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="N156" s="120">
+        <v>94.734999999999999</v>
+      </c>
+      <c r="O156" s="120">
+        <v>780.97299999999996</v>
+      </c>
+      <c r="P156" s="120">
+        <v>452.98</v>
+      </c>
+      <c r="Q156" s="120">
+        <v>139.38</v>
+      </c>
+      <c r="R156" s="120">
+        <v>75.787999999999997</v>
+      </c>
+      <c r="S156" s="121">
+        <f>1/(bolt.bending_stiffness/1000000)</f>
+        <v>1664.2873860837014</v>
+      </c>
+      <c r="T156" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U156" s="99"/>
+    </row>
+    <row r="157" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A157" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="J156" s="62">
+      <c r="J157" s="62">
         <v>4344.0537979949813</v>
       </c>
-      <c r="K156" s="5" t="s">
+      <c r="K157" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L156" s="3"/>
-      <c r="N156" s="133">
+      <c r="L157" s="3"/>
+      <c r="N157" s="133">
         <v>94.7</v>
       </c>
-      <c r="O156" s="133">
+      <c r="O157" s="133">
         <v>781</v>
       </c>
-      <c r="P156" s="133">
+      <c r="P157" s="133">
         <v>453</v>
       </c>
-      <c r="Q156" s="133">
+      <c r="Q157" s="133">
         <v>139</v>
       </c>
-      <c r="R156" s="133">
+      <c r="R157" s="133">
         <v>75.8</v>
       </c>
-      <c r="U156" s="99"/>
-    </row>
-    <row r="157" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-      <c r="L157" s="3"/>
       <c r="U157" s="99"/>
     </row>
     <row r="158" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="75" t="str">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="3"/>
+      <c r="U158" s="99"/>
+    </row>
+    <row r="159" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A159" s="75" t="str">
         <f>$A$124&amp;"."&amp;6</f>
         <v>C.4.6</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="B159" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="12"/>
-      <c r="L158" s="3"/>
-      <c r="U158" s="99"/>
-    </row>
-    <row r="159" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
-      <c r="I159" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="J159" s="92">
-        <v>90</v>
-      </c>
-      <c r="K159" s="93" t="s">
-        <v>217</v>
-      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
       <c r="L159" s="3"/>
       <c r="U159" s="99"/>
     </row>
     <row r="160" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J160" s="64">
-        <v>225.55390100553569</v>
-      </c>
-      <c r="K160" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J160" s="92">
+        <v>90</v>
+      </c>
+      <c r="K160" s="93" t="s">
+        <v>217</v>
       </c>
       <c r="L160" s="3"/>
-      <c r="U160" s="100"/>
+      <c r="U160" s="99"/>
     </row>
     <row r="161" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A161" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -32657,10 +32753,10 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="7" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="J161" s="64">
-        <v>112.77695050276785</v>
+        <v>225.55390100553569</v>
       </c>
       <c r="K161" s="5" t="s">
         <v>8</v>
@@ -32670,10 +32766,10 @@
     </row>
     <row r="162" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -32682,23 +32778,23 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="J162" s="151">
-        <v>123831110.42899768</v>
+        <v>298</v>
+      </c>
+      <c r="J162" s="64">
+        <v>112.77695050276785</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>290</v>
+        <v>8</v>
       </c>
       <c r="L162" s="3"/>
       <c r="U162" s="100"/>
     </row>
     <row r="163" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
@@ -32707,82 +32803,93 @@
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
       <c r="I163" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="J163" s="92">
-        <v>10310.000230734646</v>
+        <v>301</v>
+      </c>
+      <c r="J163" s="151">
+        <v>123831110.42899768</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="L163" s="3"/>
-      <c r="N163" s="123"/>
-      <c r="O163" s="123"/>
-      <c r="P163" s="123"/>
-      <c r="Q163" s="123"/>
-      <c r="R163" s="123"/>
-      <c r="S163" s="124"/>
+      <c r="U163" s="100"/>
     </row>
     <row r="164" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="J164" s="84">
-        <v>9.6399566957856703E-2</v>
-      </c>
-      <c r="K164" s="15" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J164" s="92">
+        <v>10310.000230734646</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="L164" s="3"/>
+      <c r="N164" s="123"/>
+      <c r="O164" s="123"/>
+      <c r="P164" s="123"/>
+      <c r="Q164" s="123"/>
+      <c r="R164" s="123"/>
+      <c r="S164" s="124"/>
     </row>
     <row r="165" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A165" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="J165" s="84">
+        <v>9.6399566957856703E-2</v>
+      </c>
+      <c r="K165" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L165" s="3"/>
+    </row>
+    <row r="166" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A166" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B166" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="7" t="s">
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J165" s="66">
+      <c r="J166" s="66">
         <v>0.54605228631186098</v>
       </c>
-      <c r="K165" s="5" t="s">
+      <c r="K166" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L165" s="3"/>
-    </row>
-    <row r="166" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="9"/>
-      <c r="B166" s="58"/>
-      <c r="C166" s="58"/>
-      <c r="D166" s="58"/>
-      <c r="E166" s="58"/>
-      <c r="F166" s="58"/>
-      <c r="G166" s="58"/>
-      <c r="H166" s="58"/>
-      <c r="I166" s="59"/>
-      <c r="J166" s="125"/>
-      <c r="K166" s="60"/>
       <c r="L166" s="3"/>
     </row>
     <row r="167" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -32879,22 +32986,22 @@
       <c r="G173" s="58"/>
       <c r="H173" s="58"/>
       <c r="I173" s="59"/>
-      <c r="J173" s="63"/>
+      <c r="J173" s="125"/>
       <c r="K173" s="60"/>
       <c r="L173" s="3"/>
     </row>
     <row r="174" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
+      <c r="A174" s="9"/>
+      <c r="B174" s="58"/>
+      <c r="C174" s="58"/>
+      <c r="D174" s="58"/>
+      <c r="E174" s="58"/>
+      <c r="F174" s="58"/>
+      <c r="G174" s="58"/>
+      <c r="H174" s="58"/>
+      <c r="I174" s="59"/>
+      <c r="J174" s="63"/>
+      <c r="K174" s="60"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -32911,10 +33018,24 @@
       <c r="K175" s="4"/>
       <c r="L175" s="3"/>
     </row>
-    <row r="179" spans="2:4" ht="13.2">
-      <c r="B179" s="69"/>
-      <c r="C179" s="69"/>
-      <c r="D179" s="69"/>
+    <row r="176" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="3"/>
+    </row>
+    <row r="180" spans="2:4" ht="13.2">
+      <c r="B180" s="69"/>
+      <c r="C180" s="69"/>
+      <c r="D180" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -32974,11 +33095,11 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ179"/>
+  <dimension ref="A1:DJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
+      <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -33023,32 +33144,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -33064,12 +33185,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="161"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="164"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -33077,12 +33198,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="164"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -33090,12 +33211,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="161"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="164"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -33103,12 +33224,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -33116,12 +33237,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -33169,117 +33290,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="164" t="str">
+      <c r="C13" s="155"/>
+      <c r="D13" s="154" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="162" t="s">
+      <c r="B14" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="164" t="str">
+      <c r="C14" s="155"/>
+      <c r="D14" s="154" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="155" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="164" t="str">
+      <c r="C15" s="155"/>
+      <c r="D15" s="154" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="155" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="164" t="str">
+      <c r="C16" s="155"/>
+      <c r="D16" s="154" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="164" t="str">
+      <c r="C17" s="155"/>
+      <c r="D17" s="154" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="163">
+      <c r="C18" s="155"/>
+      <c r="D18" s="165">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -33467,16 +33588,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="158"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -36774,166 +36895,150 @@
       <c r="L148" s="3"/>
     </row>
     <row r="149" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
+      <c r="A149" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="81" t="s">
+        <v>333</v>
+      </c>
+      <c r="J149" s="62">
+        <v>-681.3256543935745</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L149" s="3"/>
-      <c r="U149" s="99"/>
     </row>
     <row r="150" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="75" t="str">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="3"/>
+      <c r="U150" s="99"/>
+    </row>
+    <row r="151" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A151" s="75" t="str">
         <f>$A$124&amp;"."&amp;4</f>
         <v>D.4.4</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B151" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="3"/>
-      <c r="U150" s="99"/>
-    </row>
-    <row r="151" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="9" t="s">
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="3"/>
+      <c r="U151" s="99"/>
+    </row>
+    <row r="152" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A152" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B152" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="81" t="s">
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="J151" s="67">
+      <c r="J152" s="67">
         <v>0.14230099316700437</v>
       </c>
-      <c r="K151" s="5" t="s">
+      <c r="K152" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L151" s="3"/>
-    </row>
-    <row r="152" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
       <c r="L152" s="3"/>
-      <c r="U152" s="99"/>
     </row>
     <row r="153" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="75" t="str">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="3"/>
+      <c r="U153" s="99"/>
+    </row>
+    <row r="154" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A154" s="75" t="str">
         <f>$A$124&amp;"."&amp;5</f>
         <v>D.4.5</v>
       </c>
-      <c r="B153" s="12" t="s">
+      <c r="B154" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="3"/>
-      <c r="M153" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="N153" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="O153" s="78">
-        <v>1</v>
-      </c>
-      <c r="P153" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q153" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="R153" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="S153" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="U153" s="99"/>
-    </row>
-    <row r="154" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J154" s="62">
-        <v>1710.5339527007882</v>
-      </c>
-      <c r="K154" s="5" t="s">
-        <v>224</v>
-      </c>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
       <c r="L154" s="3"/>
       <c r="M154" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="N154" s="102"/>
-      <c r="O154" s="102"/>
-      <c r="P154" s="102"/>
-      <c r="Q154" s="102"/>
-      <c r="R154" s="102"/>
-      <c r="S154" s="122">
-        <f>1/bolt.axial_stiffness</f>
-        <v>5.846127745205436E-4</v>
-      </c>
-      <c r="T154" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
+      </c>
+      <c r="N154" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="O154" s="78">
+        <v>1</v>
+      </c>
+      <c r="P154" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q154" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="R154" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="S154" s="78" t="s">
+        <v>232</v>
       </c>
       <c r="U154" s="99"/>
     </row>
     <row r="155" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -36942,48 +37047,38 @@
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J155" s="62">
-        <v>600.85776552878792</v>
+        <v>1710.5339527007882</v>
       </c>
       <c r="K155" s="5" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="L155" s="3"/>
       <c r="M155" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="N155" s="120">
-        <v>94.734999999999999</v>
-      </c>
-      <c r="O155" s="120">
-        <v>780.97299999999996</v>
-      </c>
-      <c r="P155" s="120">
-        <v>452.98</v>
-      </c>
-      <c r="Q155" s="120">
-        <v>139.38</v>
-      </c>
-      <c r="R155" s="120">
-        <v>75.787999999999997</v>
-      </c>
-      <c r="S155" s="121">
-        <f>1/(bolt.bending_stiffness/1000000)</f>
-        <v>1664.2873860837014</v>
+        <v>234</v>
+      </c>
+      <c r="N155" s="102"/>
+      <c r="O155" s="102"/>
+      <c r="P155" s="102"/>
+      <c r="Q155" s="102"/>
+      <c r="R155" s="102"/>
+      <c r="S155" s="122">
+        <f>1/bolt.axial_stiffness</f>
+        <v>5.846127745205436E-4</v>
       </c>
       <c r="T155" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U155" s="99"/>
     </row>
     <row r="156" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -36992,123 +37087,148 @@
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
       <c r="I156" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J156" s="62">
+        <v>600.85776552878792</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L156" s="3"/>
+      <c r="M156" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="N156" s="120">
+        <v>94.734999999999999</v>
+      </c>
+      <c r="O156" s="120">
+        <v>780.97299999999996</v>
+      </c>
+      <c r="P156" s="120">
+        <v>452.98</v>
+      </c>
+      <c r="Q156" s="120">
+        <v>139.38</v>
+      </c>
+      <c r="R156" s="120">
+        <v>75.787999999999997</v>
+      </c>
+      <c r="S156" s="121">
+        <f>1/(bolt.bending_stiffness/1000000)</f>
+        <v>1664.2873860837014</v>
+      </c>
+      <c r="T156" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U156" s="99"/>
+    </row>
+    <row r="157" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A157" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="J156" s="62">
+      <c r="J157" s="62">
         <v>4344.0537979949813</v>
       </c>
-      <c r="K156" s="5" t="s">
+      <c r="K157" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L156" s="3"/>
-      <c r="N156" s="133">
+      <c r="L157" s="3"/>
+      <c r="N157" s="133">
         <v>94.7</v>
       </c>
-      <c r="O156" s="133">
+      <c r="O157" s="133">
         <v>781</v>
       </c>
-      <c r="P156" s="133">
+      <c r="P157" s="133">
         <v>453</v>
       </c>
-      <c r="Q156" s="133">
+      <c r="Q157" s="133">
         <v>139</v>
       </c>
-      <c r="R156" s="133">
+      <c r="R157" s="133">
         <v>75.8</v>
       </c>
-      <c r="U156" s="99"/>
-    </row>
-    <row r="157" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-      <c r="L157" s="3"/>
       <c r="U157" s="99"/>
     </row>
     <row r="158" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="75" t="str">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="3"/>
+      <c r="U158" s="99"/>
+    </row>
+    <row r="159" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A159" s="75" t="str">
         <f>$A$124&amp;"."&amp;6</f>
         <v>D.4.6</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="B159" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="12"/>
-      <c r="L158" s="3"/>
-      <c r="U158" s="99"/>
-    </row>
-    <row r="159" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
-      <c r="I159" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="J159" s="92">
-        <v>119.99999999999999</v>
-      </c>
-      <c r="K159" s="93" t="s">
-        <v>217</v>
-      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
       <c r="L159" s="3"/>
       <c r="U159" s="99"/>
     </row>
     <row r="160" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J160" s="64">
-        <v>225.55390100553569</v>
-      </c>
-      <c r="K160" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J160" s="92">
+        <v>119.99999999999999</v>
+      </c>
+      <c r="K160" s="93" t="s">
+        <v>217</v>
       </c>
       <c r="L160" s="3"/>
-      <c r="U160" s="100"/>
+      <c r="U160" s="99"/>
     </row>
     <row r="161" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A161" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -37117,10 +37237,10 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="7" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="J161" s="64">
-        <v>112.77695050276785</v>
+        <v>225.55390100553569</v>
       </c>
       <c r="K161" s="5" t="s">
         <v>8</v>
@@ -37130,10 +37250,10 @@
     </row>
     <row r="162" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -37142,23 +37262,23 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="J162" s="151">
-        <v>123831110.42899768</v>
+        <v>298</v>
+      </c>
+      <c r="J162" s="64">
+        <v>112.77695050276785</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>290</v>
+        <v>8</v>
       </c>
       <c r="L162" s="3"/>
       <c r="U162" s="100"/>
     </row>
     <row r="163" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
@@ -37167,82 +37287,93 @@
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
       <c r="I163" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="J163" s="92">
-        <v>10310.000230734646</v>
+        <v>301</v>
+      </c>
+      <c r="J163" s="151">
+        <v>123831110.42899768</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="L163" s="3"/>
-      <c r="N163" s="123"/>
-      <c r="O163" s="123"/>
-      <c r="P163" s="123"/>
-      <c r="Q163" s="123"/>
-      <c r="R163" s="123"/>
-      <c r="S163" s="124"/>
+      <c r="U163" s="100"/>
     </row>
     <row r="164" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="J164" s="84">
-        <v>9.3924103466994507E-2</v>
-      </c>
-      <c r="K164" s="15" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J164" s="92">
+        <v>10310.000230734646</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="L164" s="3"/>
+      <c r="N164" s="123"/>
+      <c r="O164" s="123"/>
+      <c r="P164" s="123"/>
+      <c r="Q164" s="123"/>
+      <c r="R164" s="123"/>
+      <c r="S164" s="124"/>
     </row>
     <row r="165" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A165" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="J165" s="84">
+        <v>9.3924103466994507E-2</v>
+      </c>
+      <c r="K165" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L165" s="3"/>
+    </row>
+    <row r="166" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A166" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B166" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="7" t="s">
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J165" s="66">
+      <c r="J166" s="66">
         <v>0.5528382900405413</v>
       </c>
-      <c r="K165" s="5" t="s">
+      <c r="K166" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L165" s="3"/>
-    </row>
-    <row r="166" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="9"/>
-      <c r="B166" s="58"/>
-      <c r="C166" s="58"/>
-      <c r="D166" s="58"/>
-      <c r="E166" s="58"/>
-      <c r="F166" s="58"/>
-      <c r="G166" s="58"/>
-      <c r="H166" s="58"/>
-      <c r="I166" s="59"/>
-      <c r="J166" s="125"/>
-      <c r="K166" s="60"/>
       <c r="L166" s="3"/>
     </row>
     <row r="167" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -37339,22 +37470,22 @@
       <c r="G173" s="58"/>
       <c r="H173" s="58"/>
       <c r="I173" s="59"/>
-      <c r="J173" s="63"/>
+      <c r="J173" s="125"/>
       <c r="K173" s="60"/>
       <c r="L173" s="3"/>
     </row>
     <row r="174" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
+      <c r="A174" s="9"/>
+      <c r="B174" s="58"/>
+      <c r="C174" s="58"/>
+      <c r="D174" s="58"/>
+      <c r="E174" s="58"/>
+      <c r="F174" s="58"/>
+      <c r="G174" s="58"/>
+      <c r="H174" s="58"/>
+      <c r="I174" s="59"/>
+      <c r="J174" s="63"/>
+      <c r="K174" s="60"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -37371,10 +37502,24 @@
       <c r="K175" s="4"/>
       <c r="L175" s="3"/>
     </row>
-    <row r="179" spans="2:4" ht="13.2">
-      <c r="B179" s="69"/>
-      <c r="C179" s="69"/>
-      <c r="D179" s="69"/>
+    <row r="176" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="3"/>
+    </row>
+    <row r="180" spans="2:4" ht="13.2">
+      <c r="B180" s="69"/>
+      <c r="C180" s="69"/>
+      <c r="D180" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -37434,8 +37579,8 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="B2:R120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -39776,8 +39921,8 @@
         <f t="array" ref="E79">INDEX(N79:Q79,case_number)</f>
         <v>806.61559168592612</v>
       </c>
-      <c r="F79" s="107">
-        <f ca="1">F93-F92</f>
+      <c r="F79" s="107" cm="1">
+        <f t="array" aca="1" ref="F79" ca="1">-INDIRECT(sheet_name&amp;"!DZ_gap")</f>
         <v>806.61560331250178</v>
       </c>
       <c r="G79" s="118">
@@ -40452,7 +40597,7 @@
         <v>1378.9613729855218</v>
       </c>
       <c r="F93" s="107" cm="1">
-        <f t="array" aca="1" ref="F93" ca="1">-INDIRECT(sheet_name&amp;"!DZ_gap")</f>
+        <f t="array" aca="1" ref="F93" ca="1">-INDIRECT(sheet_name&amp;"!DZ_gap_tot")</f>
         <v>806.61560331250178</v>
       </c>
       <c r="G93" s="107"/>
@@ -41874,6 +42019,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E5A98ECA1EC044BB77E0D7F6ADEF7BC" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5e88349ac6f5efd4674595e2a92e1fa9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2278e7f3-5df8-4100-b836-5320443b7544" xmlns:ns4="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bde21b231255bb48ab8a6ec7dd561648" ns3:_="" ns4:_="">
     <xsd:import namespace="2278e7f3-5df8-4100-b836-5320443b7544"/>
@@ -42126,24 +42288,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
+    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A7863D2-B6F1-4C67-B9E9-1F3A9276C4FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42160,29 +42330,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
-    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/validation/BnB_ReferenceFlange-Results.xlsx
+++ b/tests/validation/BnB_ReferenceFlange-Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\tests\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD895A3-8A60-4BFA-8650-EC09F0347675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4660747C-B652-4273-A811-6E1086F68F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9165" windowWidth="29040" windowHeight="17520" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="-28920" yWindow="-9165" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap30deg" sheetId="2" r:id="rId1"/>
@@ -5082,13 +5082,34 @@
     <xf numFmtId="2" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5099,27 +5120,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -19623,9 +19623,9 @@
   </sheetPr>
   <dimension ref="A1:DJ180"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -19711,12 +19711,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -19724,12 +19724,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -19737,12 +19737,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -19750,12 +19750,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -19763,12 +19763,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -19816,112 +19816,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="154" t="s">
+      <c r="C13" s="156"/>
+      <c r="D13" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="155"/>
-      <c r="D14" s="154" t="s">
+      <c r="C14" s="156"/>
+      <c r="D14" s="158" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="154" t="s">
+      <c r="C15" s="156"/>
+      <c r="D15" s="158" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="155"/>
-      <c r="D16" s="154" t="str">
+      <c r="C16" s="156"/>
+      <c r="D16" s="158" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size</v>
       </c>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="153" t="s">
+      <c r="C17" s="156"/>
+      <c r="D17" s="162" t="s">
         <v>328</v>
       </c>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="155"/>
-      <c r="D18" s="165">
+      <c r="C18" s="156"/>
+      <c r="D18" s="157">
         <v>45432</v>
       </c>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -20109,16 +20109,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="165"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -24071,6 +24071,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B18:C18"/>
@@ -24081,16 +24087,10 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="27" priority="5" stopIfTrue="1" operator="between">
@@ -24130,8 +24130,8 @@
   <dimension ref="A1:DJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -24217,12 +24217,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -24230,12 +24230,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -24243,12 +24243,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -24256,12 +24256,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -24269,12 +24269,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -24322,117 +24322,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="154" t="str">
+      <c r="C13" s="156"/>
+      <c r="D13" s="158" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="155"/>
-      <c r="D14" s="154" t="str">
+      <c r="C14" s="156"/>
+      <c r="D14" s="158" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="154" t="str">
+      <c r="C15" s="156"/>
+      <c r="D15" s="158" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="155"/>
-      <c r="D16" s="154" t="str">
+      <c r="C16" s="156"/>
+      <c r="D16" s="158" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size</v>
       </c>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="154" t="str">
+      <c r="C17" s="156"/>
+      <c r="D17" s="158" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="155"/>
-      <c r="D18" s="165">
+      <c r="C18" s="156"/>
+      <c r="D18" s="157">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -24620,16 +24620,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="165"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -28555,13 +28555,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -28575,6 +28568,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="between">
@@ -28614,8 +28614,8 @@
   <dimension ref="A1:DJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -28701,12 +28701,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -28714,12 +28714,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -28727,12 +28727,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -28740,12 +28740,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -28753,12 +28753,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -28806,117 +28806,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="154" t="str">
+      <c r="C13" s="156"/>
+      <c r="D13" s="158" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="155"/>
-      <c r="D14" s="154" t="str">
+      <c r="C14" s="156"/>
+      <c r="D14" s="158" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="154" t="str">
+      <c r="C15" s="156"/>
+      <c r="D15" s="158" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="155"/>
-      <c r="D16" s="154" t="str">
+      <c r="C16" s="156"/>
+      <c r="D16" s="158" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size</v>
       </c>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="154" t="str">
+      <c r="C17" s="156"/>
+      <c r="D17" s="158" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="155"/>
-      <c r="D18" s="165">
+      <c r="C18" s="156"/>
+      <c r="D18" s="157">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -29104,16 +29104,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="165"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -33039,13 +33039,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -33059,6 +33052,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="between">
@@ -33097,9 +33097,9 @@
   </sheetPr>
   <dimension ref="A1:DJ180"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -33185,12 +33185,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -33198,12 +33198,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -33211,12 +33211,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -33224,12 +33224,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -33237,12 +33237,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -33290,117 +33290,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="154" t="str">
+      <c r="C13" s="156"/>
+      <c r="D13" s="158" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="155"/>
-      <c r="D14" s="154" t="str">
+      <c r="C14" s="156"/>
+      <c r="D14" s="158" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="154" t="str">
+      <c r="C15" s="156"/>
+      <c r="D15" s="158" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="155"/>
-      <c r="D16" s="154" t="str">
+      <c r="C16" s="156"/>
+      <c r="D16" s="158" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size</v>
       </c>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="154" t="str">
+      <c r="C17" s="156"/>
+      <c r="D17" s="158" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="155"/>
-      <c r="D18" s="165">
+      <c r="C18" s="156"/>
+      <c r="D18" s="157">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -33588,16 +33588,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="165"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -37523,13 +37523,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -37543,6 +37536,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="between">
@@ -37579,7 +37579,7 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="B2:R120"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
@@ -42028,14 +42028,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E5A98ECA1EC044BB77E0D7F6ADEF7BC" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5e88349ac6f5efd4674595e2a92e1fa9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2278e7f3-5df8-4100-b836-5320443b7544" xmlns:ns4="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bde21b231255bb48ab8a6ec7dd561648" ns3:_="" ns4:_="">
     <xsd:import namespace="2278e7f3-5df8-4100-b836-5320443b7544"/>
@@ -42288,6 +42280,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
   <ds:schemaRefs>
@@ -42297,23 +42297,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
-    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A7863D2-B6F1-4C67-B9E9-1F3A9276C4FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42330,4 +42313,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
+    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/validation/BnB_ReferenceFlange-Results.xlsx
+++ b/tests/validation/BnB_ReferenceFlange-Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\tests\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4660747C-B652-4273-A811-6E1086F68F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1904009D-2699-4424-BD59-25A49AA36840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-9165" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
@@ -19625,7 +19625,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
+      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -24131,7 +24131,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
+      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -28555,6 +28555,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -28568,13 +28575,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="between">
@@ -28615,7 +28615,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
+      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -33039,6 +33039,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -33052,13 +33059,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="between">
@@ -37523,6 +37523,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -37536,13 +37543,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="between">
@@ -37580,7 +37580,7 @@
   <dimension ref="B2:R120"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -37612,19 +37612,19 @@
     </row>
     <row r="21" spans="2:18" ht="18">
       <c r="G21" s="135">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="2:18">
       <c r="G22" s="136">
         <f>MATCH(gap_angle,N48:Q48,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:18">
       <c r="G23" s="136" t="str">
         <f>"Gap"&amp;gap_angle&amp;"deg"</f>
-        <v>Gap60deg</v>
+        <v>Gap120deg</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -38646,11 +38646,11 @@
       </c>
       <c r="E48" s="110" cm="1">
         <f t="array" ref="E48">INDEX(N48:Q48,case_number)</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F48" s="110" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">INDIRECT(sheet_name&amp;"!gap.angle")</f>
-        <v>59.999999999999993</v>
+        <v>119.99999999999999</v>
       </c>
       <c r="G48" s="118">
         <f t="shared" ref="G48:G53" ca="1" si="1">(F48-E48)/E48</f>
@@ -38692,11 +38692,11 @@
       </c>
       <c r="E49" s="109" cm="1">
         <f t="array" ref="E49">INDEX(N49:Q49,case_number)</f>
-        <v>3.9269908169872414</v>
+        <v>7.8539816339744828</v>
       </c>
       <c r="F49" s="109" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">INDIRECT(sheet_name&amp;"!gap.L")/1000</f>
-        <v>3.926990816987241</v>
+        <v>7.8539816339744819</v>
       </c>
       <c r="G49" s="118">
         <f t="shared" ca="1" si="1"/>
@@ -38836,15 +38836,15 @@
       </c>
       <c r="E52" s="109" cm="1">
         <f t="array" ref="E52">INDEX(N52:Q52,case_number)</f>
-        <v>0.74253427729521915</v>
+        <v>2.1533230192475301</v>
       </c>
       <c r="F52" s="109" cm="1">
         <f t="array" aca="1" ref="F52" ca="1">INDIRECT(sheet_name&amp;"!gap.k_mean")</f>
-        <v>0.74253427729521959</v>
+        <v>2.1533230192475297</v>
       </c>
       <c r="G52" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9807233609163099E-16</v>
+        <v>-2.0623436701347657E-16</v>
       </c>
       <c r="I52" s="146"/>
       <c r="J52" s="144"/>
@@ -38888,15 +38888,15 @@
       </c>
       <c r="E53" s="109" cm="1">
         <f t="array" ref="E53">INDEX(N53:Q53,case_number)</f>
-        <v>0.63575115537527993</v>
+        <v>0.44426272750754409</v>
       </c>
       <c r="F53" s="109" cm="1">
         <f t="array" aca="1" ref="F53" ca="1">INDIRECT(sheet_name&amp;"!gap.COV")</f>
-        <v>0.63575115537527982</v>
+        <v>0.44426272750754392</v>
       </c>
       <c r="G53" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7463169594553058E-16</v>
+        <v>-3.7485353459219818E-16</v>
       </c>
       <c r="I53" s="146"/>
       <c r="J53" s="144"/>
@@ -39076,7 +39076,7 @@
       <c r="D57" s="103"/>
       <c r="E57" s="109" cm="1">
         <f t="array" ref="E57">INDEX(N57:Q57,case_number)</f>
-        <v>0.58262609700472079</v>
+        <v>0.42441366570439232</v>
       </c>
       <c r="F57" s="109" t="s">
         <v>87</v>
@@ -39120,7 +39120,7 @@
       <c r="D58" s="103"/>
       <c r="E58" s="109" cm="1">
         <f t="array" ref="E58">INDEX(N58:Q58,case_number)</f>
-        <v>-0.46741282911895099</v>
+        <v>0.67694875947348121</v>
       </c>
       <c r="F58" s="109" t="s">
         <v>87</v>
@@ -39164,7 +39164,7 @@
       <c r="D59" s="103"/>
       <c r="E59" s="109" cm="1">
         <f t="array" ref="E59">INDEX(N59:Q59,case_number)</f>
-        <v>0.49094883784411425</v>
+        <v>1.3750667981906362</v>
       </c>
       <c r="F59" s="113" t="s">
         <v>87</v>
@@ -39210,15 +39210,15 @@
       </c>
       <c r="E60" s="109" cm="1">
         <f t="array" ref="E60">INDEX(N60:Q60,case_number)</f>
-        <v>1.6338216149415525</v>
+        <v>3.9552630780086151</v>
       </c>
       <c r="F60" s="109" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">INDIRECT(sheet_name&amp;"!gap.h")</f>
-        <v>1.6338216149415536</v>
+        <v>3.9552630780086138</v>
       </c>
       <c r="G60" s="118">
         <f t="shared" ref="G60:G61" ca="1" si="2">(F60-E60)/E60</f>
-        <v>6.7952523976424013E-16</v>
+        <v>-3.3683413802678182E-16</v>
       </c>
       <c r="I60" s="146"/>
       <c r="J60" s="144"/>
@@ -39259,15 +39259,15 @@
       </c>
       <c r="E61" s="109" cm="1">
         <f t="array" ref="E61">INDEX(N61:Q61,case_number)</f>
-        <v>1.6338216149415525</v>
+        <v>3.9552630780086151</v>
       </c>
       <c r="F61" s="109" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">INDIRECT(sheet_name&amp;"!gap.h")</f>
-        <v>1.6338216149415536</v>
+        <v>3.9552630780086138</v>
       </c>
       <c r="G61" s="118">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7952523976424013E-16</v>
+        <v>-3.3683413802678182E-16</v>
       </c>
       <c r="H61" t="s">
         <v>166</v>
@@ -39552,15 +39552,15 @@
       </c>
       <c r="E69" s="108" cm="1">
         <f t="array" ref="E69">INDEX(N69:Q69,case_number)</f>
-        <v>1696.4363831333353</v>
+        <v>1541.2016094157079</v>
       </c>
       <c r="F69" s="108" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">INDIRECT(sheet_name&amp;"!Point2.Z")</f>
-        <v>1696.4509084501303</v>
+        <v>1541.2066792348119</v>
       </c>
       <c r="G69" s="118">
         <f t="shared" ca="1" si="4"/>
-        <v>8.5622525780704417E-6</v>
+        <v>3.2895236242709198E-6</v>
       </c>
       <c r="K69" s="106"/>
       <c r="L69" s="103" t="s">
@@ -39632,15 +39632,15 @@
       </c>
       <c r="E71" s="107" cm="1">
         <f t="array" ref="E71">INDEX(N71:Q71,case_number)</f>
-        <v>139.05186524303502</v>
+        <v>114.91573803665135</v>
       </c>
       <c r="F71" s="107" cm="1">
         <f t="array" aca="1" ref="F71" ca="1">INDIRECT(sheet_name&amp;"!Point3.Z")</f>
-        <v>139.05305712166626</v>
+        <v>114.91611609263964</v>
       </c>
       <c r="G71" s="118">
         <f t="shared" ca="1" si="4"/>
-        <v>8.5714681291688551E-6</v>
+        <v>3.2898538942688651E-6</v>
       </c>
       <c r="K71" s="106"/>
       <c r="L71" s="103" t="s">
@@ -39672,15 +39672,15 @@
       </c>
       <c r="E72" s="107" cm="1">
         <f t="array" ref="E72">INDEX(N72:Q72,case_number)</f>
-        <v>2913.3330351123464</v>
+        <v>2909.8983215598046</v>
       </c>
       <c r="F72" s="107" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">INDIRECT(sheet_name&amp;"!Point3.Fs")</f>
-        <v>2913.3319147472034</v>
+        <v>2909.8972040667595</v>
       </c>
       <c r="G72" s="118">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.8456473373320486E-7</v>
+        <v>-3.8403164700920288E-7</v>
       </c>
       <c r="K72" s="106"/>
       <c r="L72" s="103" t="s">
@@ -39710,7 +39710,7 @@
       <c r="D73" s="103"/>
       <c r="E73" s="107" cm="1">
         <f t="array" ref="E73">INDEX(N73:Q73,case_number)</f>
-        <v>743485843.40941381</v>
+        <v>565514679.49266434</v>
       </c>
       <c r="F73" s="110" t="s">
         <v>87</v>
@@ -39742,7 +39742,7 @@
       <c r="D74" s="103"/>
       <c r="E74" s="107" cm="1">
         <f t="array" ref="E74">INDEX(N74:Q74,case_number)</f>
-        <v>120689.0282649705</v>
+        <v>114847.59567491277</v>
       </c>
       <c r="F74" s="111" t="s">
         <v>87</v>
@@ -39774,7 +39774,7 @@
       <c r="D75" s="103"/>
       <c r="E75" s="107" cm="1">
         <f t="array" ref="E75">INDEX(N75:Q75,case_number)</f>
-        <v>103900346.66917758</v>
+        <v>81438036.502008379</v>
       </c>
       <c r="F75" s="111" t="s">
         <v>87</v>
@@ -39806,15 +39806,15 @@
       <c r="D76" s="103"/>
       <c r="E76" s="148" cm="1">
         <f t="array" ref="E76">INDEX(N76:Q76,case_number)</f>
-        <v>1.6232861638834317E-4</v>
+        <v>2.0308508309270604E-4</v>
       </c>
       <c r="F76" s="148" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.2")*1000</f>
-        <v>1.6232835882917454E-4</v>
+        <v>2.0308694006396957E-4</v>
       </c>
       <c r="G76" s="118">
         <f t="shared" ref="G76:G78" ca="1" si="5">(F76-E76)/E76</f>
-        <v>-1.5866528918773755E-6</v>
+        <v>9.1438092608626833E-6</v>
       </c>
       <c r="K76" s="106"/>
       <c r="L76" s="105" t="s">
@@ -39842,15 +39842,15 @@
       <c r="D77" s="103"/>
       <c r="E77" s="148" cm="1">
         <f t="array" ref="E77">INDEX(N77:Q77,case_number)</f>
-        <v>0.13974757904295831</v>
+        <v>0.14400693643367177</v>
       </c>
       <c r="F77" s="148" cm="1">
         <f t="array" aca="1" ref="F77" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.1")</f>
-        <v>0.13974247252157912</v>
+        <v>0.144001958104435</v>
       </c>
       <c r="G77" s="118">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.6541036447041404E-5</v>
+        <v>-3.4570065581934844E-5</v>
       </c>
       <c r="K77" s="106"/>
       <c r="L77" s="105" t="s">
@@ -39878,15 +39878,15 @@
       <c r="D78" s="103"/>
       <c r="E78" s="108" cm="1">
         <f t="array" ref="E78">INDEX(N78:Q78,case_number)</f>
-        <v>2890.762181408068</v>
+        <v>2890.6677923513116</v>
       </c>
       <c r="F78" s="107" cm="1">
         <f t="array" aca="1" ref="F78" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.0")/1000</f>
-        <v>2890.7615557316503</v>
+        <v>2890.6671503372891</v>
       </c>
       <c r="G78" s="118">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.1643994851476227E-7</v>
+        <v>-2.2209886042899792E-7</v>
       </c>
       <c r="K78" s="106"/>
       <c r="L78" s="112" t="s">
@@ -39919,15 +39919,15 @@
       </c>
       <c r="E79" s="107" cm="1">
         <f t="array" ref="E79">INDEX(N79:Q79,case_number)</f>
-        <v>806.61559168592612</v>
+        <v>681.32565393551567</v>
       </c>
       <c r="F79" s="107" cm="1">
         <f t="array" aca="1" ref="F79" ca="1">-INDIRECT(sheet_name&amp;"!DZ_gap")</f>
-        <v>806.61560331250178</v>
+        <v>681.3256543935745</v>
       </c>
       <c r="G79" s="118">
         <f ca="1">(F79-E79)/E79</f>
-        <v>1.4414022956968493E-8</v>
+        <v>6.7230526026688042E-10</v>
       </c>
       <c r="I79" s="141"/>
       <c r="K79" s="106">
@@ -40146,15 +40146,15 @@
       </c>
       <c r="E84" s="111" cm="1">
         <f t="array" ref="E84">INDEX(N84:Q84,case_number)</f>
-        <v>5087.1057121717786</v>
+        <v>1774.9582977160969</v>
       </c>
       <c r="F84" s="111" cm="1">
         <f t="array" aca="1" ref="F84" ca="1">INDIRECT(sheet_name&amp;"!gap.stiffness")</f>
-        <v>5087.1057854974342</v>
+        <v>1774.9582989094115</v>
       </c>
       <c r="G84" s="118">
         <f ca="1">(F84-E84)/E84</f>
-        <v>1.4414022392578782E-8</v>
+        <v>6.7230569630928792E-10</v>
       </c>
       <c r="I84" s="140"/>
       <c r="K84" s="106">
@@ -40197,7 +40197,7 @@
       </c>
       <c r="E85" s="111" cm="1">
         <f t="array" ref="E85">INDEX(N85:Q85,case_number)</f>
-        <v>2010.5727094753945</v>
+        <v>594.89447044033909</v>
       </c>
       <c r="F85" s="111" t="s">
         <v>87</v>
@@ -40244,15 +40244,15 @@
       </c>
       <c r="E86" s="111" cm="1">
         <f t="array" ref="E86">INDEX(N86:Q86,case_number)</f>
-        <v>2212.1093218994611</v>
+        <v>800.4072256196913</v>
       </c>
       <c r="F86" s="111" cm="1">
         <f t="array" aca="1" ref="F86" ca="1">INDIRECT(sheet_name&amp;"!gap.k_shell")</f>
-        <v>2212.1093218994611</v>
+        <v>800.40722561969153</v>
       </c>
       <c r="G86" s="118">
         <f ca="1">(F86-E86)/E86</f>
-        <v>0</v>
+        <v>2.840724923081433E-16</v>
       </c>
       <c r="H86" t="s">
         <v>154</v>
@@ -40292,15 +40292,15 @@
       </c>
       <c r="E87" s="111" cm="1">
         <f t="array" ref="E87">INDEX(N87:Q87,case_number)</f>
-        <v>2212.1093218994611</v>
+        <v>800.4072256196913</v>
       </c>
       <c r="F87" s="111" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">INDIRECT(sheet_name&amp;"!gap.k_shell")</f>
-        <v>2212.1093218994611</v>
+        <v>800.40722561969153</v>
       </c>
       <c r="G87" s="118">
         <f ca="1">(F87-E87)/E87</f>
-        <v>0</v>
+        <v>2.840724923081433E-16</v>
       </c>
       <c r="H87" t="s">
         <v>152</v>
@@ -40343,11 +40343,11 @@
       </c>
       <c r="E88" s="109" cm="1">
         <f t="array" ref="E88">INDEX(N88:Q88,case_number)</f>
-        <v>2.1031001583544837</v>
+        <v>2.9062003167089676</v>
       </c>
       <c r="F88" s="109" cm="1">
         <f t="array" aca="1" ref="F88" ca="1">INDIRECT(sheet_name&amp;"!gap.k_fac")</f>
-        <v>2.1031001583544837</v>
+        <v>2.9062003167089676</v>
       </c>
       <c r="G88" s="118">
         <f ca="1">(F88-E88)/E88</f>
@@ -40394,15 +40394,15 @@
       </c>
       <c r="E89" s="107" cm="1">
         <f t="array" ref="E89">INDEX(N89:Q89,case_number)</f>
-        <v>100.21145636043828</v>
+        <v>6.3920006148981718</v>
       </c>
       <c r="F89" s="107" cm="1">
         <f t="array" aca="1" ref="F89" ca="1">INDIRECT(sheet_name&amp;"!gap.k_fl")</f>
-        <v>100.21148969028162</v>
+        <v>6.3920011573135929</v>
       </c>
       <c r="G89" s="118">
         <f ca="1">(F89-E89)/E89</f>
-        <v>3.3259513989691736E-7</v>
+        <v>8.4858474474946531E-8</v>
       </c>
       <c r="I89" s="140"/>
       <c r="K89" s="106">
@@ -40445,7 +40445,7 @@
       </c>
       <c r="E90" s="110" cm="1">
         <f t="array" ref="E90">INDEX(N90:Q90,case_number)</f>
-        <v>572.34578129959584</v>
+        <v>579.62119250410046</v>
       </c>
       <c r="F90" s="110" t="s">
         <v>87</v>
@@ -40495,7 +40495,7 @@
       </c>
       <c r="E91" s="110" cm="1">
         <f t="array" ref="E91">INDEX(N91:Q91,case_number)</f>
-        <v>330.74852994509934</v>
+        <v>298.39439776040422</v>
       </c>
       <c r="F91" s="110" t="s">
         <v>87</v>
@@ -40594,11 +40594,11 @@
       </c>
       <c r="E93" s="107" cm="1">
         <f t="array" ref="E93">INDEX(N93:Q93,case_number)</f>
-        <v>1378.9613729855218</v>
+        <v>1260.9468464396161</v>
       </c>
       <c r="F93" s="107" cm="1">
         <f t="array" aca="1" ref="F93" ca="1">-INDIRECT(sheet_name&amp;"!DZ_gap_tot")</f>
-        <v>806.61560331250178</v>
+        <v>681.3256543935745</v>
       </c>
       <c r="G93" s="107"/>
       <c r="I93" s="141"/>
@@ -40793,15 +40793,15 @@
       </c>
       <c r="E97" s="109" cm="1">
         <f t="array" ref="E97">INDEX(N97:Q97,case_number)</f>
-        <v>1.3446317340090279</v>
+        <v>1.1112353497098411</v>
       </c>
       <c r="F97" s="109" cm="1">
         <f t="array" aca="1" ref="F97" ca="1">INDIRECT(sheet_name&amp;"!stiffness_correction_factor")</f>
-        <v>1.3446432594770816</v>
+        <v>1.1112390055117838</v>
       </c>
       <c r="G97" s="118">
         <f ca="1">(F97-E97)/E97</f>
-        <v>8.5714681293114124E-6</v>
+        <v>3.2898538942991016E-6</v>
       </c>
       <c r="I97" s="141"/>
       <c r="K97" s="106">
@@ -40885,15 +40885,15 @@
       </c>
       <c r="E99" s="107" cm="1">
         <f t="array" ref="E99">INDEX(N99:Q99,case_number)</f>
-        <v>14760.990385286221</v>
+        <v>15956.782644600848</v>
       </c>
       <c r="F99" s="107" cm="1">
         <f t="array" aca="1" ref="F99" ca="1">INDIRECT(sheet_name&amp;"!k_seg")</f>
-        <v>14760.496964936936</v>
+        <v>15956.258245417217</v>
       </c>
       <c r="G99" s="118">
         <f ca="1">(F99-E99)/E99</f>
-        <v>-3.3427320010769955E-5</v>
+        <v>-3.2863716659570941E-5</v>
       </c>
       <c r="I99" s="140"/>
       <c r="K99" s="106">
@@ -40936,15 +40936,15 @@
       </c>
       <c r="E100" s="111" cm="1">
         <f t="array" ref="E100">INDEX(N100:Q100,case_number)</f>
-        <v>1261.6364319138888</v>
+        <v>1386.9263696642993</v>
       </c>
       <c r="F100" s="111" cm="1">
         <f t="array" aca="1" ref="F100" ca="1">ROUND(INDIRECT(sheet_name&amp;"!Z_2_td"),0)</f>
-        <v>1262</v>
+        <v>1387</v>
       </c>
       <c r="G100" s="118">
         <f ca="1">(F100-E100)/E100</f>
-        <v>2.8817183533582925E-4</v>
+        <v>5.3088856994296868E-5</v>
       </c>
       <c r="I100" s="140"/>
       <c r="K100" s="106">
@@ -40987,15 +40987,15 @@
       </c>
       <c r="E101" s="109" cm="1">
         <f t="array" ref="E101">INDEX(N101:Q101,case_number)</f>
-        <v>0.4403495083656086</v>
+        <v>0.44780286498460981</v>
       </c>
       <c r="F101" s="109" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">INDIRECT(sheet_name&amp;"!u")</f>
-        <v>0.44036422450343377</v>
+        <v>0.44781758178683745</v>
       </c>
       <c r="G101" s="118">
         <f ca="1">(F101-E101)/E101</f>
-        <v>3.3419221653695012E-5</v>
+        <v>3.2864466439153234E-5</v>
       </c>
       <c r="H101" t="s">
         <v>310</v>
@@ -41041,7 +41041,7 @@
       </c>
       <c r="E102" s="110" cm="1">
         <f t="array" ref="E102">INDEX(N102:Q102,case_number)</f>
-        <v>0.4403495083656086</v>
+        <v>0.44780286498460981</v>
       </c>
       <c r="F102" s="104"/>
       <c r="G102" s="104"/>
@@ -41204,15 +41204,15 @@
       </c>
       <c r="E106" s="107" cm="1">
         <f t="array" ref="E106">INDEX(N106:Q106,case_number)</f>
-        <v>-929.90725835259275</v>
+        <v>-804.6173206021823</v>
       </c>
       <c r="F106" s="107" cm="1">
         <f t="array" aca="1" ref="F106" ca="1">INDIRECT(sheet_name&amp;"!point4.Z")</f>
-        <v>-929.9072699791684</v>
+        <v>-804.61732106024112</v>
       </c>
       <c r="G106" s="118">
         <f ca="1">(F106-E106)/E106</f>
-        <v>1.2502941074583179E-8</v>
+        <v>5.6928779603303134E-10</v>
       </c>
       <c r="I106" s="103"/>
       <c r="K106" s="106">
@@ -41255,15 +41255,15 @@
       </c>
       <c r="E107" s="113" cm="1">
         <f t="array" ref="E107">INDEX(N107:Q107,case_number)</f>
-        <v>9.9720210072952314E-2</v>
+        <v>9.3929742888128082E-2</v>
       </c>
       <c r="F107" s="113" cm="1">
         <f t="array" aca="1" ref="F107" ca="1">INDIRECT(sheet_name&amp;"!true_force_initial_slope")</f>
-        <v>9.9715004706951826E-2</v>
+        <v>9.3924103466994507E-2</v>
       </c>
       <c r="G107" s="118">
         <f ca="1">(F107-E107)/E107</f>
-        <v>-5.2199709534105006E-5</v>
+        <v>-6.0038715748331511E-5</v>
       </c>
       <c r="I107" s="105"/>
       <c r="K107" s="106">
@@ -41306,15 +41306,15 @@
       </c>
       <c r="E108" s="108" cm="1">
         <f t="array" ref="E108">INDEX(N108:Q108,case_number)</f>
-        <v>2835.78206187448</v>
+        <v>2844.0016282513757</v>
       </c>
       <c r="F108" s="108" cm="1">
         <f t="array" aca="1" ref="F108" ca="1">INDIRECT(sheet_name&amp;"!point4.Fs")</f>
-        <v>2835.7841606594966</v>
+        <v>2844.0035493710097</v>
       </c>
       <c r="G108" s="118">
         <f ca="1">(F108-E108)/E108</f>
-        <v>7.4010800930687565E-7</v>
+        <v>6.7549878135732482E-7</v>
       </c>
       <c r="I108" s="103"/>
       <c r="K108" s="106">
@@ -41700,15 +41700,15 @@
       </c>
       <c r="E117" s="113" cm="1">
         <f t="array" ref="E117">INDEX(N117:Q117,case_number)</f>
-        <v>0.52574076951576887</v>
+        <v>0.55288838292446807</v>
       </c>
       <c r="F117" s="113" cm="1">
         <f t="array" aca="1" ref="F117" ca="1">INDIRECT(sheet_name&amp;"!true_moment_initial_slope")</f>
-        <v>0.52569390293812568</v>
+        <v>0.5528382900405413</v>
       </c>
       <c r="G117" s="118">
         <f ca="1">(F117-E117)/E117</f>
-        <v>-8.9143890602884094E-5</v>
+        <v>-9.0602163969884055E-5</v>
       </c>
       <c r="H117" t="s">
         <v>310</v>
@@ -41750,7 +41750,7 @@
       </c>
       <c r="E118" s="113" cm="1">
         <f t="array" ref="E118">INDEX(N118:Q118,case_number)</f>
-        <v>9.1352017987722328E-2</v>
+        <v>8.0814590704625683E-2</v>
       </c>
       <c r="F118" s="109" t="s">
         <v>87</v>
@@ -41797,15 +41797,15 @@
       </c>
       <c r="E119" s="108" cm="1">
         <f t="array" ref="E119">INDEX(N119:Q119,case_number)</f>
-        <v>-238.55882735848795</v>
+        <v>-220.44280819205335</v>
       </c>
       <c r="F119" s="108" cm="1">
         <f t="array" aca="1" ref="F119" ca="1">INDIRECT(sheet_name&amp;"!point4.Ms")</f>
-        <v>-238.5376166630308</v>
+        <v>-220.42311531727472</v>
       </c>
       <c r="G119" s="118">
         <f ca="1">(F119-E119)/E119</f>
-        <v>-8.8911802979600851E-5</v>
+        <v>-8.9333260359624004E-5</v>
       </c>
       <c r="H119" t="s">
         <v>310</v>
@@ -41847,7 +41847,7 @@
       </c>
       <c r="E120" s="108" cm="1">
         <f t="array" ref="E120">INDEX(N120:Q120,case_number)</f>
-        <v>-36.842981020435509</v>
+        <v>-27.530526929680075</v>
       </c>
       <c r="F120" s="109" t="s">
         <v>87</v>
@@ -41978,7 +41978,7 @@
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G21" xr:uid="{A97D2F7B-FDA4-407E-92F3-17F2D0816A54}">
       <formula1>$N$48:$Q$48</formula1>
     </dataValidation>
@@ -42028,6 +42028,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E5A98ECA1EC044BB77E0D7F6ADEF7BC" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5e88349ac6f5efd4674595e2a92e1fa9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2278e7f3-5df8-4100-b836-5320443b7544" xmlns:ns4="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bde21b231255bb48ab8a6ec7dd561648" ns3:_="" ns4:_="">
     <xsd:import namespace="2278e7f3-5df8-4100-b836-5320443b7544"/>
@@ -42280,14 +42288,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
   <ds:schemaRefs>
@@ -42297,6 +42297,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
+    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A7863D2-B6F1-4C67-B9E9-1F3A9276C4FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42313,21 +42330,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
-    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>